--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -11,9 +11,11 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$167</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$167</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$167</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="572">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1587,23 +1589,27 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">127
-130
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">128
+129
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">130
 133
 134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов кока-кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128
-129</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -1624,9 +1630,6 @@
     <t xml:space="preserve">1 door cooler</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
   </si>
   <si>
@@ -1640,9 +1643,6 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2- 3 полке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
   </si>
   <si>
     <t xml:space="preserve">131
@@ -1915,7 +1915,7 @@
     <numFmt numFmtId="172" formatCode="D\-MMM"/>
     <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -1964,6 +1964,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1980,8 +1985,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2005,7 +2010,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2057,7 +2062,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2166,6 +2171,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2220,7 +2229,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2238,7 +2247,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2264,50 +2273,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL167"/>
+  <dimension ref="A1:AL166"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="AK115" activeCellId="0" sqref="AK115"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.0931174089069"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="64.165991902834"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="65.4493927125506"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="50.4534412955466"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="66.5222672064777"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="51.3117408906883"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="89.1214574898785"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.6032388663968"/>
@@ -13181,7 +13190,7 @@
       <c r="AJ141" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK141" s="22" t="s">
+      <c r="AK141" s="27" t="s">
         <v>480</v>
       </c>
       <c r="AL141" s="14" t="n">
@@ -13190,7 +13199,7 @@
     </row>
     <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>38</v>
@@ -13209,20 +13218,30 @@
         <v>482</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
+      <c r="J142" s="5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="9"/>
+      <c r="M142" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
+      <c r="P142" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="Q142" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="R142" s="5"/>
+      <c r="R142" s="14" t="s">
+        <v>485</v>
+      </c>
       <c r="S142" s="5"/>
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
@@ -13230,39 +13249,39 @@
       <c r="W142" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="X142" s="5"/>
+      <c r="X142" s="5" t="s">
+        <v>486</v>
+      </c>
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5" t="s">
-        <v>92</v>
+        <v>479</v>
       </c>
       <c r="AD142" s="7"/>
-      <c r="AE142" s="26"/>
+      <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
       <c r="AG142" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AH142" s="5" t="s">
         <v>459</v>
       </c>
       <c r="AI142" s="5" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ142" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="AK142" s="13" t="s">
-        <v>484</v>
-      </c>
+      <c r="AK142" s="5"/>
       <c r="AL142" s="5" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>38</v>
@@ -13275,35 +13294,35 @@
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>314</v>
       </c>
       <c r="I143" s="5"/>
       <c r="J143" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="O143" s="9"/>
       <c r="P143" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q143" s="5" t="s">
         <v>88</v>
       </c>
       <c r="R143" s="14" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="S143" s="5"/>
       <c r="T143" s="5"/>
@@ -13313,7 +13332,7 @@
         <v>464</v>
       </c>
       <c r="X143" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
@@ -13326,25 +13345,25 @@
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
       <c r="AG143" s="5" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="AH143" s="5" t="s">
         <v>459</v>
       </c>
       <c r="AI143" s="5" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ143" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK143" s="5"/>
       <c r="AL143" s="5" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="5" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>38</v>
@@ -13357,36 +13376,28 @@
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>314</v>
+        <v>440</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="N144" s="9" t="s">
-        <v>488</v>
-      </c>
+      <c r="M144" s="5"/>
+      <c r="N144" s="9"/>
       <c r="O144" s="9"/>
-      <c r="P144" s="9" t="s">
-        <v>488</v>
-      </c>
+      <c r="P144" s="9"/>
       <c r="Q144" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R144" s="14" t="s">
-        <v>489</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="R144" s="5"/>
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
       <c r="U144" s="5"/>
@@ -13394,9 +13405,7 @@
       <c r="W144" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="X144" s="5" t="s">
-        <v>494</v>
-      </c>
+      <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
@@ -13408,25 +13417,27 @@
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
       <c r="AG144" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AH144" s="5" t="s">
         <v>459</v>
       </c>
       <c r="AI144" s="5" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AJ144" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK144" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="AK144" s="13" t="s">
+        <v>492</v>
+      </c>
       <c r="AL144" s="5" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="5" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>38</v>
@@ -13439,28 +13450,36 @@
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>323</v>
+        <v>86</v>
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="9"/>
+      <c r="M145" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
+      <c r="P145" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="Q145" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="R145" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="R145" s="14" t="s">
+        <v>485</v>
+      </c>
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
@@ -13472,35 +13491,35 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
-      <c r="AB145" s="5"/>
+      <c r="AB145" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="AC145" s="5" t="s">
-        <v>479</v>
+        <v>92</v>
       </c>
       <c r="AD145" s="7"/>
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
       <c r="AG145" s="5" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="AH145" s="5" t="s">
         <v>459</v>
       </c>
       <c r="AI145" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="AJ145" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5" t="n">
         <v>130</v>
-      </c>
-      <c r="AJ145" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK145" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL145" s="5" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="5" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>38</v>
@@ -13513,10 +13532,10 @@
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>86</v>
@@ -13528,20 +13547,20 @@
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
       <c r="M146" s="5" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="N146" s="9" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="O146" s="9"/>
       <c r="P146" s="9" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="Q146" s="5" t="s">
         <v>88</v>
       </c>
       <c r="R146" s="14" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="S146" s="5"/>
       <c r="T146" s="5"/>
@@ -13564,13 +13583,13 @@
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
       <c r="AG146" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AH146" s="5" t="s">
         <v>459</v>
       </c>
       <c r="AI146" s="5" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AJ146" s="5" t="n">
         <v>4</v>
@@ -13582,7 +13601,7 @@
     </row>
     <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="5" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>38</v>
@@ -13595,35 +13614,33 @@
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H147" s="25" t="s">
         <v>501</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="I147" s="5"/>
       <c r="J147" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5" t="s">
-        <v>503</v>
+        <v>315</v>
       </c>
       <c r="N147" s="9" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="O147" s="9"/>
-      <c r="P147" s="9" t="s">
-        <v>504</v>
-      </c>
+      <c r="P147" s="9"/>
       <c r="Q147" s="5" t="s">
         <v>88</v>
       </c>
       <c r="R147" s="14" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
@@ -13636,9 +13653,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
-      <c r="AB147" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="AB147" s="5"/>
       <c r="AC147" s="5" t="s">
         <v>92</v>
       </c>
@@ -13646,25 +13661,25 @@
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
       <c r="AG147" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AH147" s="5" t="s">
         <v>459</v>
       </c>
       <c r="AI147" s="5" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AJ147" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK147" s="5"/>
       <c r="AL147" s="5" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="5" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>38</v>
@@ -13675,34 +13690,30 @@
       <c r="D148" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5" t="s">
-        <v>505</v>
+      <c r="E148" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="H148" s="25" t="s">
-        <v>507</v>
+        <v>503</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="I148" s="5"/>
-      <c r="J148" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="5" t="s">
-        <v>315</v>
-      </c>
+      <c r="M148" s="5"/>
       <c r="N148" s="9" t="s">
         <v>462</v>
       </c>
       <c r="O148" s="9"/>
       <c r="P148" s="9"/>
-      <c r="Q148" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R148" s="14" t="s">
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5" t="s">
         <v>463</v>
       </c>
       <c r="S148" s="5"/>
@@ -13714,35 +13725,37 @@
       </c>
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
-      <c r="Z148" s="5"/>
+      <c r="Z148" s="15"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD148" s="7"/>
+        <v>319</v>
+      </c>
+      <c r="AD148" s="17" t="n">
+        <v>0.025</v>
+      </c>
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
       <c r="AG148" s="5" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="AH148" s="5" t="s">
         <v>459</v>
       </c>
       <c r="AI148" s="5" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AJ148" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK148" s="5"/>
-      <c r="AL148" s="5" t="n">
-        <v>126</v>
+      <c r="AL148" s="14" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="5" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>38</v>
@@ -13751,40 +13764,40 @@
         <v>39</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E149" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E149" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="F149" s="14" t="s">
-        <v>508</v>
+      <c r="F149" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
+      <c r="J149" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
       <c r="M149" s="5"/>
-      <c r="N149" s="9" t="s">
-        <v>462</v>
-      </c>
+      <c r="N149" s="9"/>
       <c r="O149" s="9"/>
       <c r="P149" s="9"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5" t="s">
-        <v>463</v>
-      </c>
+      <c r="Q149" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R149" s="5"/>
       <c r="S149" s="5"/>
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
       <c r="V149" s="5"/>
       <c r="W149" s="5" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
@@ -13795,30 +13808,28 @@
         <v>319</v>
       </c>
       <c r="AD149" s="17" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
-      <c r="AG149" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH149" s="5" t="s">
-        <v>459</v>
-      </c>
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
       <c r="AI149" s="5" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AJ149" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK149" s="5"/>
+      <c r="AK149" s="29" t="s">
+        <v>507</v>
+      </c>
       <c r="AL149" s="14" t="n">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="5" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>38</v>
@@ -13829,38 +13840,46 @@
       <c r="D150" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E150" s="27" t="s">
+      <c r="E150" s="28" t="s">
         <v>320</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="I150" s="5"/>
       <c r="J150" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K150" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="K150" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="9"/>
+      <c r="M150" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="O150" s="9"/>
       <c r="P150" s="9"/>
       <c r="Q150" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="R150" s="5"/>
+      <c r="R150" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="S150" s="5"/>
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
       <c r="V150" s="5"/>
       <c r="W150" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
@@ -13868,31 +13887,29 @@
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD150" s="17" t="n">
-        <v>0.03</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="AD150" s="7"/>
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
-      <c r="AG150" s="5"/>
+      <c r="AG150" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="AH150" s="5"/>
       <c r="AI150" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="AJ150" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK150" s="5"/>
+      <c r="AL150" s="5" t="n">
         <v>136</v>
-      </c>
-      <c r="AJ150" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK150" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="AL150" s="14" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>38</v>
@@ -13903,76 +13920,62 @@
       <c r="D151" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E151" s="27" t="s">
+      <c r="E151" s="5" t="s">
         <v>320</v>
       </c>
       <c r="F151" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="G151" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="H151" s="5" t="s">
-        <v>516</v>
+        <v>81</v>
       </c>
       <c r="I151" s="5"/>
-      <c r="J151" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K151" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="N151" s="9" t="s">
-        <v>462</v>
-      </c>
+      <c r="M151" s="5"/>
+      <c r="N151" s="9"/>
       <c r="O151" s="9"/>
       <c r="P151" s="9"/>
-      <c r="Q151" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R151" s="5" t="s">
-        <v>463</v>
-      </c>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5"/>
-      <c r="W151" s="5" t="s">
-        <v>511</v>
-      </c>
+      <c r="W151" s="5"/>
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
       <c r="Z151" s="15"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5" t="s">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AD151" s="7"/>
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
-      <c r="AG151" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="AG151" s="5"/>
       <c r="AH151" s="5"/>
       <c r="AI151" s="5" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ151" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK151" s="5"/>
-      <c r="AL151" s="5" t="n">
-        <v>136</v>
+        <v>2</v>
+      </c>
+      <c r="AK151" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="AL151" s="14" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>38</v>
@@ -13987,58 +13990,68 @@
         <v>320</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
+      <c r="J152" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5"/>
-      <c r="N152" s="9"/>
+      <c r="N152" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="O152" s="9"/>
       <c r="P152" s="9"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
+      <c r="Q152" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R152" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5"/>
       <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
+      <c r="X152" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="Y152" s="5"/>
       <c r="Z152" s="15"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD152" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="AD152" s="17" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
       <c r="AG152" s="5"/>
       <c r="AH152" s="5"/>
       <c r="AI152" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="AJ152" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK152" s="5"/>
+      <c r="AL152" s="5" t="n">
         <v>138</v>
-      </c>
-      <c r="AJ152" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK152" s="22" t="s">
-        <v>521</v>
-      </c>
-      <c r="AL152" s="14" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="5" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>38</v>
@@ -14053,13 +14066,13 @@
         <v>320</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I153" s="5"/>
       <c r="J153" s="5" t="n">
@@ -14069,7 +14082,7 @@
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O153" s="9"/>
       <c r="P153" s="9"/>
@@ -14085,7 +14098,7 @@
       <c r="V153" s="5"/>
       <c r="W153" s="5"/>
       <c r="X153" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Y153" s="5"/>
       <c r="Z153" s="15"/>
@@ -14102,7 +14115,7 @@
       <c r="AG153" s="5"/>
       <c r="AH153" s="5"/>
       <c r="AI153" s="5" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ153" s="5" t="n">
         <v>3</v>
@@ -14114,7 +14127,7 @@
     </row>
     <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>38</v>
@@ -14129,13 +14142,13 @@
         <v>320</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5" t="n">
@@ -14145,7 +14158,7 @@
       <c r="L154" s="5"/>
       <c r="M154" s="5"/>
       <c r="N154" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O154" s="9"/>
       <c r="P154" s="9"/>
@@ -14161,7 +14174,7 @@
       <c r="V154" s="5"/>
       <c r="W154" s="5"/>
       <c r="X154" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="Y154" s="5"/>
       <c r="Z154" s="15"/>
@@ -14178,7 +14191,7 @@
       <c r="AG154" s="5"/>
       <c r="AH154" s="5"/>
       <c r="AI154" s="5" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AJ154" s="5" t="n">
         <v>3</v>
@@ -14190,7 +14203,7 @@
     </row>
     <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="5" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>38</v>
@@ -14205,13 +14218,13 @@
         <v>320</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5" t="n">
@@ -14221,7 +14234,7 @@
       <c r="L155" s="5"/>
       <c r="M155" s="5"/>
       <c r="N155" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="O155" s="9"/>
       <c r="P155" s="9"/>
@@ -14237,7 +14250,7 @@
       <c r="V155" s="5"/>
       <c r="W155" s="5"/>
       <c r="X155" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Y155" s="5"/>
       <c r="Z155" s="15"/>
@@ -14254,7 +14267,7 @@
       <c r="AG155" s="5"/>
       <c r="AH155" s="5"/>
       <c r="AI155" s="5" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ155" s="5" t="n">
         <v>3</v>
@@ -14266,7 +14279,7 @@
     </row>
     <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="5" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>38</v>
@@ -14275,74 +14288,62 @@
         <v>39</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F156" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E156" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="F156" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="G156" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="H156" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="H156" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
       <c r="M156" s="5"/>
-      <c r="N156" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="O156" s="9"/>
-      <c r="P156" s="9"/>
-      <c r="Q156" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="R156" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="S156" s="5"/>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5" t="s">
+        <v>535</v>
+      </c>
       <c r="T156" s="5"/>
       <c r="U156" s="5"/>
       <c r="V156" s="5"/>
       <c r="W156" s="5"/>
-      <c r="X156" s="5" t="s">
-        <v>534</v>
-      </c>
+      <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
-      <c r="Z156" s="15"/>
+      <c r="Z156" s="5"/>
       <c r="AA156" s="5"/>
       <c r="AB156" s="5"/>
-      <c r="AC156" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD156" s="17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AE156" s="5"/>
+      <c r="AC156" s="5"/>
+      <c r="AD156" s="7"/>
+      <c r="AE156" s="30"/>
       <c r="AF156" s="5"/>
       <c r="AG156" s="5"/>
-      <c r="AH156" s="5"/>
+      <c r="AH156" s="14"/>
       <c r="AI156" s="5" t="n">
-        <v>142</v>
-      </c>
-      <c r="AJ156" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK156" s="5"/>
-      <c r="AL156" s="5" t="n">
-        <v>138</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AJ156" s="5"/>
+      <c r="AK156" s="5" t="n">
+        <v>106</v>
+      </c>
+      <c r="AL156" s="5"/>
     </row>
     <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="5" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>38</v>
@@ -14351,22 +14352,22 @@
         <v>39</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E157" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="E157" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="F157" s="27" t="s">
+      <c r="F157" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="G157" s="27" t="s">
+      <c r="G157" s="16" t="s">
         <v>538</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
@@ -14378,7 +14379,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
       <c r="S157" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="T157" s="5"/>
       <c r="U157" s="5"/>
@@ -14391,22 +14392,22 @@
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
       <c r="AD157" s="7"/>
-      <c r="AE157" s="29"/>
+      <c r="AE157" s="30"/>
       <c r="AF157" s="5"/>
       <c r="AG157" s="5"/>
       <c r="AH157" s="14"/>
       <c r="AI157" s="5" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ157" s="5"/>
-      <c r="AK157" s="5" t="n">
-        <v>106</v>
+      <c r="AK157" s="13" t="s">
+        <v>539</v>
       </c>
       <c r="AL157" s="5"/>
     </row>
     <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="5" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>38</v>
@@ -14415,22 +14416,22 @@
         <v>39</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="G158" s="16" t="s">
-        <v>544</v>
+        <v>529</v>
+      </c>
+      <c r="E158" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="G158" s="28" t="s">
+        <v>513</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
@@ -14442,7 +14443,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
       <c r="S158" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="T158" s="5"/>
       <c r="U158" s="5"/>
@@ -14455,22 +14456,22 @@
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
       <c r="AD158" s="7"/>
-      <c r="AE158" s="29"/>
+      <c r="AE158" s="30"/>
       <c r="AF158" s="5"/>
       <c r="AG158" s="5"/>
       <c r="AH158" s="14"/>
       <c r="AI158" s="5" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ158" s="5"/>
-      <c r="AK158" s="13" t="s">
-        <v>545</v>
+      <c r="AK158" s="12" t="n">
+        <v>138</v>
       </c>
       <c r="AL158" s="5"/>
     </row>
     <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>38</v>
@@ -14479,22 +14480,22 @@
         <v>39</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E159" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="E159" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="F159" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="G159" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I159" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="F159" s="27" t="s">
-        <v>547</v>
-      </c>
-      <c r="G159" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="I159" s="5" t="s">
-        <v>540</v>
       </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
@@ -14506,7 +14507,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
       <c r="S159" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="T159" s="5"/>
       <c r="U159" s="5"/>
@@ -14519,22 +14520,20 @@
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
       <c r="AD159" s="7"/>
-      <c r="AE159" s="29"/>
+      <c r="AE159" s="30"/>
       <c r="AF159" s="5"/>
       <c r="AG159" s="5"/>
       <c r="AH159" s="14"/>
       <c r="AI159" s="5" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AJ159" s="5"/>
-      <c r="AK159" s="12" t="n">
-        <v>138</v>
-      </c>
+      <c r="AK159" s="5"/>
       <c r="AL159" s="5"/>
     </row>
     <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>38</v>
@@ -14543,22 +14542,22 @@
         <v>39</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E160" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="E160" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="F160" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="F160" s="27" t="s">
+      <c r="G160" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="G160" s="27" t="s">
+      <c r="H160" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="H160" s="5" t="s">
-        <v>551</v>
-      </c>
       <c r="I160" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
@@ -14570,7 +14569,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
       <c r="S160" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="T160" s="5"/>
       <c r="U160" s="5"/>
@@ -14583,20 +14582,22 @@
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
       <c r="AD160" s="7"/>
-      <c r="AE160" s="29"/>
+      <c r="AE160" s="30"/>
       <c r="AF160" s="5"/>
       <c r="AG160" s="5"/>
       <c r="AH160" s="14"/>
       <c r="AI160" s="5" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AJ160" s="5"/>
-      <c r="AK160" s="5"/>
+      <c r="AK160" s="5" t="n">
+        <v>136</v>
+      </c>
       <c r="AL160" s="5"/>
     </row>
     <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>38</v>
@@ -14605,34 +14606,36 @@
         <v>39</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E161" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="E161" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="F161" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="G161" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="F161" s="27" t="s">
+      <c r="H161" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="G161" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>556</v>
-      </c>
       <c r="I161" s="5" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
+      <c r="N161" s="5" t="s">
+        <v>555</v>
+      </c>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
       <c r="S161" s="5" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="T161" s="5"/>
       <c r="U161" s="5"/>
@@ -14645,22 +14648,20 @@
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
       <c r="AD161" s="7"/>
-      <c r="AE161" s="29"/>
+      <c r="AE161" s="8"/>
       <c r="AF161" s="5"/>
       <c r="AG161" s="5"/>
       <c r="AH161" s="14"/>
       <c r="AI161" s="5" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AJ161" s="5"/>
-      <c r="AK161" s="5" t="n">
-        <v>136</v>
-      </c>
+      <c r="AK161" s="5"/>
       <c r="AL161" s="5"/>
     </row>
     <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>38</v>
@@ -14669,36 +14670,36 @@
         <v>39</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E162" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="E162" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="F162" s="27" t="s">
+      <c r="F162" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="G162" s="27" t="s">
+      <c r="G162" s="28" t="s">
         <v>559</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>560</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
       <c r="N162" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
       <c r="S162" s="5" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="T162" s="5"/>
       <c r="U162" s="5"/>
@@ -14716,7 +14717,7 @@
       <c r="AG162" s="5"/>
       <c r="AH162" s="14"/>
       <c r="AI162" s="5" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AJ162" s="5"/>
       <c r="AK162" s="5"/>
@@ -14724,7 +14725,7 @@
     </row>
     <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>38</v>
@@ -14733,28 +14734,30 @@
         <v>39</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E163" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="E163" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="F163" s="27" t="s">
+      <c r="F163" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="G163" s="27" t="s">
+      <c r="G163" s="28" t="s">
         <v>565</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>566</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5" t="s">
+      <c r="M163" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="N163" s="13" t="s">
         <v>568</v>
       </c>
       <c r="O163" s="5"/>
@@ -14762,7 +14765,7 @@
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
       <c r="S163" s="5" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
@@ -14780,15 +14783,17 @@
       <c r="AG163" s="5"/>
       <c r="AH163" s="14"/>
       <c r="AI163" s="5" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AJ163" s="5"/>
-      <c r="AK163" s="5"/>
+      <c r="AK163" s="5" t="n">
+        <v>102</v>
+      </c>
       <c r="AL163" s="5"/>
     </row>
     <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>38</v>
@@ -14797,38 +14802,38 @@
         <v>39</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E164" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="F164" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="G164" s="27" t="s">
-        <v>571</v>
+        <v>529</v>
+      </c>
+      <c r="E164" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="F164" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="G164" s="28" t="s">
+        <v>565</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
       <c r="M164" s="14" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="N164" s="13" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
       <c r="S164" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="T164" s="5"/>
       <c r="U164" s="5"/>
@@ -14846,17 +14851,17 @@
       <c r="AG164" s="5"/>
       <c r="AH164" s="14"/>
       <c r="AI164" s="5" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AJ164" s="5"/>
       <c r="AK164" s="5" t="n">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="AL164" s="5"/>
     </row>
     <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>38</v>
@@ -14865,38 +14870,38 @@
         <v>39</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E165" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="F165" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="G165" s="27" t="s">
-        <v>571</v>
+        <v>529</v>
+      </c>
+      <c r="E165" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="F165" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>565</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
       <c r="M165" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="N165" s="13" t="s">
-        <v>574</v>
+        <v>567</v>
+      </c>
+      <c r="N165" s="31" t="s">
+        <v>569</v>
       </c>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
       <c r="S165" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="T165" s="5"/>
       <c r="U165" s="5"/>
@@ -14914,17 +14919,17 @@
       <c r="AG165" s="5"/>
       <c r="AH165" s="14"/>
       <c r="AI165" s="5" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ165" s="5"/>
       <c r="AK165" s="5" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AL165" s="5"/>
     </row>
     <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>38</v>
@@ -14933,38 +14938,38 @@
         <v>39</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E166" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="F166" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="G166" s="27" t="s">
-        <v>571</v>
+        <v>529</v>
+      </c>
+      <c r="E166" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="G166" s="28" t="s">
+        <v>565</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="N166" s="30" t="s">
-        <v>575</v>
+        <v>567</v>
+      </c>
+      <c r="N166" s="31" t="s">
+        <v>570</v>
       </c>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
       <c r="S166" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="T166" s="5"/>
       <c r="U166" s="5"/>
@@ -14982,84 +14987,16 @@
       <c r="AG166" s="5"/>
       <c r="AH166" s="14"/>
       <c r="AI166" s="5" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AJ166" s="5"/>
-      <c r="AK166" s="5" t="n">
-        <v>111</v>
+      <c r="AK166" s="13" t="s">
+        <v>571</v>
       </c>
       <c r="AL166" s="5"/>
     </row>
-    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="5" t="n">
-        <v>156</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E167" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="F167" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="G167" s="27" t="s">
-        <v>571</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="N167" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5"/>
-      <c r="V167" s="5"/>
-      <c r="W167" s="5"/>
-      <c r="X167" s="5"/>
-      <c r="Y167" s="5"/>
-      <c r="Z167" s="5"/>
-      <c r="AA167" s="5"/>
-      <c r="AB167" s="5"/>
-      <c r="AC167" s="5"/>
-      <c r="AD167" s="7"/>
-      <c r="AE167" s="8"/>
-      <c r="AF167" s="5"/>
-      <c r="AG167" s="5"/>
-      <c r="AH167" s="14"/>
-      <c r="AI167" s="5" t="n">
-        <v>156</v>
-      </c>
-      <c r="AJ167" s="5"/>
-      <c r="AK167" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="AL167" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL167"/>
+  <autoFilter ref="A1:AL166"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1589,27 +1590,10 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">128
+    <t xml:space="preserve">128
 129
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">130
-133
-134</t>
-    </r>
+130
+133</t>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -1915,7 +1899,7 @@
     <numFmt numFmtId="172" formatCode="D\-MMM"/>
     <numFmt numFmtId="173" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -1963,11 +1947,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2062,7 +2041,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2171,10 +2150,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2275,48 +2250,48 @@
   </sheetPr>
   <dimension ref="A1:AL166"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
+      <selection pane="bottomLeft" activeCell="AK142" activeCellId="0" sqref="AK142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="64.165991902834"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="66.5222672064777"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="51.3117408906883"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="89.1214574898785"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="67.1619433198381"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.6032388663968"/>
@@ -13190,7 +13165,7 @@
       <c r="AJ141" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK141" s="27" t="s">
+      <c r="AK141" s="22" t="s">
         <v>480</v>
       </c>
       <c r="AL141" s="14" t="n">
@@ -13766,7 +13741,7 @@
       <c r="D149" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E149" s="28" t="s">
+      <c r="E149" s="27" t="s">
         <v>320</v>
       </c>
       <c r="F149" s="5" t="s">
@@ -13820,7 +13795,7 @@
       <c r="AJ149" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="AK149" s="29" t="s">
+      <c r="AK149" s="28" t="s">
         <v>507</v>
       </c>
       <c r="AL149" s="14" t="n">
@@ -13840,7 +13815,7 @@
       <c r="D150" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E150" s="28" t="s">
+      <c r="E150" s="27" t="s">
         <v>320</v>
       </c>
       <c r="F150" s="5" t="s">
@@ -14290,13 +14265,13 @@
       <c r="D156" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E156" s="28" t="s">
+      <c r="E156" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="F156" s="28" t="s">
+      <c r="F156" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="G156" s="28" t="s">
+      <c r="G156" s="27" t="s">
         <v>532</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -14328,7 +14303,7 @@
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
       <c r="AD156" s="7"/>
-      <c r="AE156" s="30"/>
+      <c r="AE156" s="29"/>
       <c r="AF156" s="5"/>
       <c r="AG156" s="5"/>
       <c r="AH156" s="14"/>
@@ -14392,7 +14367,7 @@
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
       <c r="AD157" s="7"/>
-      <c r="AE157" s="30"/>
+      <c r="AE157" s="29"/>
       <c r="AF157" s="5"/>
       <c r="AG157" s="5"/>
       <c r="AH157" s="14"/>
@@ -14418,13 +14393,13 @@
       <c r="D158" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E158" s="28" t="s">
+      <c r="E158" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="F158" s="28" t="s">
+      <c r="F158" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="G158" s="28" t="s">
+      <c r="G158" s="27" t="s">
         <v>513</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -14456,7 +14431,7 @@
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
       <c r="AD158" s="7"/>
-      <c r="AE158" s="30"/>
+      <c r="AE158" s="29"/>
       <c r="AF158" s="5"/>
       <c r="AG158" s="5"/>
       <c r="AH158" s="14"/>
@@ -14482,13 +14457,13 @@
       <c r="D159" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E159" s="28" t="s">
+      <c r="E159" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="F159" s="28" t="s">
+      <c r="F159" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="G159" s="28" t="s">
+      <c r="G159" s="27" t="s">
         <v>544</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -14520,7 +14495,7 @@
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
       <c r="AD159" s="7"/>
-      <c r="AE159" s="30"/>
+      <c r="AE159" s="29"/>
       <c r="AF159" s="5"/>
       <c r="AG159" s="5"/>
       <c r="AH159" s="14"/>
@@ -14544,13 +14519,13 @@
       <c r="D160" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E160" s="28" t="s">
+      <c r="E160" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="F160" s="28" t="s">
+      <c r="F160" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="G160" s="28" t="s">
+      <c r="G160" s="27" t="s">
         <v>549</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -14582,7 +14557,7 @@
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
       <c r="AD160" s="7"/>
-      <c r="AE160" s="30"/>
+      <c r="AE160" s="29"/>
       <c r="AF160" s="5"/>
       <c r="AG160" s="5"/>
       <c r="AH160" s="14"/>
@@ -14608,13 +14583,13 @@
       <c r="D161" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E161" s="28" t="s">
+      <c r="E161" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="F161" s="28" t="s">
+      <c r="F161" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="G161" s="28" t="s">
+      <c r="G161" s="27" t="s">
         <v>553</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -14672,13 +14647,13 @@
       <c r="D162" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E162" s="28" t="s">
+      <c r="E162" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="F162" s="28" t="s">
+      <c r="F162" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="G162" s="28" t="s">
+      <c r="G162" s="27" t="s">
         <v>559</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -14736,13 +14711,13 @@
       <c r="D163" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E163" s="28" t="s">
+      <c r="E163" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="F163" s="28" t="s">
+      <c r="F163" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="G163" s="28" t="s">
+      <c r="G163" s="27" t="s">
         <v>565</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -14804,13 +14779,13 @@
       <c r="D164" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E164" s="28" t="s">
+      <c r="E164" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="F164" s="28" t="s">
+      <c r="F164" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="G164" s="28" t="s">
+      <c r="G164" s="27" t="s">
         <v>565</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -14872,13 +14847,13 @@
       <c r="D165" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E165" s="28" t="s">
+      <c r="E165" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="F165" s="28" t="s">
+      <c r="F165" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="G165" s="28" t="s">
+      <c r="G165" s="27" t="s">
         <v>565</v>
       </c>
       <c r="H165" s="5" t="s">
@@ -14893,7 +14868,7 @@
       <c r="M165" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="N165" s="31" t="s">
+      <c r="N165" s="30" t="s">
         <v>569</v>
       </c>
       <c r="O165" s="5"/>
@@ -14940,13 +14915,13 @@
       <c r="D166" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E166" s="28" t="s">
+      <c r="E166" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="F166" s="28" t="s">
+      <c r="F166" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="G166" s="28" t="s">
+      <c r="G166" s="27" t="s">
         <v>565</v>
       </c>
       <c r="H166" s="5" t="s">
@@ -14961,7 +14936,7 @@
       <c r="M166" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="N166" s="31" t="s">
+      <c r="N166" s="30" t="s">
         <v>570</v>
       </c>
       <c r="O166" s="5"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="572">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2250,48 +2251,48 @@
   </sheetPr>
   <dimension ref="A1:AL166"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AG1" activeCellId="0" sqref="AG1"/>
-      <selection pane="bottomLeft" activeCell="AK142" activeCellId="0" sqref="AK142"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="64.7004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="67.1619433198381"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="51.7368421052632"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="89.8744939271255"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="52.165991902834"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="90.7287449392713"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.6032388663968"/>
@@ -13466,8 +13467,8 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
-      <c r="AB145" s="5" t="n">
-        <v>2</v>
+      <c r="AB145" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="AC145" s="5" t="s">
         <v>92</v>
@@ -13548,8 +13549,8 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
-      <c r="AB146" s="5" t="n">
-        <v>2</v>
+      <c r="AB146" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="AC146" s="5" t="s">
         <v>92</v>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1336,7 +1337,7 @@
     <t xml:space="preserve">SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Promo Alley</t>
+    <t xml:space="preserve">1/3 of the Store</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 1.5L</t>
@@ -2251,48 +2252,48 @@
   </sheetPr>
   <dimension ref="A1:AL166"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="U119" activeCellId="0" sqref="U119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="68.2348178137652"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="10.6032388663968"/>
@@ -11432,7 +11433,7 @@
       </c>
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="U119" s="21" t="s">
         <v>399</v>
       </c>
       <c r="V119" s="5"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="572">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1434,9 +1435,6 @@
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juice Displays</t>
   </si>
   <si>
     <t xml:space="preserve">1101</t>
@@ -2279,44 +2277,44 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.5263157894737"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.2388663967611"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="69.5182186234818"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="93.1943319838057"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="94.0485829959514"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -11300,9 +11298,7 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
-      <c r="W117" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W117" s="6"/>
       <c r="X117" s="6"/>
       <c r="Y117" s="6"/>
       <c r="Z117" s="16" t="s">
@@ -11384,9 +11380,7 @@
       <c r="T118" s="6"/>
       <c r="U118" s="22"/>
       <c r="V118" s="6"/>
-      <c r="W118" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W118" s="6"/>
       <c r="X118" s="6"/>
       <c r="Y118" s="6"/>
       <c r="Z118" s="16" t="s">
@@ -11460,9 +11454,7 @@
         <v>399</v>
       </c>
       <c r="V119" s="6"/>
-      <c r="W119" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W119" s="6"/>
       <c r="X119" s="6"/>
       <c r="Y119" s="6"/>
       <c r="Z119" s="16" t="s">
@@ -11538,9 +11530,7 @@
       <c r="T120" s="6"/>
       <c r="U120" s="22"/>
       <c r="V120" s="6"/>
-      <c r="W120" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W120" s="6"/>
       <c r="X120" s="6"/>
       <c r="Y120" s="6"/>
       <c r="Z120" s="16" t="s">
@@ -11612,9 +11602,7 @@
       <c r="T121" s="6"/>
       <c r="U121" s="22"/>
       <c r="V121" s="6"/>
-      <c r="W121" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W121" s="6"/>
       <c r="X121" s="6"/>
       <c r="Y121" s="6"/>
       <c r="Z121" s="16" t="s">
@@ -11698,9 +11686,7 @@
       <c r="T122" s="6"/>
       <c r="U122" s="22"/>
       <c r="V122" s="6"/>
-      <c r="W122" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W122" s="6"/>
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
       <c r="Z122" s="16" t="s">
@@ -11776,9 +11762,7 @@
       <c r="T123" s="6"/>
       <c r="U123" s="22"/>
       <c r="V123" s="6"/>
-      <c r="W123" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W123" s="6"/>
       <c r="X123" s="6"/>
       <c r="Y123" s="6"/>
       <c r="Z123" s="16" t="s">
@@ -11854,9 +11838,7 @@
       <c r="T124" s="6"/>
       <c r="U124" s="22"/>
       <c r="V124" s="6"/>
-      <c r="W124" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W124" s="6"/>
       <c r="X124" s="6"/>
       <c r="Y124" s="6"/>
       <c r="Z124" s="16" t="s">
@@ -11932,9 +11914,7 @@
       <c r="T125" s="6"/>
       <c r="U125" s="22"/>
       <c r="V125" s="6"/>
-      <c r="W125" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W125" s="6"/>
       <c r="X125" s="6"/>
       <c r="Y125" s="6"/>
       <c r="Z125" s="16" t="s">
@@ -12004,9 +11984,7 @@
       <c r="T126" s="6"/>
       <c r="U126" s="22"/>
       <c r="V126" s="6"/>
-      <c r="W126" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W126" s="6"/>
       <c r="X126" s="6"/>
       <c r="Y126" s="6"/>
       <c r="Z126" s="16" t="s">
@@ -12088,9 +12066,7 @@
       <c r="T127" s="6"/>
       <c r="U127" s="22"/>
       <c r="V127" s="6"/>
-      <c r="W127" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W127" s="6"/>
       <c r="X127" s="6"/>
       <c r="Y127" s="6"/>
       <c r="Z127" s="16" t="s">
@@ -12164,9 +12140,7 @@
         <v>424</v>
       </c>
       <c r="V128" s="6"/>
-      <c r="W128" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W128" s="6"/>
       <c r="X128" s="6"/>
       <c r="Y128" s="6"/>
       <c r="Z128" s="16" t="s">
@@ -12242,9 +12216,7 @@
       <c r="T129" s="6"/>
       <c r="U129" s="22"/>
       <c r="V129" s="6"/>
-      <c r="W129" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="W129" s="6"/>
       <c r="X129" s="6"/>
       <c r="Y129" s="6"/>
       <c r="Z129" s="16" t="s">
@@ -12316,13 +12288,11 @@
       <c r="T130" s="6"/>
       <c r="U130" s="22"/>
       <c r="V130" s="6"/>
-      <c r="W130" s="6" t="s">
-        <v>430</v>
-      </c>
+      <c r="W130" s="6"/>
       <c r="X130" s="6"/>
       <c r="Y130" s="6"/>
       <c r="Z130" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA130" s="6"/>
       <c r="AB130" s="6"/>
@@ -12343,7 +12313,7 @@
         <v>2</v>
       </c>
       <c r="AK130" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AL130" s="15" t="n">
         <v>303</v>
@@ -12366,10 +12336,10 @@
         <v>387</v>
       </c>
       <c r="F131" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>86</v>
@@ -12400,13 +12370,11 @@
       <c r="T131" s="6"/>
       <c r="U131" s="22"/>
       <c r="V131" s="6"/>
-      <c r="W131" s="6" t="s">
-        <v>430</v>
-      </c>
+      <c r="W131" s="6"/>
       <c r="X131" s="6"/>
       <c r="Y131" s="6"/>
       <c r="Z131" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
@@ -12446,10 +12414,10 @@
         <v>387</v>
       </c>
       <c r="F132" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="H132" s="6" t="s">
         <v>397</v>
@@ -12473,16 +12441,14 @@
       <c r="S132" s="6"/>
       <c r="T132" s="6"/>
       <c r="U132" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="V132" s="6"/>
-      <c r="W132" s="6" t="s">
-        <v>430</v>
-      </c>
+      <c r="W132" s="6"/>
       <c r="X132" s="6"/>
       <c r="Y132" s="6"/>
       <c r="Z132" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA132" s="6"/>
       <c r="AB132" s="6"/>
@@ -12522,13 +12488,13 @@
         <v>387</v>
       </c>
       <c r="F133" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G133" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="G133" s="6" t="s">
+      <c r="H133" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="6" t="n">
@@ -12548,13 +12514,11 @@
       <c r="T133" s="6"/>
       <c r="U133" s="22"/>
       <c r="V133" s="6"/>
-      <c r="W133" s="6" t="s">
-        <v>430</v>
-      </c>
+      <c r="W133" s="6"/>
       <c r="X133" s="6"/>
       <c r="Y133" s="6"/>
       <c r="Z133" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA133" s="6"/>
       <c r="AB133" s="6"/>
@@ -12573,7 +12537,7 @@
         <v>3</v>
       </c>
       <c r="AK133" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AL133" s="6" t="n">
         <v>115</v>
@@ -12596,10 +12560,10 @@
         <v>387</v>
       </c>
       <c r="F134" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>443</v>
       </c>
       <c r="H134" s="6" t="s">
         <v>402</v>
@@ -12609,10 +12573,10 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="N134" s="25" t="s">
         <v>444</v>
-      </c>
-      <c r="N134" s="25" t="s">
-        <v>445</v>
       </c>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
@@ -12626,13 +12590,11 @@
       <c r="T134" s="6"/>
       <c r="U134" s="22"/>
       <c r="V134" s="6"/>
-      <c r="W134" s="6" t="s">
-        <v>430</v>
-      </c>
+      <c r="W134" s="6"/>
       <c r="X134" s="6"/>
       <c r="Y134" s="6"/>
       <c r="Z134" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA134" s="6"/>
       <c r="AB134" s="6"/>
@@ -12643,7 +12605,7 @@
       <c r="AE134" s="6"/>
       <c r="AF134" s="6"/>
       <c r="AG134" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AH134" s="6"/>
       <c r="AI134" s="6" t="n">
@@ -12674,10 +12636,10 @@
         <v>387</v>
       </c>
       <c r="F135" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G135" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="H135" s="6" t="s">
         <v>402</v>
@@ -12687,10 +12649,10 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="N135" s="25" t="s">
         <v>449</v>
-      </c>
-      <c r="N135" s="25" t="s">
-        <v>450</v>
       </c>
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
@@ -12704,13 +12666,11 @@
       <c r="T135" s="6"/>
       <c r="U135" s="22"/>
       <c r="V135" s="6"/>
-      <c r="W135" s="6" t="s">
-        <v>430</v>
-      </c>
+      <c r="W135" s="6"/>
       <c r="X135" s="6"/>
       <c r="Y135" s="6"/>
       <c r="Z135" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
@@ -12721,7 +12681,7 @@
       <c r="AE135" s="6"/>
       <c r="AF135" s="6"/>
       <c r="AG135" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AH135" s="6"/>
       <c r="AI135" s="6" t="n">
@@ -12749,16 +12709,16 @@
         <v>40</v>
       </c>
       <c r="E136" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F136" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="G136" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="H136" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -12769,7 +12729,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
       <c r="Q136" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
@@ -12791,7 +12751,7 @@
       <c r="AE136" s="6"/>
       <c r="AF136" s="6"/>
       <c r="AG136" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AH136" s="6"/>
       <c r="AI136" s="6" t="n">
@@ -12801,7 +12761,7 @@
         <v>2</v>
       </c>
       <c r="AK136" s="23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AL136" s="15" t="n">
         <v>311</v>
@@ -12821,16 +12781,16 @@
         <v>40</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F137" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G137" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="G137" s="6" t="s">
+      <c r="H137" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="6" t="n">
@@ -12844,20 +12804,20 @@
         <v>315</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
       <c r="Q137" s="6"/>
       <c r="R137" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S137" s="6"/>
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
       <c r="W137" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X137" s="6"/>
       <c r="Y137" s="6"/>
@@ -12897,16 +12857,16 @@
         <v>40</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F138" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="G138" s="6" t="s">
+      <c r="H138" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="6" t="n">
@@ -12918,20 +12878,20 @@
         <v>315</v>
       </c>
       <c r="N138" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
       <c r="Q138" s="6"/>
       <c r="R138" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S138" s="6"/>
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
       <c r="W138" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="X138" s="6"/>
       <c r="Y138" s="6"/>
@@ -12974,10 +12934,10 @@
         <v>320</v>
       </c>
       <c r="F139" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="H139" s="6" t="s">
         <v>397</v>
@@ -12994,16 +12954,16 @@
       <c r="P139" s="10"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S139" s="6"/>
       <c r="T139" s="6"/>
       <c r="U139" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V139" s="6"/>
       <c r="W139" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X139" s="6"/>
       <c r="Y139" s="6"/>
@@ -13019,10 +12979,10 @@
       <c r="AE139" s="6"/>
       <c r="AF139" s="6"/>
       <c r="AG139" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH139" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI139" s="6" t="n">
         <v>124</v>
@@ -13052,13 +13012,13 @@
         <v>320</v>
       </c>
       <c r="F140" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="G140" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="G140" s="6" t="s">
+      <c r="H140" s="27" t="s">
         <v>475</v>
-      </c>
-      <c r="H140" s="27" t="s">
-        <v>476</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -13072,20 +13032,20 @@
         <v>315</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
       <c r="Q140" s="6"/>
       <c r="R140" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S140" s="6"/>
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
       <c r="W140" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X140" s="6"/>
       <c r="Y140" s="6"/>
@@ -13101,10 +13061,10 @@
       <c r="AE140" s="6"/>
       <c r="AF140" s="6"/>
       <c r="AG140" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH140" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI140" s="6" t="n">
         <v>125</v>
@@ -13134,10 +13094,10 @@
         <v>320</v>
       </c>
       <c r="F141" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G141" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>81</v>
@@ -13159,7 +13119,7 @@
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
       <c r="W141" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X141" s="6"/>
       <c r="Y141" s="6"/>
@@ -13167,7 +13127,7 @@
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
       <c r="AC141" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AD141" s="18" t="n">
         <v>0.025</v>
@@ -13179,10 +13139,10 @@
         <v>1</v>
       </c>
       <c r="AG141" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH141" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI141" s="6" t="n">
         <v>126</v>
@@ -13191,7 +13151,7 @@
         <v>2</v>
       </c>
       <c r="AK141" s="23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL141" s="15" t="n">
         <v>312</v>
@@ -13212,10 +13172,10 @@
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="H142" s="6" t="s">
         <v>314</v>
@@ -13227,46 +13187,46 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="N142" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="N142" s="10" t="s">
-        <v>484</v>
       </c>
       <c r="O142" s="10"/>
       <c r="P142" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q142" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R142" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
       <c r="W142" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X142" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
       <c r="AA142" s="6"/>
       <c r="AB142" s="6"/>
       <c r="AC142" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AD142" s="8"/>
       <c r="AE142" s="6"/>
       <c r="AF142" s="6"/>
       <c r="AG142" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH142" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI142" s="6" t="n">
         <v>128</v>
@@ -13294,10 +13254,10 @@
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G143" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="H143" s="6" t="s">
         <v>314</v>
@@ -13309,46 +13269,46 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="N143" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="N143" s="10" t="s">
-        <v>484</v>
       </c>
       <c r="O143" s="10"/>
       <c r="P143" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q143" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R143" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S143" s="6"/>
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
       <c r="W143" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X143" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
       <c r="AA143" s="6"/>
       <c r="AB143" s="6"/>
       <c r="AC143" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AD143" s="8"/>
       <c r="AE143" s="6"/>
       <c r="AF143" s="6"/>
       <c r="AG143" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI143" s="6" t="n">
         <v>129</v>
@@ -13376,13 +13336,13 @@
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="G144" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="G144" s="6" t="s">
-        <v>491</v>
-      </c>
       <c r="H144" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6" t="n">
@@ -13403,7 +13363,7 @@
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
       <c r="W144" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X144" s="6"/>
       <c r="Y144" s="6"/>
@@ -13411,16 +13371,16 @@
       <c r="AA144" s="6"/>
       <c r="AB144" s="6"/>
       <c r="AC144" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AD144" s="8"/>
       <c r="AE144" s="6"/>
       <c r="AF144" s="6"/>
       <c r="AG144" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI144" s="6" t="n">
         <v>130</v>
@@ -13429,7 +13389,7 @@
         <v>3</v>
       </c>
       <c r="AK144" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AL144" s="6" t="n">
         <v>126</v>
@@ -13450,10 +13410,10 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="G145" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>86</v>
@@ -13465,27 +13425,27 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="N145" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="N145" s="10" t="s">
-        <v>484</v>
       </c>
       <c r="O145" s="10"/>
       <c r="P145" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R145" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
       <c r="W145" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X145" s="6"/>
       <c r="Y145" s="6"/>
@@ -13501,10 +13461,10 @@
       <c r="AE145" s="6"/>
       <c r="AF145" s="6"/>
       <c r="AG145" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI145" s="6" t="n">
         <v>131</v>
@@ -13532,10 +13492,10 @@
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>86</v>
@@ -13547,27 +13507,27 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="N146" s="29" t="s">
         <v>497</v>
-      </c>
-      <c r="N146" s="29" t="s">
-        <v>498</v>
       </c>
       <c r="O146" s="10"/>
       <c r="P146" s="29" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R146" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S146" s="6"/>
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
       <c r="W146" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="6"/>
@@ -13583,10 +13543,10 @@
       <c r="AE146" s="6"/>
       <c r="AF146" s="6"/>
       <c r="AG146" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI146" s="6" t="n">
         <v>132</v>
@@ -13614,13 +13574,13 @@
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="G147" s="6" t="s">
+      <c r="H147" s="27" t="s">
         <v>500</v>
-      </c>
-      <c r="H147" s="27" t="s">
-        <v>501</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="6" t="n">
@@ -13632,7 +13592,7 @@
         <v>315</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
@@ -13640,14 +13600,14 @@
         <v>88</v>
       </c>
       <c r="R147" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
       <c r="W147" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="6"/>
@@ -13661,10 +13621,10 @@
       <c r="AE147" s="6"/>
       <c r="AF147" s="6"/>
       <c r="AG147" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH147" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI147" s="6" t="n">
         <v>133</v>
@@ -13694,13 +13654,13 @@
         <v>320</v>
       </c>
       <c r="F148" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="G148" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="G148" s="6" t="s">
+      <c r="H148" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -13708,20 +13668,20 @@
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
       <c r="N148" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
       <c r="Q148" s="6"/>
       <c r="R148" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
       <c r="W148" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
@@ -13737,10 +13697,10 @@
       <c r="AE148" s="6"/>
       <c r="AF148" s="6"/>
       <c r="AG148" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AH148" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AI148" s="6" t="n">
         <v>135</v>
@@ -13770,13 +13730,13 @@
         <v>320</v>
       </c>
       <c r="F149" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="G149" s="6" t="s">
-        <v>506</v>
-      </c>
       <c r="H149" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="6" t="n">
@@ -13797,7 +13757,7 @@
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
       <c r="W149" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
@@ -13821,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="AK149" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AL149" s="15" t="n">
         <v>301</v>
@@ -13844,13 +13804,13 @@
         <v>320</v>
       </c>
       <c r="F150" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="G150" s="6" t="s">
+      <c r="H150" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6" t="n">
@@ -13864,7 +13824,7 @@
         <v>315</v>
       </c>
       <c r="N150" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
@@ -13872,14 +13832,14 @@
         <v>88</v>
       </c>
       <c r="R150" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S150" s="6"/>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
       <c r="W150" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="X150" s="6"/>
       <c r="Y150" s="6"/>
@@ -13887,13 +13847,13 @@
       <c r="AA150" s="6"/>
       <c r="AB150" s="6"/>
       <c r="AC150" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AD150" s="8"/>
       <c r="AE150" s="6"/>
       <c r="AF150" s="6"/>
       <c r="AG150" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AH150" s="6"/>
       <c r="AI150" s="6" t="n">
@@ -13924,10 +13884,10 @@
         <v>320</v>
       </c>
       <c r="F151" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>81</v>
@@ -13967,7 +13927,7 @@
         <v>2</v>
       </c>
       <c r="AK151" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AL151" s="15" t="n">
         <v>400</v>
@@ -13990,13 +13950,13 @@
         <v>320</v>
       </c>
       <c r="F152" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="G152" s="6" t="s">
+      <c r="H152" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6" t="n">
@@ -14006,7 +13966,7 @@
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
       <c r="N152" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
@@ -14014,7 +13974,7 @@
         <v>88</v>
       </c>
       <c r="R152" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
@@ -14022,7 +13982,7 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y152" s="6"/>
       <c r="Z152" s="16"/>
@@ -14066,13 +14026,13 @@
         <v>320</v>
       </c>
       <c r="F153" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="G153" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="G153" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="H153" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="6" t="n">
@@ -14082,7 +14042,7 @@
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
       <c r="N153" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
@@ -14090,7 +14050,7 @@
         <v>88</v>
       </c>
       <c r="R153" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S153" s="6"/>
       <c r="T153" s="6"/>
@@ -14098,7 +14058,7 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Y153" s="6"/>
       <c r="Z153" s="16"/>
@@ -14142,13 +14102,13 @@
         <v>320</v>
       </c>
       <c r="F154" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="G154" s="6" t="s">
-        <v>524</v>
-      </c>
       <c r="H154" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="6" t="n">
@@ -14158,7 +14118,7 @@
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
       <c r="N154" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
@@ -14166,7 +14126,7 @@
         <v>88</v>
       </c>
       <c r="R154" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S154" s="6"/>
       <c r="T154" s="6"/>
@@ -14174,7 +14134,7 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Y154" s="6"/>
       <c r="Z154" s="16"/>
@@ -14218,13 +14178,13 @@
         <v>320</v>
       </c>
       <c r="F155" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="G155" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="G155" s="6" t="s">
-        <v>527</v>
-      </c>
       <c r="H155" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="6" t="n">
@@ -14234,7 +14194,7 @@
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
       <c r="N155" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
@@ -14242,7 +14202,7 @@
         <v>88</v>
       </c>
       <c r="R155" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S155" s="6"/>
       <c r="T155" s="6"/>
@@ -14250,7 +14210,7 @@
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
       <c r="X155" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="Y155" s="6"/>
       <c r="Z155" s="16"/>
@@ -14288,22 +14248,22 @@
         <v>39</v>
       </c>
       <c r="D156" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E156" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="E156" s="30" t="s">
+      <c r="F156" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="F156" s="30" t="s">
+      <c r="G156" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="G156" s="30" t="s">
+      <c r="H156" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H156" s="6" t="s">
+      <c r="I156" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="I156" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
@@ -14315,7 +14275,7 @@
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
       <c r="S156" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
@@ -14352,22 +14312,22 @@
         <v>39</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E157" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F157" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="G157" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="G157" s="17" t="s">
-        <v>539</v>
-      </c>
       <c r="H157" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="I157" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="I157" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
@@ -14379,7 +14339,7 @@
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
       <c r="S157" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
@@ -14401,7 +14361,7 @@
       </c>
       <c r="AJ157" s="6"/>
       <c r="AK157" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AL157" s="6"/>
     </row>
@@ -14416,22 +14376,22 @@
         <v>39</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E158" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="F158" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="F158" s="30" t="s">
-        <v>542</v>
-      </c>
       <c r="G158" s="30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H158" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="I158" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="I158" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
@@ -14443,7 +14403,7 @@
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
       <c r="S158" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
@@ -14480,22 +14440,22 @@
         <v>39</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E159" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="F159" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="F159" s="30" t="s">
+      <c r="G159" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="G159" s="30" t="s">
+      <c r="H159" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="H159" s="6" t="s">
+      <c r="I159" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="I159" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
@@ -14507,7 +14467,7 @@
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
       <c r="S159" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
@@ -14542,22 +14502,22 @@
         <v>39</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E160" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="F160" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="F160" s="30" t="s">
+      <c r="G160" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="G160" s="30" t="s">
+      <c r="H160" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="H160" s="6" t="s">
-        <v>551</v>
-      </c>
       <c r="I160" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
@@ -14569,7 +14529,7 @@
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
       <c r="S160" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
@@ -14606,36 +14566,36 @@
         <v>39</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E161" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="F161" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="F161" s="30" t="s">
+      <c r="G161" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="G161" s="30" t="s">
+      <c r="H161" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="H161" s="6" t="s">
-        <v>555</v>
-      </c>
       <c r="I161" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
       <c r="N161" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O161" s="6"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
       <c r="S161" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
@@ -14670,36 +14630,36 @@
         <v>39</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E162" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="F162" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="F162" s="30" t="s">
+      <c r="G162" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="G162" s="30" t="s">
+      <c r="H162" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="H162" s="6" t="s">
+      <c r="I162" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
       <c r="N162" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O162" s="6"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
       <c r="S162" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
@@ -14734,38 +14694,38 @@
         <v>39</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E163" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="F163" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="F163" s="30" t="s">
+      <c r="G163" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="G163" s="30" t="s">
+      <c r="H163" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="H163" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="I163" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="N163" s="14" t="s">
         <v>568</v>
-      </c>
-      <c r="N163" s="14" t="s">
-        <v>569</v>
       </c>
       <c r="O163" s="6"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
       <c r="S163" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
@@ -14802,38 +14762,38 @@
         <v>39</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E164" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="F164" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="F164" s="30" t="s">
+      <c r="G164" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="G164" s="30" t="s">
+      <c r="H164" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="H164" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="I164" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="N164" s="14" t="s">
         <v>568</v>
-      </c>
-      <c r="N164" s="14" t="s">
-        <v>569</v>
       </c>
       <c r="O164" s="6"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
       <c r="S164" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
@@ -14870,38 +14830,38 @@
         <v>39</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E165" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="F165" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="F165" s="30" t="s">
+      <c r="G165" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="G165" s="30" t="s">
+      <c r="H165" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="H165" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="I165" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N165" s="34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O165" s="6"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
       <c r="S165" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
@@ -14938,38 +14898,38 @@
         <v>39</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E166" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="F166" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="F166" s="30" t="s">
+      <c r="G166" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="G166" s="30" t="s">
+      <c r="H166" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="H166" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="I166" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N166" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O166" s="6"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
       <c r="R166" s="6"/>
       <c r="S166" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
@@ -14991,7 +14951,7 @@
       </c>
       <c r="AJ166" s="6"/>
       <c r="AK166" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AL166" s="6"/>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$166</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="573">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1883,6 +1884,12 @@
 140
 141
 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1959,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1999,6 +2006,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2050,7 +2063,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2207,6 +2220,30 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2289,49 +2326,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AL166"/>
+  <dimension ref="1:167"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J128" activeCellId="0" sqref="J:L"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AC1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="AJ167" activeCellId="0" sqref="AJ167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="69.5182186234818"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="50.1336032388664"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="45.6315789473684"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="1" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="96.5141700404858"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="97.3724696356275"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="10.6032388663968"/>
@@ -14968,6 +15005,72 @@
       </c>
       <c r="AL166" s="8"/>
     </row>
+    <row r="167" s="44" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="8" t="n">
+        <v>521</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E167" s="34"/>
+      <c r="F167" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="G167" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="8"/>
+      <c r="N167" s="38"/>
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+      <c r="Q167" s="8"/>
+      <c r="R167" s="8"/>
+      <c r="S167" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="T167" s="8"/>
+      <c r="U167" s="8"/>
+      <c r="V167" s="8"/>
+      <c r="W167" s="8"/>
+      <c r="X167" s="8"/>
+      <c r="Y167" s="8"/>
+      <c r="Z167" s="8"/>
+      <c r="AA167" s="8"/>
+      <c r="AB167" s="8"/>
+      <c r="AC167" s="8"/>
+      <c r="AD167" s="39"/>
+      <c r="AE167" s="8"/>
+      <c r="AF167" s="8"/>
+      <c r="AG167" s="8"/>
+      <c r="AH167" s="40"/>
+      <c r="AI167" s="41" t="n">
+        <v>521</v>
+      </c>
+      <c r="AJ167" s="8"/>
+      <c r="AK167" s="42"/>
+      <c r="AL167" s="43"/>
+      <c r="AM167" s="0"/>
+      <c r="AN167" s="0"/>
+      <c r="AO167" s="0"/>
+      <c r="AP167" s="0"/>
+      <c r="AQ167" s="0"/>
+      <c r="AMJ167" s="0"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AL166"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="581">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -702,10 +703,13 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Lemon-Lemongras - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">5449000189301, 5449000235947</t>
@@ -1976,7 +1980,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1986,55 +1990,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2093,13 +2055,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2142,24 +2104,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2170,16 +2120,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="172" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2188,10 +2134,6 @@
     </xf>
     <xf numFmtId="173" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2206,19 +2148,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="174" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2226,68 +2156,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="9" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="9" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2296,14 +2174,6 @@
     </xf>
     <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2341,7 +2211,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2354,20 +2224,20 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF66FFFF"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4B183"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2391,56 +2261,56 @@
   <dimension ref="A1:AL169"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G164" activeCellId="0" sqref="G164"/>
+      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2024291497976"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.0769230769231"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6518218623482"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.2914979757085"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5910931174089"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.3603238866397"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.0080971659919"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6599190283401"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.2914979757085"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.8866396761134"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.4898785425101"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="84.6032388663968"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="22.6396761133603"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="121.866396761134"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="53.9433198380567"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.3157894736842"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.0121457489879"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="13.8097165991903"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="12.8178137651822"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2631578947368"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="61.663967611336"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="21.9716599190283"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.86234817813765"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.51417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.4048582995951"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.7327935222672"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="49.8259109311741"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.9554655870445"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="59.7449392712551"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="32.8056680161943"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="19.3441295546559"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.7327935222672"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="86.6720647773279"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="124.87044534413"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="55.336032388664"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="26.4453441295547"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="26.8097165991903"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="16.6477732793522"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="17.3805668016194"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.0971659919028"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.4696356275304"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="63.17004048583"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="22.5222672064777"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.95546558704453"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="11.5060728744939"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2670,7 +2540,7 @@
       <c r="AJ3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="AL3" s="11"/>
@@ -2730,7 +2600,7 @@
       <c r="AJ4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="12" t="s">
         <v>48</v>
       </c>
       <c r="AL4" s="11" t="n">
@@ -2854,7 +2724,7 @@
       <c r="AJ6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AK6" s="13" t="s">
+      <c r="AK6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="AL6" s="11"/>
@@ -2976,7 +2846,7 @@
       <c r="AJ8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AK8" s="13" t="s">
+      <c r="AK8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="AL8" s="11" t="n">
@@ -3038,7 +2908,7 @@
       <c r="AJ9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AK9" s="14" t="n">
+      <c r="AK9" s="6" t="n">
         <v>138</v>
       </c>
       <c r="AL9" s="11"/>
@@ -3098,10 +2968,10 @@
       <c r="AJ10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AK10" s="15" t="s">
+      <c r="AK10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AL10" s="16" t="n">
+      <c r="AL10" s="6" t="n">
         <v>520</v>
       </c>
     </row>
@@ -3160,10 +3030,10 @@
       <c r="AJ11" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AK11" s="15" t="s">
+      <c r="AK11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AL11" s="16" t="n">
+      <c r="AL11" s="6" t="n">
         <v>520</v>
       </c>
     </row>
@@ -3222,10 +3092,10 @@
       <c r="AJ12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AK12" s="15" t="s">
+      <c r="AK12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AL12" s="16" t="n">
+      <c r="AL12" s="6" t="n">
         <v>520</v>
       </c>
     </row>
@@ -3284,10 +3154,10 @@
       <c r="AJ13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AK13" s="15" t="s">
+      <c r="AK13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AL13" s="16" t="n">
+      <c r="AL13" s="6" t="n">
         <v>520</v>
       </c>
     </row>
@@ -3349,7 +3219,7 @@
       <c r="AK14" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="AL14" s="16" t="n">
+      <c r="AL14" s="6" t="n">
         <v>520</v>
       </c>
     </row>
@@ -3408,7 +3278,7 @@
       <c r="AJ15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="AK15" s="15" t="s">
+      <c r="AK15" s="13" t="s">
         <v>77</v>
       </c>
       <c r="AL15" s="6"/>
@@ -3455,7 +3325,7 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="14"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6" t="s">
@@ -3472,10 +3342,10 @@
       <c r="AJ16" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK16" s="15" t="s">
+      <c r="AK16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="AL16" s="16" t="n">
+      <c r="AL16" s="6" t="n">
         <v>300</v>
       </c>
     </row>
@@ -3510,7 +3380,7 @@
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="15" t="s">
         <v>84</v>
       </c>
       <c r="N17" s="11" t="s">
@@ -3535,13 +3405,13 @@
       <c r="Y17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z17" s="17"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD17" s="19" t="n">
+      <c r="AD17" s="9" t="n">
         <v>0.009015</v>
       </c>
       <c r="AE17" s="6"/>
@@ -3590,7 +3460,7 @@
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="15" t="s">
         <v>93</v>
       </c>
       <c r="N18" s="11" t="s">
@@ -3615,13 +3485,13 @@
       <c r="Y18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z18" s="17"/>
+      <c r="Z18" s="14"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD18" s="19" t="n">
+      <c r="AD18" s="9" t="n">
         <v>0.009015</v>
       </c>
       <c r="AE18" s="6"/>
@@ -3670,7 +3540,7 @@
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="15" t="s">
         <v>96</v>
       </c>
       <c r="N19" s="11" t="s">
@@ -3695,13 +3565,13 @@
       <c r="Y19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z19" s="17"/>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD19" s="19" t="n">
+      <c r="AD19" s="9" t="n">
         <v>0.009015</v>
       </c>
       <c r="AE19" s="6"/>
@@ -3750,7 +3620,7 @@
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="15" t="s">
         <v>99</v>
       </c>
       <c r="N20" s="11" t="s">
@@ -3775,13 +3645,13 @@
       <c r="Y20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z20" s="17"/>
+      <c r="Z20" s="14"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD20" s="19" t="n">
+      <c r="AD20" s="9" t="n">
         <v>0.009015</v>
       </c>
       <c r="AE20" s="6"/>
@@ -3830,7 +3700,7 @@
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="15" t="s">
         <v>102</v>
       </c>
       <c r="N21" s="11" t="s">
@@ -3855,13 +3725,13 @@
       <c r="Y21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z21" s="17"/>
+      <c r="Z21" s="14"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD21" s="19" t="n">
+      <c r="AD21" s="9" t="n">
         <v>0.009015</v>
       </c>
       <c r="AE21" s="6"/>
@@ -3910,7 +3780,7 @@
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="15" t="s">
         <v>105</v>
       </c>
       <c r="N22" s="11" t="s">
@@ -3935,13 +3805,13 @@
       <c r="Y22" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z22" s="17"/>
+      <c r="Z22" s="14"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD22" s="19" t="n">
+      <c r="AD22" s="9" t="n">
         <v>0.009015</v>
       </c>
       <c r="AE22" s="6"/>
@@ -3990,7 +3860,7 @@
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="15" t="s">
         <v>108</v>
       </c>
       <c r="N23" s="11" t="s">
@@ -4015,13 +3885,13 @@
       <c r="Y23" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z23" s="17"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD23" s="19" t="n">
+      <c r="AD23" s="9" t="n">
         <v>0.009</v>
       </c>
       <c r="AE23" s="6"/>
@@ -4070,7 +3940,7 @@
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="15" t="s">
         <v>111</v>
       </c>
       <c r="N24" s="11" t="s">
@@ -4095,13 +3965,13 @@
       <c r="Y24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z24" s="17"/>
+      <c r="Z24" s="14"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD24" s="19" t="n">
+      <c r="AD24" s="9" t="n">
         <v>0.009</v>
       </c>
       <c r="AE24" s="6"/>
@@ -4150,7 +4020,7 @@
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="15" t="s">
         <v>114</v>
       </c>
       <c r="N25" s="11" t="s">
@@ -4175,13 +4045,13 @@
       <c r="Y25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z25" s="17"/>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD25" s="19" t="n">
+      <c r="AD25" s="9" t="n">
         <v>0.009</v>
       </c>
       <c r="AE25" s="6"/>
@@ -4230,7 +4100,7 @@
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="15" t="s">
         <v>117</v>
       </c>
       <c r="N26" s="11" t="s">
@@ -4255,13 +4125,13 @@
       <c r="Y26" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z26" s="17"/>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD26" s="19" t="n">
+      <c r="AD26" s="9" t="n">
         <v>0.009</v>
       </c>
       <c r="AE26" s="6"/>
@@ -4310,7 +4180,7 @@
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="15" t="s">
         <v>120</v>
       </c>
       <c r="N27" s="11" t="s">
@@ -4335,13 +4205,13 @@
       <c r="Y27" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z27" s="17"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD27" s="19" t="n">
+      <c r="AD27" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE27" s="6"/>
@@ -4390,7 +4260,7 @@
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="15" t="s">
         <v>123</v>
       </c>
       <c r="N28" s="11" t="s">
@@ -4415,13 +4285,13 @@
       <c r="Y28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z28" s="17"/>
+      <c r="Z28" s="14"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD28" s="19" t="n">
+      <c r="AD28" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE28" s="6"/>
@@ -4470,7 +4340,7 @@
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="15" t="s">
         <v>126</v>
       </c>
       <c r="N29" s="11" t="s">
@@ -4495,13 +4365,13 @@
       <c r="Y29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z29" s="17"/>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD29" s="19" t="n">
+      <c r="AD29" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE29" s="6"/>
@@ -4550,7 +4420,7 @@
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="15" t="s">
         <v>129</v>
       </c>
       <c r="N30" s="11" t="s">
@@ -4575,13 +4445,13 @@
       <c r="Y30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z30" s="17"/>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD30" s="19" t="n">
+      <c r="AD30" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE30" s="6"/>
@@ -4630,7 +4500,7 @@
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="15" t="s">
         <v>132</v>
       </c>
       <c r="N31" s="11" t="s">
@@ -4655,13 +4525,13 @@
       <c r="Y31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z31" s="17"/>
+      <c r="Z31" s="14"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD31" s="19" t="n">
+      <c r="AD31" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE31" s="6"/>
@@ -4710,7 +4580,7 @@
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="15" t="s">
         <v>135</v>
       </c>
       <c r="N32" s="11" t="s">
@@ -4735,13 +4605,13 @@
       <c r="Y32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z32" s="17"/>
+      <c r="Z32" s="14"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD32" s="19" t="n">
+      <c r="AD32" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE32" s="6"/>
@@ -4790,7 +4660,7 @@
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="15" t="s">
         <v>138</v>
       </c>
       <c r="N33" s="11" t="s">
@@ -4815,13 +4685,13 @@
       <c r="Y33" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z33" s="17"/>
+      <c r="Z33" s="14"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD33" s="19" t="n">
+      <c r="AD33" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE33" s="6"/>
@@ -4870,7 +4740,7 @@
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="15" t="s">
         <v>141</v>
       </c>
       <c r="N34" s="11" t="s">
@@ -4895,13 +4765,13 @@
       <c r="Y34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z34" s="17"/>
+      <c r="Z34" s="14"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD34" s="19" t="n">
+      <c r="AD34" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE34" s="6"/>
@@ -4950,7 +4820,7 @@
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="18" t="s">
+      <c r="M35" s="15" t="s">
         <v>144</v>
       </c>
       <c r="N35" s="11" t="s">
@@ -4975,13 +4845,13 @@
       <c r="Y35" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z35" s="17"/>
+      <c r="Z35" s="14"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD35" s="19" t="n">
+      <c r="AD35" s="9" t="n">
         <v>0.003993</v>
       </c>
       <c r="AE35" s="6"/>
@@ -5030,7 +4900,7 @@
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="15" t="s">
         <v>147</v>
       </c>
       <c r="N36" s="11" t="s">
@@ -5055,13 +4925,13 @@
       <c r="Y36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z36" s="17"/>
+      <c r="Z36" s="14"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD36" s="19" t="n">
+      <c r="AD36" s="9" t="n">
         <v>0.003829</v>
       </c>
       <c r="AE36" s="6"/>
@@ -5110,7 +4980,7 @@
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="18" t="s">
+      <c r="M37" s="15" t="s">
         <v>150</v>
       </c>
       <c r="N37" s="11" t="s">
@@ -5135,13 +5005,13 @@
       <c r="Y37" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z37" s="17"/>
+      <c r="Z37" s="14"/>
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD37" s="19" t="n">
+      <c r="AD37" s="9" t="n">
         <v>0.003829</v>
       </c>
       <c r="AE37" s="6"/>
@@ -5190,7 +5060,7 @@
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="18" t="s">
+      <c r="M38" s="15" t="s">
         <v>153</v>
       </c>
       <c r="N38" s="11" t="s">
@@ -5215,13 +5085,13 @@
       <c r="Y38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z38" s="17"/>
+      <c r="Z38" s="14"/>
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
       <c r="AC38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD38" s="19" t="n">
+      <c r="AD38" s="9" t="n">
         <v>0.003829</v>
       </c>
       <c r="AE38" s="6"/>
@@ -5270,7 +5140,7 @@
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="18" t="s">
+      <c r="M39" s="15" t="s">
         <v>156</v>
       </c>
       <c r="N39" s="11" t="s">
@@ -5301,7 +5171,7 @@
       <c r="AC39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD39" s="19" t="n">
+      <c r="AD39" s="9" t="n">
         <v>0.003829</v>
       </c>
       <c r="AE39" s="6"/>
@@ -5350,7 +5220,7 @@
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="15" t="s">
         <v>159</v>
       </c>
       <c r="N40" s="11" t="s">
@@ -5375,13 +5245,13 @@
       <c r="Y40" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z40" s="17"/>
+      <c r="Z40" s="14"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
       <c r="AC40" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD40" s="19" t="n">
+      <c r="AD40" s="9" t="n">
         <v>0.003829</v>
       </c>
       <c r="AE40" s="6"/>
@@ -5430,7 +5300,7 @@
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="18" t="s">
+      <c r="M41" s="15" t="s">
         <v>162</v>
       </c>
       <c r="N41" s="11" t="s">
@@ -5455,13 +5325,13 @@
       <c r="Y41" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z41" s="17"/>
+      <c r="Z41" s="14"/>
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
       <c r="AC41" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD41" s="19" t="n">
+      <c r="AD41" s="9" t="n">
         <v>0.003829</v>
       </c>
       <c r="AE41" s="6"/>
@@ -5521,7 +5391,7 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
-      <c r="Z42" s="17"/>
+      <c r="Z42" s="14"/>
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6" t="s">
@@ -5538,10 +5408,10 @@
       <c r="AJ42" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK42" s="15" t="s">
+      <c r="AK42" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="AL42" s="16" t="n">
+      <c r="AL42" s="6" t="n">
         <v>300</v>
       </c>
     </row>
@@ -5576,7 +5446,7 @@
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="18" t="s">
+      <c r="M43" s="15" t="s">
         <v>169</v>
       </c>
       <c r="N43" s="11" t="s">
@@ -5601,13 +5471,13 @@
       <c r="Y43" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z43" s="17"/>
+      <c r="Z43" s="14"/>
       <c r="AA43" s="6"/>
       <c r="AB43" s="6"/>
       <c r="AC43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD43" s="19" t="n">
+      <c r="AD43" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE43" s="6"/>
@@ -5644,7 +5514,7 @@
       <c r="F44" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="6" t="s">
         <v>173</v>
       </c>
       <c r="H44" s="6" t="s">
@@ -5656,7 +5526,7 @@
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="15" t="s">
         <v>172</v>
       </c>
       <c r="N44" s="11" t="s">
@@ -5681,13 +5551,13 @@
       <c r="Y44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z44" s="17"/>
+      <c r="Z44" s="14"/>
       <c r="AA44" s="6"/>
       <c r="AB44" s="6"/>
       <c r="AC44" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD44" s="19" t="n">
+      <c r="AD44" s="9" t="n">
         <v>0.004011</v>
       </c>
       <c r="AE44" s="6"/>
@@ -5736,7 +5606,7 @@
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="18" t="s">
+      <c r="M45" s="15" t="s">
         <v>175</v>
       </c>
       <c r="N45" s="11" t="s">
@@ -5761,13 +5631,13 @@
       <c r="Y45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z45" s="17"/>
+      <c r="Z45" s="14"/>
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD45" s="19" t="n">
+      <c r="AD45" s="9" t="n">
         <v>0.004011</v>
       </c>
       <c r="AE45" s="6"/>
@@ -5804,7 +5674,7 @@
       <c r="F46" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="6" t="s">
         <v>179</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -5816,7 +5686,7 @@
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="15" t="s">
         <v>178</v>
       </c>
       <c r="N46" s="11" t="s">
@@ -5841,13 +5711,13 @@
       <c r="Y46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z46" s="17"/>
+      <c r="Z46" s="14"/>
       <c r="AA46" s="6"/>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD46" s="19" t="n">
+      <c r="AD46" s="9" t="n">
         <v>0.001222</v>
       </c>
       <c r="AE46" s="6"/>
@@ -5896,7 +5766,7 @@
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="18" t="s">
+      <c r="M47" s="15" t="s">
         <v>181</v>
       </c>
       <c r="N47" s="11" t="s">
@@ -5921,13 +5791,13 @@
       <c r="Y47" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z47" s="17"/>
+      <c r="Z47" s="14"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD47" s="19" t="n">
+      <c r="AD47" s="9" t="n">
         <v>0.001222</v>
       </c>
       <c r="AE47" s="6"/>
@@ -5987,7 +5857,7 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
-      <c r="Z48" s="17"/>
+      <c r="Z48" s="14"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6" t="s">
@@ -6004,10 +5874,10 @@
       <c r="AJ48" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK48" s="15" t="s">
+      <c r="AK48" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AL48" s="16" t="n">
+      <c r="AL48" s="6" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6042,7 +5912,7 @@
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="18" t="s">
+      <c r="M49" s="15" t="s">
         <v>187</v>
       </c>
       <c r="N49" s="11" t="s">
@@ -6067,13 +5937,13 @@
       <c r="Y49" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z49" s="17"/>
+      <c r="Z49" s="14"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD49" s="19" t="n">
+      <c r="AD49" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE49" s="6"/>
@@ -6122,7 +5992,7 @@
       </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="18" t="s">
+      <c r="M50" s="15" t="s">
         <v>190</v>
       </c>
       <c r="N50" s="11" t="s">
@@ -6147,13 +6017,13 @@
       <c r="Y50" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z50" s="17"/>
+      <c r="Z50" s="14"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
       <c r="AC50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD50" s="19" t="n">
+      <c r="AD50" s="9" t="n">
         <v>0.004011</v>
       </c>
       <c r="AE50" s="6"/>
@@ -6202,7 +6072,7 @@
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="18" t="s">
+      <c r="M51" s="15" t="s">
         <v>193</v>
       </c>
       <c r="N51" s="11" t="s">
@@ -6227,13 +6097,13 @@
       <c r="Y51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z51" s="17"/>
+      <c r="Z51" s="14"/>
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD51" s="19" t="n">
+      <c r="AD51" s="9" t="n">
         <v>0.004011</v>
       </c>
       <c r="AE51" s="6"/>
@@ -6282,7 +6152,7 @@
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="18" t="s">
+      <c r="M52" s="15" t="s">
         <v>196</v>
       </c>
       <c r="N52" s="11" t="s">
@@ -6307,13 +6177,13 @@
       <c r="Y52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z52" s="17"/>
+      <c r="Z52" s="14"/>
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD52" s="19" t="n">
+      <c r="AD52" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE52" s="6"/>
@@ -6373,7 +6243,7 @@
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
-      <c r="Z53" s="17"/>
+      <c r="Z53" s="14"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6" t="s">
@@ -6390,10 +6260,10 @@
       <c r="AJ53" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK53" s="15" t="s">
+      <c r="AK53" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="AL53" s="16" t="n">
+      <c r="AL53" s="6" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6428,10 +6298,10 @@
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="18" t="s">
+      <c r="M54" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="N54" s="21" t="s">
+      <c r="N54" s="16" t="s">
         <v>204</v>
       </c>
       <c r="O54" s="11"/>
@@ -6453,13 +6323,13 @@
       <c r="Y54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z54" s="17"/>
+      <c r="Z54" s="14"/>
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD54" s="19" t="n">
+      <c r="AD54" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE54" s="6"/>
@@ -6493,7 +6363,7 @@
       <c r="E55" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="17" t="s">
         <v>205</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -6508,11 +6378,11 @@
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="N55" s="21" t="s">
+      <c r="M55" s="15" t="s">
         <v>207</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
@@ -6533,13 +6403,13 @@
       <c r="Y55" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z55" s="17"/>
+      <c r="Z55" s="14"/>
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD55" s="19" t="n">
+      <c r="AD55" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE55" s="6"/>
@@ -6574,10 +6444,10 @@
         <v>165</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G56" s="16" t="s">
         <v>209</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>86</v>
@@ -6588,11 +6458,11 @@
       </c>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
-      <c r="M56" s="18" t="s">
-        <v>208</v>
+      <c r="M56" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -6613,13 +6483,13 @@
       <c r="Y56" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z56" s="17"/>
+      <c r="Z56" s="14"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
       <c r="AC56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD56" s="19" t="n">
+      <c r="AD56" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE56" s="6"/>
@@ -6654,10 +6524,10 @@
         <v>165</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>86</v>
@@ -6668,11 +6538,11 @@
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="N57" s="21" t="s">
+      <c r="M57" s="15" t="s">
         <v>214</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
@@ -6693,13 +6563,13 @@
       <c r="Y57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z57" s="17"/>
+      <c r="Z57" s="14"/>
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
       <c r="AC57" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD57" s="19" t="n">
+      <c r="AD57" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE57" s="6"/>
@@ -6734,10 +6604,10 @@
         <v>165</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H58" s="6" t="s">
         <v>86</v>
@@ -6748,11 +6618,11 @@
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
-      <c r="M58" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="N58" s="21" t="s">
-        <v>217</v>
+      <c r="M58" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>218</v>
       </c>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
@@ -6773,13 +6643,13 @@
       <c r="Y58" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z58" s="17"/>
+      <c r="Z58" s="14"/>
       <c r="AA58" s="6"/>
       <c r="AB58" s="6"/>
       <c r="AC58" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD58" s="19" t="n">
+      <c r="AD58" s="9" t="n">
         <v>0.001219</v>
       </c>
       <c r="AE58" s="6"/>
@@ -6814,10 +6684,10 @@
         <v>165</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H59" s="6" t="s">
         <v>81</v>
@@ -6839,7 +6709,7 @@
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
-      <c r="Z59" s="17"/>
+      <c r="Z59" s="14"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6" t="s">
@@ -6856,10 +6726,10 @@
       <c r="AJ59" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK59" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL59" s="16" t="n">
+      <c r="AK59" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL59" s="6" t="n">
         <v>300</v>
       </c>
     </row>
@@ -6880,10 +6750,10 @@
         <v>165</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>86</v>
@@ -6894,11 +6764,11 @@
       </c>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
-      <c r="M60" s="18" t="s">
-        <v>221</v>
+      <c r="M60" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
@@ -6919,13 +6789,13 @@
       <c r="Y60" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z60" s="17"/>
+      <c r="Z60" s="14"/>
       <c r="AA60" s="6"/>
       <c r="AB60" s="6"/>
       <c r="AC60" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD60" s="19" t="n">
+      <c r="AD60" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE60" s="6"/>
@@ -6960,10 +6830,10 @@
         <v>165</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>86</v>
@@ -6974,11 +6844,11 @@
       </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
-      <c r="M61" s="18" t="s">
-        <v>224</v>
+      <c r="M61" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
@@ -6999,13 +6869,13 @@
       <c r="Y61" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z61" s="17"/>
+      <c r="Z61" s="14"/>
       <c r="AA61" s="6"/>
       <c r="AB61" s="6"/>
       <c r="AC61" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD61" s="19" t="n">
+      <c r="AD61" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE61" s="6"/>
@@ -7040,10 +6910,10 @@
         <v>165</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>86</v>
@@ -7054,11 +6924,11 @@
       </c>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
-      <c r="M62" s="18" t="s">
-        <v>227</v>
+      <c r="M62" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
@@ -7079,13 +6949,13 @@
       <c r="Y62" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z62" s="17"/>
+      <c r="Z62" s="14"/>
       <c r="AA62" s="6"/>
       <c r="AB62" s="6"/>
       <c r="AC62" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD62" s="19" t="n">
+      <c r="AD62" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE62" s="6"/>
@@ -7120,10 +6990,10 @@
         <v>165</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>86</v>
@@ -7134,11 +7004,11 @@
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
-      <c r="M63" s="18" t="s">
-        <v>230</v>
+      <c r="M63" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
@@ -7159,13 +7029,13 @@
       <c r="Y63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z63" s="17"/>
+      <c r="Z63" s="14"/>
       <c r="AA63" s="6"/>
       <c r="AB63" s="6"/>
       <c r="AC63" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD63" s="19" t="n">
+      <c r="AD63" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE63" s="6"/>
@@ -7200,10 +7070,10 @@
         <v>165</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>86</v>
@@ -7214,11 +7084,11 @@
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
-      <c r="M64" s="18" t="s">
-        <v>233</v>
+      <c r="M64" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
@@ -7239,13 +7109,13 @@
       <c r="Y64" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z64" s="17"/>
+      <c r="Z64" s="14"/>
       <c r="AA64" s="6"/>
       <c r="AB64" s="6"/>
       <c r="AC64" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD64" s="19" t="n">
+      <c r="AD64" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE64" s="6"/>
@@ -7280,10 +7150,10 @@
         <v>165</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>86</v>
@@ -7294,11 +7164,11 @@
       </c>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
-      <c r="M65" s="18" t="s">
-        <v>236</v>
+      <c r="M65" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
@@ -7319,13 +7189,13 @@
       <c r="Y65" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z65" s="17"/>
+      <c r="Z65" s="14"/>
       <c r="AA65" s="6"/>
       <c r="AB65" s="6"/>
       <c r="AC65" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD65" s="19" t="n">
+      <c r="AD65" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE65" s="6"/>
@@ -7360,10 +7230,10 @@
         <v>165</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>86</v>
@@ -7374,11 +7244,11 @@
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
-      <c r="M66" s="18" t="s">
-        <v>239</v>
+      <c r="M66" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
@@ -7399,13 +7269,13 @@
       <c r="Y66" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z66" s="17"/>
+      <c r="Z66" s="14"/>
       <c r="AA66" s="6"/>
       <c r="AB66" s="6"/>
       <c r="AC66" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD66" s="19" t="n">
+      <c r="AD66" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE66" s="6"/>
@@ -7440,10 +7310,10 @@
         <v>165</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>86</v>
@@ -7454,11 +7324,11 @@
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
-      <c r="M67" s="18" t="s">
-        <v>242</v>
+      <c r="M67" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
@@ -7479,13 +7349,13 @@
       <c r="Y67" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z67" s="17"/>
+      <c r="Z67" s="14"/>
       <c r="AA67" s="6"/>
       <c r="AB67" s="6"/>
       <c r="AC67" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD67" s="19" t="n">
+      <c r="AD67" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE67" s="6"/>
@@ -7520,10 +7390,10 @@
         <v>165</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>86</v>
@@ -7534,11 +7404,11 @@
       </c>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
-      <c r="M68" s="18" t="s">
-        <v>245</v>
+      <c r="M68" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
@@ -7559,13 +7429,13 @@
       <c r="Y68" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z68" s="17"/>
+      <c r="Z68" s="14"/>
       <c r="AA68" s="6"/>
       <c r="AB68" s="6"/>
       <c r="AC68" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD68" s="19" t="n">
+      <c r="AD68" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE68" s="6"/>
@@ -7600,10 +7470,10 @@
         <v>165</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>86</v>
@@ -7614,11 +7484,11 @@
       </c>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
-      <c r="M69" s="18" t="s">
-        <v>248</v>
+      <c r="M69" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
@@ -7639,13 +7509,13 @@
       <c r="Y69" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z69" s="17"/>
+      <c r="Z69" s="14"/>
       <c r="AA69" s="6"/>
       <c r="AB69" s="6"/>
       <c r="AC69" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD69" s="19" t="n">
+      <c r="AD69" s="9" t="n">
         <v>0.00701</v>
       </c>
       <c r="AE69" s="6"/>
@@ -7680,10 +7550,10 @@
         <v>165</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>86</v>
@@ -7694,11 +7564,11 @@
       </c>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
-      <c r="M70" s="18" t="s">
-        <v>251</v>
+      <c r="M70" s="15" t="s">
+        <v>252</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -7719,13 +7589,13 @@
       <c r="Y70" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z70" s="17"/>
+      <c r="Z70" s="14"/>
       <c r="AA70" s="6"/>
       <c r="AB70" s="6"/>
       <c r="AC70" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD70" s="19" t="n">
+      <c r="AD70" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE70" s="6"/>
@@ -7760,10 +7630,10 @@
         <v>165</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>86</v>
@@ -7774,11 +7644,11 @@
       </c>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
-      <c r="M71" s="18" t="s">
-        <v>254</v>
+      <c r="M71" s="15" t="s">
+        <v>255</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
@@ -7799,13 +7669,13 @@
       <c r="Y71" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z71" s="17"/>
+      <c r="Z71" s="14"/>
       <c r="AA71" s="6"/>
       <c r="AB71" s="6"/>
       <c r="AC71" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD71" s="19" t="n">
+      <c r="AD71" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE71" s="6"/>
@@ -7840,10 +7710,10 @@
         <v>165</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>86</v>
@@ -7854,11 +7724,11 @@
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
-      <c r="M72" s="18" t="s">
-        <v>257</v>
+      <c r="M72" s="15" t="s">
+        <v>258</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
@@ -7879,13 +7749,13 @@
       <c r="Y72" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z72" s="17"/>
+      <c r="Z72" s="14"/>
       <c r="AA72" s="6"/>
       <c r="AB72" s="6"/>
       <c r="AC72" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD72" s="19" t="n">
+      <c r="AD72" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE72" s="6"/>
@@ -7920,10 +7790,10 @@
         <v>165</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>86</v>
@@ -7934,11 +7804,11 @@
       </c>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
-      <c r="M73" s="18" t="s">
-        <v>260</v>
+      <c r="M73" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
@@ -7959,13 +7829,13 @@
       <c r="Y73" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z73" s="17"/>
+      <c r="Z73" s="14"/>
       <c r="AA73" s="6"/>
       <c r="AB73" s="6"/>
       <c r="AC73" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD73" s="19" t="n">
+      <c r="AD73" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE73" s="6"/>
@@ -8000,10 +7870,10 @@
         <v>165</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>86</v>
@@ -8014,11 +7884,11 @@
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
-      <c r="M74" s="18" t="s">
-        <v>263</v>
+      <c r="M74" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
@@ -8039,13 +7909,13 @@
       <c r="Y74" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z74" s="17"/>
+      <c r="Z74" s="14"/>
       <c r="AA74" s="6"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD74" s="19" t="n">
+      <c r="AD74" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE74" s="6"/>
@@ -8080,10 +7950,10 @@
         <v>165</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>86</v>
@@ -8094,11 +7964,11 @@
       </c>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
-      <c r="M75" s="18" t="s">
-        <v>266</v>
+      <c r="M75" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
@@ -8119,13 +7989,13 @@
       <c r="Y75" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z75" s="17"/>
+      <c r="Z75" s="14"/>
       <c r="AA75" s="6"/>
       <c r="AB75" s="6"/>
       <c r="AC75" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD75" s="19" t="n">
+      <c r="AD75" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE75" s="6"/>
@@ -8160,10 +8030,10 @@
         <v>165</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>86</v>
@@ -8174,11 +8044,11 @@
       </c>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
-      <c r="M76" s="18" t="s">
-        <v>269</v>
+      <c r="M76" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
@@ -8199,13 +8069,13 @@
       <c r="Y76" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z76" s="17"/>
+      <c r="Z76" s="14"/>
       <c r="AA76" s="6"/>
       <c r="AB76" s="6"/>
       <c r="AC76" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD76" s="19" t="n">
+      <c r="AD76" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE76" s="6"/>
@@ -8240,10 +8110,10 @@
         <v>165</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>86</v>
@@ -8254,11 +8124,11 @@
       </c>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
-      <c r="M77" s="18" t="s">
-        <v>272</v>
+      <c r="M77" s="15" t="s">
+        <v>273</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
@@ -8279,13 +8149,13 @@
       <c r="Y77" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z77" s="17"/>
+      <c r="Z77" s="14"/>
       <c r="AA77" s="6"/>
       <c r="AB77" s="6"/>
       <c r="AC77" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD77" s="19" t="n">
+      <c r="AD77" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE77" s="6"/>
@@ -8320,10 +8190,10 @@
         <v>165</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>86</v>
@@ -8334,11 +8204,11 @@
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
-      <c r="M78" s="18" t="s">
-        <v>275</v>
+      <c r="M78" s="15" t="s">
+        <v>276</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
@@ -8359,13 +8229,13 @@
       <c r="Y78" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z78" s="17"/>
+      <c r="Z78" s="14"/>
       <c r="AA78" s="6"/>
       <c r="AB78" s="6"/>
       <c r="AC78" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD78" s="19" t="n">
+      <c r="AD78" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE78" s="6"/>
@@ -8400,10 +8270,10 @@
         <v>165</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>86</v>
@@ -8414,11 +8284,11 @@
       </c>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
-      <c r="M79" s="18" t="s">
-        <v>278</v>
+      <c r="M79" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="N79" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
@@ -8439,13 +8309,13 @@
       <c r="Y79" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z79" s="17"/>
+      <c r="Z79" s="14"/>
       <c r="AA79" s="6"/>
       <c r="AB79" s="6"/>
       <c r="AC79" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD79" s="19" t="n">
+      <c r="AD79" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE79" s="6"/>
@@ -8480,10 +8350,10 @@
         <v>165</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>86</v>
@@ -8494,11 +8364,11 @@
       </c>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
-      <c r="M80" s="18" t="s">
-        <v>281</v>
+      <c r="M80" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="N80" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
@@ -8519,13 +8389,13 @@
       <c r="Y80" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z80" s="17"/>
+      <c r="Z80" s="14"/>
       <c r="AA80" s="6"/>
       <c r="AB80" s="6"/>
       <c r="AC80" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD80" s="19" t="n">
+      <c r="AD80" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE80" s="6"/>
@@ -8560,10 +8430,10 @@
         <v>165</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>86</v>
@@ -8574,11 +8444,11 @@
       </c>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
-      <c r="M81" s="18" t="s">
-        <v>284</v>
+      <c r="M81" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="N81" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
@@ -8599,13 +8469,13 @@
       <c r="Y81" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z81" s="17"/>
+      <c r="Z81" s="14"/>
       <c r="AA81" s="6"/>
       <c r="AB81" s="6"/>
       <c r="AC81" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD81" s="19" t="n">
+      <c r="AD81" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE81" s="6"/>
@@ -8640,10 +8510,10 @@
         <v>165</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>86</v>
@@ -8654,11 +8524,11 @@
       </c>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
-      <c r="M82" s="18" t="s">
-        <v>287</v>
+      <c r="M82" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="N82" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
@@ -8679,13 +8549,13 @@
       <c r="Y82" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z82" s="17"/>
+      <c r="Z82" s="14"/>
       <c r="AA82" s="6"/>
       <c r="AB82" s="6"/>
       <c r="AC82" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD82" s="19" t="n">
+      <c r="AD82" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE82" s="6"/>
@@ -8720,10 +8590,10 @@
         <v>165</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>86</v>
@@ -8734,11 +8604,11 @@
       </c>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
-      <c r="M83" s="18" t="s">
-        <v>290</v>
+      <c r="M83" s="15" t="s">
+        <v>291</v>
       </c>
       <c r="N83" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
@@ -8759,13 +8629,13 @@
       <c r="Y83" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z83" s="17"/>
+      <c r="Z83" s="14"/>
       <c r="AA83" s="6"/>
       <c r="AB83" s="6"/>
       <c r="AC83" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD83" s="19" t="n">
+      <c r="AD83" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE83" s="6"/>
@@ -8800,10 +8670,10 @@
         <v>165</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>86</v>
@@ -8814,11 +8684,11 @@
       </c>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
-      <c r="M84" s="18" t="s">
-        <v>293</v>
+      <c r="M84" s="15" t="s">
+        <v>294</v>
       </c>
       <c r="N84" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
@@ -8839,13 +8709,13 @@
       <c r="Y84" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z84" s="17"/>
+      <c r="Z84" s="14"/>
       <c r="AA84" s="6"/>
       <c r="AB84" s="6"/>
       <c r="AC84" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD84" s="19" t="n">
+      <c r="AD84" s="9" t="n">
         <v>0.003992</v>
       </c>
       <c r="AE84" s="6"/>
@@ -8880,10 +8750,10 @@
         <v>165</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>86</v>
@@ -8894,11 +8764,11 @@
       </c>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
-      <c r="M85" s="18" t="s">
-        <v>296</v>
+      <c r="M85" s="15" t="s">
+        <v>297</v>
       </c>
       <c r="N85" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
@@ -8919,13 +8789,13 @@
       <c r="Y85" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z85" s="17"/>
+      <c r="Z85" s="14"/>
       <c r="AA85" s="6"/>
       <c r="AB85" s="6"/>
       <c r="AC85" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD85" s="19" t="n">
+      <c r="AD85" s="9" t="n">
         <v>0.001222</v>
       </c>
       <c r="AE85" s="6"/>
@@ -8960,10 +8830,10 @@
         <v>165</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>86</v>
@@ -8974,8 +8844,8 @@
       </c>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
-      <c r="M86" s="18" t="s">
-        <v>299</v>
+      <c r="M86" s="15" t="s">
+        <v>300</v>
       </c>
       <c r="N86" s="11" t="n">
         <v>4650075422922</v>
@@ -8999,13 +8869,13 @@
       <c r="Y86" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z86" s="17"/>
+      <c r="Z86" s="14"/>
       <c r="AA86" s="6"/>
       <c r="AB86" s="6"/>
       <c r="AC86" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD86" s="19" t="n">
+      <c r="AD86" s="9" t="n">
         <v>0.001222</v>
       </c>
       <c r="AE86" s="6"/>
@@ -9040,10 +8910,10 @@
         <v>165</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>86</v>
@@ -9054,11 +8924,11 @@
       </c>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
-      <c r="M87" s="18" t="s">
-        <v>301</v>
+      <c r="M87" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="N87" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
@@ -9079,13 +8949,13 @@
       <c r="Y87" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z87" s="17"/>
+      <c r="Z87" s="14"/>
       <c r="AA87" s="6"/>
       <c r="AB87" s="6"/>
       <c r="AC87" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD87" s="19" t="n">
+      <c r="AD87" s="9" t="n">
         <v>0.001222</v>
       </c>
       <c r="AE87" s="6"/>
@@ -9120,10 +8990,10 @@
         <v>165</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>86</v>
@@ -9134,8 +9004,8 @@
       </c>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
-      <c r="M88" s="18" t="s">
-        <v>304</v>
+      <c r="M88" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="N88" s="11" t="n">
         <v>4650075421550</v>
@@ -9159,13 +9029,13 @@
       <c r="Y88" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z88" s="17"/>
+      <c r="Z88" s="14"/>
       <c r="AA88" s="6"/>
       <c r="AB88" s="6"/>
       <c r="AC88" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD88" s="19" t="n">
+      <c r="AD88" s="9" t="n">
         <v>0.001222</v>
       </c>
       <c r="AE88" s="6"/>
@@ -9200,10 +9070,10 @@
         <v>165</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>86</v>
@@ -9214,8 +9084,8 @@
       </c>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
-      <c r="M89" s="18" t="s">
-        <v>306</v>
+      <c r="M89" s="15" t="s">
+        <v>307</v>
       </c>
       <c r="N89" s="11" t="n">
         <v>111111</v>
@@ -9239,13 +9109,13 @@
       <c r="Y89" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z89" s="17"/>
+      <c r="Z89" s="14"/>
       <c r="AA89" s="6"/>
       <c r="AB89" s="6"/>
       <c r="AC89" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD89" s="19" t="n">
+      <c r="AD89" s="9" t="n">
         <v>0.001222</v>
       </c>
       <c r="AE89" s="6"/>
@@ -9280,10 +9150,10 @@
         <v>165</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>86</v>
@@ -9294,8 +9164,8 @@
       </c>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
-      <c r="M90" s="18" t="s">
-        <v>308</v>
+      <c r="M90" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="N90" s="11" t="n">
         <v>111111</v>
@@ -9319,13 +9189,13 @@
       <c r="Y90" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="Z90" s="17"/>
+      <c r="Z90" s="14"/>
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
       <c r="AC90" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD90" s="19" t="n">
+      <c r="AD90" s="9" t="n">
         <v>0.001222</v>
       </c>
       <c r="AE90" s="6"/>
@@ -9354,19 +9224,19 @@
         <v>39</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="8" t="n">
@@ -9375,37 +9245,37 @@
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N91" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O91" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P91" s="11"/>
       <c r="Q91" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
-      <c r="Z91" s="17"/>
+      <c r="Z91" s="14"/>
       <c r="AA91" s="6"/>
       <c r="AB91" s="6"/>
       <c r="AC91" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD91" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD91" s="9" t="n">
         <v>0.0625</v>
       </c>
       <c r="AE91" s="6"/>
@@ -9419,7 +9289,7 @@
         <v>2</v>
       </c>
       <c r="AK91" s="6"/>
-      <c r="AL91" s="16" t="n">
+      <c r="AL91" s="6" t="n">
         <v>501</v>
       </c>
     </row>
@@ -9434,19 +9304,19 @@
         <v>39</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="8" t="n">
@@ -9459,7 +9329,7 @@
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
@@ -9467,19 +9337,19 @@
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
-      <c r="Z92" s="17"/>
+      <c r="Z92" s="14"/>
       <c r="AA92" s="6"/>
       <c r="AB92" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC92" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD92" s="19" t="n">
+      <c r="AD92" s="9" t="n">
         <v>0.0075</v>
       </c>
       <c r="AE92" s="6"/>
@@ -9492,10 +9362,10 @@
       <c r="AJ92" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK92" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="AL92" s="16" t="n">
+      <c r="AK92" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL92" s="6" t="n">
         <v>501</v>
       </c>
     </row>
@@ -9510,16 +9380,16 @@
         <v>39</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>86</v>
@@ -9549,14 +9419,14 @@
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
-      <c r="Z93" s="17"/>
+      <c r="Z93" s="14"/>
       <c r="AA93" s="6"/>
       <c r="AB93" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC93" s="6" t="s">
         <v>92</v>
@@ -9588,16 +9458,16 @@
         <v>39</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>86</v>
@@ -9609,7 +9479,7 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N94" s="11" t="s">
         <v>87</v>
@@ -9627,14 +9497,14 @@
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X94" s="6"/>
       <c r="Y94" s="6"/>
-      <c r="Z94" s="17"/>
+      <c r="Z94" s="14"/>
       <c r="AA94" s="6"/>
       <c r="AB94" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC94" s="6" t="s">
         <v>92</v>
@@ -9666,16 +9536,16 @@
         <v>39</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>86</v>
@@ -9705,14 +9575,14 @@
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X95" s="6"/>
       <c r="Y95" s="6"/>
-      <c r="Z95" s="17"/>
+      <c r="Z95" s="14"/>
       <c r="AA95" s="6"/>
       <c r="AB95" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC95" s="6" t="s">
         <v>92</v>
@@ -9744,16 +9614,16 @@
         <v>39</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>86</v>
@@ -9783,14 +9653,14 @@
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X96" s="6"/>
       <c r="Y96" s="6"/>
-      <c r="Z96" s="17"/>
+      <c r="Z96" s="14"/>
       <c r="AA96" s="6"/>
       <c r="AB96" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC96" s="6" t="s">
         <v>92</v>
@@ -9822,16 +9692,16 @@
         <v>39</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>86</v>
@@ -9843,7 +9713,7 @@
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N97" s="11" t="s">
         <v>110</v>
@@ -9861,14 +9731,14 @@
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X97" s="6"/>
       <c r="Y97" s="6"/>
-      <c r="Z97" s="17"/>
+      <c r="Z97" s="14"/>
       <c r="AA97" s="6"/>
       <c r="AB97" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC97" s="6" t="s">
         <v>92</v>
@@ -9900,16 +9770,16 @@
         <v>39</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>86</v>
@@ -9939,14 +9809,14 @@
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X98" s="6"/>
       <c r="Y98" s="6"/>
-      <c r="Z98" s="17"/>
+      <c r="Z98" s="14"/>
       <c r="AA98" s="6"/>
       <c r="AB98" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC98" s="6" t="s">
         <v>92</v>
@@ -9978,16 +9848,16 @@
         <v>39</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>86</v>
@@ -9999,7 +9869,7 @@
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N99" s="11" t="s">
         <v>107</v>
@@ -10017,14 +9887,14 @@
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
       <c r="W99" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X99" s="6"/>
       <c r="Y99" s="6"/>
-      <c r="Z99" s="17"/>
+      <c r="Z99" s="14"/>
       <c r="AA99" s="6"/>
       <c r="AB99" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC99" s="6" t="s">
         <v>92</v>
@@ -10056,16 +9926,16 @@
         <v>39</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>86</v>
@@ -10095,14 +9965,14 @@
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
       <c r="W100" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X100" s="6"/>
       <c r="Y100" s="6"/>
-      <c r="Z100" s="17"/>
+      <c r="Z100" s="14"/>
       <c r="AA100" s="6"/>
       <c r="AB100" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC100" s="6" t="s">
         <v>92</v>
@@ -10134,16 +10004,16 @@
         <v>39</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>86</v>
@@ -10173,14 +10043,14 @@
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
       <c r="W101" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X101" s="6"/>
       <c r="Y101" s="6"/>
-      <c r="Z101" s="17"/>
+      <c r="Z101" s="14"/>
       <c r="AA101" s="6"/>
       <c r="AB101" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC101" s="6" t="s">
         <v>92</v>
@@ -10215,16 +10085,16 @@
         <v>40</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="8" t="n">
@@ -10233,37 +10103,37 @@
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N102" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O102" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P102" s="11"/>
       <c r="Q102" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
       <c r="W102" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X102" s="6"/>
       <c r="Y102" s="6"/>
-      <c r="Z102" s="17"/>
+      <c r="Z102" s="14"/>
       <c r="AA102" s="6"/>
       <c r="AB102" s="6"/>
       <c r="AC102" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD102" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD102" s="9" t="n">
         <v>0.0525</v>
       </c>
       <c r="AE102" s="6"/>
@@ -10277,7 +10147,7 @@
         <v>2</v>
       </c>
       <c r="AK102" s="6"/>
-      <c r="AL102" s="16" t="n">
+      <c r="AL102" s="6" t="n">
         <v>502</v>
       </c>
     </row>
@@ -10292,19 +10162,19 @@
         <v>39</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="8" t="n">
@@ -10317,7 +10187,7 @@
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
       <c r="Q103" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R103" s="6"/>
       <c r="S103" s="6"/>
@@ -10325,19 +10195,19 @@
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
       <c r="W103" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X103" s="6"/>
       <c r="Y103" s="6"/>
-      <c r="Z103" s="17"/>
+      <c r="Z103" s="14"/>
       <c r="AA103" s="6"/>
       <c r="AB103" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC103" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD103" s="19" t="n">
+      <c r="AD103" s="9" t="n">
         <v>0.0075</v>
       </c>
       <c r="AE103" s="6"/>
@@ -10350,10 +10220,10 @@
       <c r="AJ103" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK103" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="AL103" s="16" t="n">
+      <c r="AK103" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL103" s="6" t="n">
         <v>502</v>
       </c>
     </row>
@@ -10368,16 +10238,16 @@
         <v>39</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>86</v>
@@ -10389,7 +10259,7 @@
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N104" s="11" t="n">
         <v>4607042434877</v>
@@ -10407,14 +10277,14 @@
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
       <c r="W104" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X104" s="6"/>
       <c r="Y104" s="6"/>
-      <c r="Z104" s="17"/>
+      <c r="Z104" s="14"/>
       <c r="AA104" s="6"/>
       <c r="AB104" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC104" s="6" t="s">
         <v>92</v>
@@ -10446,16 +10316,16 @@
         <v>39</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>86</v>
@@ -10467,7 +10337,7 @@
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N105" s="11" t="n">
         <v>4607042434891</v>
@@ -10485,14 +10355,14 @@
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
       <c r="W105" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X105" s="6"/>
       <c r="Y105" s="6"/>
-      <c r="Z105" s="17"/>
+      <c r="Z105" s="14"/>
       <c r="AA105" s="6"/>
       <c r="AB105" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC105" s="6" t="s">
         <v>92</v>
@@ -10524,16 +10394,16 @@
         <v>39</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>86</v>
@@ -10545,7 +10415,7 @@
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N106" s="11" t="n">
         <v>4607042438738</v>
@@ -10563,14 +10433,14 @@
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
       <c r="W106" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X106" s="6"/>
       <c r="Y106" s="6"/>
-      <c r="Z106" s="17"/>
+      <c r="Z106" s="14"/>
       <c r="AA106" s="6"/>
       <c r="AB106" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC106" s="6" t="s">
         <v>92</v>
@@ -10602,16 +10472,16 @@
         <v>39</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>86</v>
@@ -10623,7 +10493,7 @@
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N107" s="11" t="n">
         <v>4607042439155</v>
@@ -10641,14 +10511,14 @@
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
       <c r="W107" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X107" s="6"/>
       <c r="Y107" s="6"/>
-      <c r="Z107" s="17"/>
+      <c r="Z107" s="14"/>
       <c r="AA107" s="6"/>
       <c r="AB107" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC107" s="6" t="s">
         <v>92</v>
@@ -10680,16 +10550,16 @@
         <v>39</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>86</v>
@@ -10701,7 +10571,7 @@
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N108" s="11" t="n">
         <v>4607042439216</v>
@@ -10719,14 +10589,14 @@
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
       <c r="W108" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X108" s="6"/>
       <c r="Y108" s="6"/>
-      <c r="Z108" s="17"/>
+      <c r="Z108" s="14"/>
       <c r="AA108" s="6"/>
       <c r="AB108" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC108" s="6" t="s">
         <v>92</v>
@@ -10761,16 +10631,16 @@
         <v>40</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="8" t="n">
@@ -10779,37 +10649,37 @@
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N109" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O109" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P109" s="11"/>
       <c r="Q109" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R109" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
       <c r="W109" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X109" s="6"/>
       <c r="Y109" s="6"/>
-      <c r="Z109" s="17"/>
+      <c r="Z109" s="14"/>
       <c r="AA109" s="6"/>
       <c r="AB109" s="6"/>
       <c r="AC109" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD109" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD109" s="9" t="n">
         <v>0.0125</v>
       </c>
       <c r="AE109" s="6"/>
@@ -10823,7 +10693,7 @@
         <v>2</v>
       </c>
       <c r="AK109" s="6"/>
-      <c r="AL109" s="16" t="n">
+      <c r="AL109" s="6" t="n">
         <v>503</v>
       </c>
     </row>
@@ -10838,19 +10708,19 @@
         <v>39</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="8" t="n">
@@ -10863,7 +10733,7 @@
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
       <c r="Q110" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
@@ -10871,35 +10741,35 @@
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
       <c r="W110" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X110" s="6"/>
       <c r="Y110" s="6"/>
-      <c r="Z110" s="17"/>
+      <c r="Z110" s="14"/>
       <c r="AA110" s="6"/>
       <c r="AB110" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC110" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD110" s="19" t="n">
+      <c r="AD110" s="9" t="n">
         <v>0.0075</v>
       </c>
       <c r="AE110" s="6"/>
       <c r="AF110" s="6"/>
       <c r="AG110" s="6"/>
-      <c r="AH110" s="17"/>
+      <c r="AH110" s="14"/>
       <c r="AI110" s="6" t="n">
         <v>95</v>
       </c>
       <c r="AJ110" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK110" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="AL110" s="16" t="n">
+      <c r="AK110" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL110" s="6" t="n">
         <v>503</v>
       </c>
     </row>
@@ -10914,10 +10784,10 @@
         <v>39</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>172</v>
@@ -10934,7 +10804,7 @@
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
-      <c r="M111" s="18" t="s">
+      <c r="M111" s="15" t="s">
         <v>172</v>
       </c>
       <c r="N111" s="11" t="s">
@@ -10953,14 +10823,14 @@
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
       <c r="W111" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X111" s="6"/>
       <c r="Y111" s="6"/>
-      <c r="Z111" s="17"/>
+      <c r="Z111" s="14"/>
       <c r="AA111" s="6"/>
       <c r="AB111" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC111" s="6" t="s">
         <v>92</v>
@@ -10995,16 +10865,16 @@
         <v>40</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I112" s="6"/>
       <c r="J112" s="8" t="n">
@@ -11013,37 +10883,37 @@
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N112" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O112" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P112" s="11"/>
       <c r="Q112" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R112" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
       <c r="W112" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X112" s="6"/>
       <c r="Y112" s="6"/>
-      <c r="Z112" s="17"/>
+      <c r="Z112" s="14"/>
       <c r="AA112" s="6"/>
       <c r="AB112" s="6"/>
       <c r="AC112" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD112" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD112" s="9" t="n">
         <v>0.0275</v>
       </c>
       <c r="AE112" s="6"/>
@@ -11057,7 +10927,7 @@
         <v>2</v>
       </c>
       <c r="AK112" s="6"/>
-      <c r="AL112" s="16" t="n">
+      <c r="AL112" s="6" t="n">
         <v>504</v>
       </c>
     </row>
@@ -11072,19 +10942,19 @@
         <v>39</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="8" t="n">
@@ -11097,7 +10967,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
       <c r="Q113" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R113" s="6"/>
       <c r="S113" s="6"/>
@@ -11105,19 +10975,19 @@
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
       <c r="W113" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X113" s="6"/>
       <c r="Y113" s="6"/>
-      <c r="Z113" s="17"/>
+      <c r="Z113" s="14"/>
       <c r="AA113" s="6"/>
       <c r="AB113" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC113" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD113" s="19" t="n">
+      <c r="AD113" s="9" t="n">
         <v>0.0075</v>
       </c>
       <c r="AE113" s="6"/>
@@ -11130,10 +11000,10 @@
       <c r="AJ113" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK113" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL113" s="16" t="n">
+      <c r="AK113" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL113" s="6" t="n">
         <v>504</v>
       </c>
     </row>
@@ -11148,16 +11018,16 @@
         <v>39</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F114" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="G114" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>380</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>86</v>
@@ -11168,11 +11038,11 @@
       </c>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
-      <c r="M114" s="18" t="s">
-        <v>208</v>
+      <c r="M114" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
@@ -11187,14 +11057,14 @@
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
       <c r="W114" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X114" s="6"/>
       <c r="Y114" s="6"/>
-      <c r="Z114" s="17"/>
+      <c r="Z114" s="14"/>
       <c r="AA114" s="6"/>
       <c r="AB114" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>92</v>
@@ -11226,16 +11096,16 @@
         <v>39</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F115" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="G115" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>382</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>86</v>
@@ -11246,11 +11116,11 @@
       </c>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
-      <c r="M115" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="N115" s="21" t="s">
+      <c r="M115" s="15" t="s">
         <v>214</v>
+      </c>
+      <c r="N115" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
@@ -11265,14 +11135,14 @@
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
       <c r="W115" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X115" s="6"/>
       <c r="Y115" s="6"/>
-      <c r="Z115" s="17"/>
+      <c r="Z115" s="14"/>
       <c r="AA115" s="6"/>
       <c r="AB115" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC115" s="6" t="s">
         <v>92</v>
@@ -11307,16 +11177,16 @@
         <v>40</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="8" t="n">
@@ -11325,37 +11195,37 @@
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N116" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O116" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P116" s="11"/>
       <c r="Q116" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R116" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
       <c r="W116" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X116" s="6"/>
       <c r="Y116" s="6"/>
-      <c r="Z116" s="17"/>
+      <c r="Z116" s="14"/>
       <c r="AA116" s="6"/>
       <c r="AB116" s="6"/>
       <c r="AC116" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD116" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD116" s="9" t="n">
         <v>0.035</v>
       </c>
       <c r="AE116" s="6"/>
@@ -11369,7 +11239,7 @@
         <v>2</v>
       </c>
       <c r="AK116" s="6"/>
-      <c r="AL116" s="16" t="n">
+      <c r="AL116" s="6" t="n">
         <v>505</v>
       </c>
     </row>
@@ -11387,16 +11257,16 @@
         <v>40</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="8" t="n">
@@ -11409,7 +11279,7 @@
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
       <c r="Q117" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R117" s="6"/>
       <c r="S117" s="6"/>
@@ -11419,15 +11289,15 @@
       <c r="W117" s="6"/>
       <c r="X117" s="6"/>
       <c r="Y117" s="6"/>
-      <c r="Z117" s="17" t="s">
-        <v>391</v>
+      <c r="Z117" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA117" s="6"/>
       <c r="AB117" s="6"/>
       <c r="AC117" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD117" s="19" t="n">
+      <c r="AD117" s="9" t="n">
         <v>0.05</v>
       </c>
       <c r="AE117" s="6"/>
@@ -11440,10 +11310,10 @@
       <c r="AJ117" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK117" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="AL117" s="16" t="n">
+      <c r="AK117" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL117" s="6" t="n">
         <v>302</v>
       </c>
     </row>
@@ -11461,13 +11331,13 @@
         <v>40</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>86</v>
@@ -11479,30 +11349,30 @@
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P118" s="11"/>
       <c r="Q118" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R118" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
-      <c r="U118" s="23"/>
+      <c r="U118" s="19"/>
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
       <c r="X118" s="6"/>
       <c r="Y118" s="6"/>
-      <c r="Z118" s="17" t="s">
-        <v>391</v>
+      <c r="Z118" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA118" s="6"/>
       <c r="AB118" s="6"/>
@@ -11539,16 +11409,16 @@
         <v>40</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="8" t="n">
@@ -11564,19 +11434,19 @@
         <v>88</v>
       </c>
       <c r="R119" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
-      <c r="U119" s="23" t="s">
-        <v>399</v>
+      <c r="U119" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
       <c r="X119" s="6"/>
       <c r="Y119" s="6"/>
-      <c r="Z119" s="17" t="s">
-        <v>391</v>
+      <c r="Z119" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA119" s="6"/>
       <c r="AB119" s="6"/>
@@ -11613,16 +11483,16 @@
         <v>40</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="8"/>
@@ -11635,7 +11505,7 @@
         <v>5449000000439</v>
       </c>
       <c r="O120" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P120" s="11"/>
       <c r="Q120" s="6" t="s">
@@ -11646,13 +11516,13 @@
       </c>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
-      <c r="U120" s="23"/>
+      <c r="U120" s="19"/>
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
       <c r="X120" s="6"/>
       <c r="Y120" s="6"/>
-      <c r="Z120" s="17" t="s">
-        <v>391</v>
+      <c r="Z120" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA120" s="6"/>
       <c r="AB120" s="6"/>
@@ -11663,7 +11533,7 @@
       <c r="AE120" s="6"/>
       <c r="AF120" s="6"/>
       <c r="AG120" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AH120" s="6"/>
       <c r="AI120" s="6" t="n">
@@ -11688,19 +11558,19 @@
         <v>39</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="8" t="n">
@@ -11713,34 +11583,34 @@
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
       <c r="Q121" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R121" s="6"/>
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
-      <c r="U121" s="23"/>
+      <c r="U121" s="19"/>
       <c r="V121" s="6"/>
       <c r="W121" s="6"/>
       <c r="X121" s="6"/>
       <c r="Y121" s="6"/>
-      <c r="Z121" s="17" t="s">
-        <v>391</v>
+      <c r="Z121" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA121" s="6"/>
       <c r="AB121" s="6"/>
       <c r="AC121" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD121" s="19" t="n">
+      <c r="AD121" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="AE121" s="6"/>
       <c r="AF121" s="6"/>
       <c r="AG121" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AH121" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AI121" s="6" t="n">
         <v>106</v>
@@ -11748,10 +11618,10 @@
       <c r="AJ121" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK121" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="AL121" s="16" t="n">
+      <c r="AK121" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="AL121" s="6" t="n">
         <v>302</v>
       </c>
     </row>
@@ -11766,16 +11636,16 @@
         <v>39</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>86</v>
@@ -11802,13 +11672,13 @@
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
-      <c r="U122" s="23"/>
+      <c r="U122" s="19"/>
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
       <c r="Y122" s="6"/>
-      <c r="Z122" s="17" t="s">
-        <v>391</v>
+      <c r="Z122" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA122" s="6"/>
       <c r="AB122" s="6"/>
@@ -11842,16 +11712,16 @@
         <v>39</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>86</v>
@@ -11878,13 +11748,13 @@
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
-      <c r="U123" s="23"/>
+      <c r="U123" s="19"/>
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
       <c r="X123" s="6"/>
       <c r="Y123" s="6"/>
-      <c r="Z123" s="17" t="s">
-        <v>391</v>
+      <c r="Z123" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA123" s="6"/>
       <c r="AB123" s="6"/>
@@ -11918,16 +11788,16 @@
         <v>39</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>86</v>
@@ -11938,7 +11808,7 @@
       </c>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
-      <c r="M124" s="18" t="s">
+      <c r="M124" s="15" t="s">
         <v>117</v>
       </c>
       <c r="N124" s="11" t="n">
@@ -11954,13 +11824,13 @@
       </c>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
-      <c r="U124" s="23"/>
+      <c r="U124" s="19"/>
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
       <c r="X124" s="6"/>
       <c r="Y124" s="6"/>
-      <c r="Z124" s="17" t="s">
-        <v>391</v>
+      <c r="Z124" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA124" s="6"/>
       <c r="AB124" s="6"/>
@@ -11994,16 +11864,16 @@
         <v>39</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>86</v>
@@ -12030,13 +11900,13 @@
       </c>
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
-      <c r="U125" s="23"/>
+      <c r="U125" s="19"/>
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
       <c r="X125" s="6"/>
       <c r="Y125" s="6"/>
-      <c r="Z125" s="17" t="s">
-        <v>391</v>
+      <c r="Z125" s="14" t="s">
+        <v>392</v>
       </c>
       <c r="AA125" s="6"/>
       <c r="AB125" s="6"/>
@@ -12073,16 +11943,16 @@
         <v>40</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="8" t="n">
@@ -12095,25 +11965,25 @@
       <c r="O126" s="11"/>
       <c r="P126" s="11"/>
       <c r="Q126" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R126" s="6"/>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
-      <c r="U126" s="23"/>
+      <c r="U126" s="19"/>
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
       <c r="X126" s="6"/>
       <c r="Y126" s="6"/>
-      <c r="Z126" s="17" t="s">
-        <v>418</v>
+      <c r="Z126" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="AA126" s="6"/>
       <c r="AB126" s="6"/>
       <c r="AC126" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD126" s="19" t="n">
+      <c r="AD126" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AE126" s="6"/>
@@ -12126,10 +11996,10 @@
       <c r="AJ126" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK126" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="AL126" s="16" t="n">
+      <c r="AK126" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL126" s="6" t="n">
         <v>302</v>
       </c>
     </row>
@@ -12147,13 +12017,13 @@
         <v>40</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>86</v>
@@ -12165,30 +12035,30 @@
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N127" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O127" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P127" s="11"/>
       <c r="Q127" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R127" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
-      <c r="U127" s="23"/>
+      <c r="U127" s="19"/>
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
       <c r="X127" s="6"/>
       <c r="Y127" s="6"/>
-      <c r="Z127" s="17" t="s">
-        <v>418</v>
+      <c r="Z127" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="AA127" s="6"/>
       <c r="AB127" s="6"/>
@@ -12225,16 +12095,16 @@
         <v>40</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="8" t="n">
@@ -12250,19 +12120,19 @@
         <v>88</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
       <c r="U128" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
       <c r="X128" s="6"/>
       <c r="Y128" s="6"/>
-      <c r="Z128" s="17" t="s">
-        <v>418</v>
+      <c r="Z128" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="AA128" s="6"/>
       <c r="AB128" s="6"/>
@@ -12299,29 +12169,29 @@
         <v>40</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="M129" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N129" s="11" t="s">
         <v>87</v>
       </c>
       <c r="O129" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P129" s="11"/>
       <c r="Q129" s="6" t="s">
@@ -12332,13 +12202,13 @@
       </c>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
-      <c r="U129" s="23"/>
+      <c r="U129" s="19"/>
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
       <c r="X129" s="6"/>
       <c r="Y129" s="6"/>
-      <c r="Z129" s="17" t="s">
-        <v>418</v>
+      <c r="Z129" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="AA129" s="6"/>
       <c r="AB129" s="6"/>
@@ -12349,7 +12219,7 @@
       <c r="AE129" s="6"/>
       <c r="AF129" s="6"/>
       <c r="AG129" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AH129" s="6"/>
       <c r="AI129" s="6" t="n">
@@ -12377,16 +12247,16 @@
         <v>40</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="8" t="n">
@@ -12399,25 +12269,25 @@
       <c r="O130" s="11"/>
       <c r="P130" s="11"/>
       <c r="Q130" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R130" s="6"/>
       <c r="S130" s="6"/>
       <c r="T130" s="6"/>
-      <c r="U130" s="23"/>
+      <c r="U130" s="19"/>
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
       <c r="X130" s="6"/>
       <c r="Y130" s="6"/>
-      <c r="Z130" s="17" t="s">
-        <v>430</v>
+      <c r="Z130" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="AA130" s="6"/>
       <c r="AB130" s="6"/>
       <c r="AC130" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD130" s="19" t="n">
+      <c r="AD130" s="9" t="n">
         <v>0.04</v>
       </c>
       <c r="AE130" s="6"/>
@@ -12430,10 +12300,10 @@
       <c r="AJ130" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK130" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="AL130" s="16" t="n">
+      <c r="AK130" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AL130" s="6" t="n">
         <v>303</v>
       </c>
     </row>
@@ -12451,13 +12321,13 @@
         <v>40</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H131" s="6" t="s">
         <v>86</v>
@@ -12469,30 +12339,30 @@
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="M131" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N131" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O131" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P131" s="11"/>
       <c r="Q131" s="6" t="s">
         <v>88</v>
       </c>
       <c r="R131" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
-      <c r="U131" s="23"/>
+      <c r="U131" s="19"/>
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
       <c r="X131" s="6"/>
       <c r="Y131" s="6"/>
-      <c r="Z131" s="17" t="s">
-        <v>430</v>
+      <c r="Z131" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="AA131" s="6"/>
       <c r="AB131" s="6"/>
@@ -12529,16 +12399,16 @@
         <v>40</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="8" t="n">
@@ -12554,19 +12424,19 @@
         <v>88</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S132" s="6"/>
       <c r="T132" s="6"/>
       <c r="U132" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V132" s="6"/>
       <c r="W132" s="6"/>
       <c r="X132" s="6"/>
       <c r="Y132" s="6"/>
-      <c r="Z132" s="17" t="s">
-        <v>430</v>
+      <c r="Z132" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="AA132" s="6"/>
       <c r="AB132" s="6"/>
@@ -12603,16 +12473,16 @@
         <v>40</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="8" t="n">
@@ -12630,13 +12500,13 @@
       <c r="R133" s="6"/>
       <c r="S133" s="6"/>
       <c r="T133" s="6"/>
-      <c r="U133" s="23"/>
+      <c r="U133" s="19"/>
       <c r="V133" s="6"/>
       <c r="W133" s="6"/>
       <c r="X133" s="6"/>
       <c r="Y133" s="6"/>
-      <c r="Z133" s="17" t="s">
-        <v>430</v>
+      <c r="Z133" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="AA133" s="6"/>
       <c r="AB133" s="6"/>
@@ -12654,8 +12524,8 @@
       <c r="AJ133" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK133" s="24" t="s">
-        <v>440</v>
+      <c r="AK133" s="13" t="s">
+        <v>441</v>
       </c>
       <c r="AL133" s="6" t="n">
         <v>115</v>
@@ -12675,26 +12545,26 @@
         <v>40</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
-      <c r="M134" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="N134" s="26" t="s">
+      <c r="M134" s="20" t="s">
         <v>444</v>
+      </c>
+      <c r="N134" s="21" t="s">
+        <v>445</v>
       </c>
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
@@ -12706,13 +12576,13 @@
       </c>
       <c r="S134" s="6"/>
       <c r="T134" s="6"/>
-      <c r="U134" s="23"/>
+      <c r="U134" s="19"/>
       <c r="V134" s="6"/>
       <c r="W134" s="6"/>
       <c r="X134" s="6"/>
       <c r="Y134" s="6"/>
-      <c r="Z134" s="17" t="s">
-        <v>430</v>
+      <c r="Z134" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="AA134" s="6"/>
       <c r="AB134" s="6"/>
@@ -12723,7 +12593,7 @@
       <c r="AE134" s="6"/>
       <c r="AF134" s="6"/>
       <c r="AG134" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH134" s="6"/>
       <c r="AI134" s="6" t="n">
@@ -12751,26 +12621,26 @@
         <v>40</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
-      <c r="M135" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="N135" s="26" t="s">
+      <c r="M135" s="20" t="s">
         <v>449</v>
+      </c>
+      <c r="N135" s="21" t="s">
+        <v>450</v>
       </c>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
@@ -12782,13 +12652,13 @@
       </c>
       <c r="S135" s="6"/>
       <c r="T135" s="6"/>
-      <c r="U135" s="23"/>
+      <c r="U135" s="19"/>
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
       <c r="X135" s="6"/>
       <c r="Y135" s="6"/>
-      <c r="Z135" s="17" t="s">
-        <v>430</v>
+      <c r="Z135" s="14" t="s">
+        <v>431</v>
       </c>
       <c r="AA135" s="6"/>
       <c r="AB135" s="6"/>
@@ -12799,7 +12669,7 @@
       <c r="AE135" s="6"/>
       <c r="AF135" s="6"/>
       <c r="AG135" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AH135" s="6"/>
       <c r="AI135" s="6" t="n">
@@ -12827,16 +12697,16 @@
         <v>40</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="8"/>
@@ -12847,7 +12717,7 @@
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
       <c r="Q136" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="R136" s="6"/>
       <c r="S136" s="6"/>
@@ -12857,19 +12727,19 @@
       <c r="W136" s="6"/>
       <c r="X136" s="6"/>
       <c r="Y136" s="6"/>
-      <c r="Z136" s="17"/>
+      <c r="Z136" s="14"/>
       <c r="AA136" s="6"/>
       <c r="AB136" s="6"/>
       <c r="AC136" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD136" s="19" t="n">
+      <c r="AD136" s="9" t="n">
         <v>0.14</v>
       </c>
       <c r="AE136" s="6"/>
       <c r="AF136" s="6"/>
       <c r="AG136" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AH136" s="6"/>
       <c r="AI136" s="6" t="n">
@@ -12878,10 +12748,10 @@
       <c r="AJ136" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK136" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="AL136" s="16" t="n">
+      <c r="AK136" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL136" s="6" t="n">
         <v>311</v>
       </c>
     </row>
@@ -12899,47 +12769,47 @@
         <v>40</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="K137" s="27" t="n">
+      <c r="K137" s="22" t="n">
         <v>24</v>
       </c>
       <c r="L137" s="8"/>
       <c r="M137" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N137" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
       <c r="Q137" s="6"/>
       <c r="R137" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S137" s="6"/>
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
       <c r="W137" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X137" s="6"/>
       <c r="Y137" s="6"/>
-      <c r="Z137" s="17"/>
+      <c r="Z137" s="14"/>
       <c r="AA137" s="6"/>
       <c r="AB137" s="6"/>
       <c r="AC137" s="6" t="s">
@@ -12975,16 +12845,16 @@
         <v>40</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="8" t="n">
@@ -12993,27 +12863,27 @@
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N138" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
       <c r="Q138" s="6"/>
       <c r="R138" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S138" s="6"/>
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
       <c r="W138" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="X138" s="6"/>
       <c r="Y138" s="6"/>
-      <c r="Z138" s="17"/>
+      <c r="Z138" s="14"/>
       <c r="AA138" s="6"/>
       <c r="AB138" s="6"/>
       <c r="AC138" s="6" t="s">
@@ -13031,7 +12901,7 @@
         <v>3</v>
       </c>
       <c r="AK138" s="6"/>
-      <c r="AL138" s="14" t="n">
+      <c r="AL138" s="6" t="n">
         <v>121</v>
       </c>
     </row>
@@ -13049,16 +12919,16 @@
         <v>40</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="8" t="n">
@@ -13072,35 +12942,35 @@
       <c r="P139" s="11"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S139" s="6"/>
       <c r="T139" s="6"/>
-      <c r="U139" s="28" t="s">
-        <v>471</v>
+      <c r="U139" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="V139" s="6"/>
       <c r="W139" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X139" s="6"/>
       <c r="Y139" s="6"/>
-      <c r="Z139" s="17"/>
+      <c r="Z139" s="14"/>
       <c r="AA139" s="6"/>
       <c r="AB139" s="6"/>
       <c r="AC139" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD139" s="19" t="n">
+      <c r="AD139" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="AE139" s="6"/>
       <c r="AF139" s="6"/>
       <c r="AG139" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH139" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI139" s="6" t="n">
         <v>124</v>
@@ -13109,7 +12979,7 @@
         <v>2</v>
       </c>
       <c r="AK139" s="6"/>
-      <c r="AL139" s="16" t="n">
+      <c r="AL139" s="6" t="n">
         <v>312</v>
       </c>
     </row>
@@ -13127,16 +12997,16 @@
         <v>40</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H140" s="29" t="s">
         <v>475</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>476</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="8"/>
@@ -13147,42 +13017,42 @@
         <v>15</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N140" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
       <c r="Q140" s="6"/>
       <c r="R140" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S140" s="6"/>
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
       <c r="W140" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X140" s="6"/>
       <c r="Y140" s="6"/>
-      <c r="Z140" s="17"/>
+      <c r="Z140" s="14"/>
       <c r="AA140" s="6"/>
       <c r="AB140" s="6"/>
       <c r="AC140" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD140" s="19" t="n">
+      <c r="AD140" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="AE140" s="6"/>
       <c r="AF140" s="6"/>
       <c r="AG140" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH140" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI140" s="6" t="n">
         <v>125</v>
@@ -13191,7 +13061,7 @@
         <v>2</v>
       </c>
       <c r="AK140" s="6"/>
-      <c r="AL140" s="16" t="n">
+      <c r="AL140" s="6" t="n">
         <v>312</v>
       </c>
     </row>
@@ -13209,13 +13079,13 @@
         <v>40</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H141" s="6" t="s">
         <v>81</v>
@@ -13229,7 +13099,7 @@
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
       <c r="Q141" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R141" s="6"/>
       <c r="S141" s="6"/>
@@ -13237,26 +13107,26 @@
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
       <c r="W141" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X141" s="6"/>
       <c r="Y141" s="6"/>
-      <c r="Z141" s="17"/>
+      <c r="Z141" s="14"/>
       <c r="AA141" s="6"/>
       <c r="AB141" s="6"/>
       <c r="AC141" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD141" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD141" s="9" t="n">
         <v>0.025</v>
       </c>
-      <c r="AE141" s="30"/>
+      <c r="AE141" s="23"/>
       <c r="AF141" s="6"/>
       <c r="AG141" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH141" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI141" s="6" t="n">
         <v>126</v>
@@ -13264,10 +13134,10 @@
       <c r="AJ141" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK141" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="AL141" s="16" t="n">
+      <c r="AK141" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="AL141" s="6" t="n">
         <v>312</v>
       </c>
     </row>
@@ -13286,13 +13156,13 @@
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="8" t="n">
@@ -13301,30 +13171,30 @@
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N142" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O142" s="11"/>
       <c r="P142" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q142" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R142" s="16" t="s">
-        <v>483</v>
+      <c r="R142" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="S142" s="6"/>
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
       <c r="W142" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X142" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y142" s="6"/>
       <c r="Z142" s="6"/>
@@ -13337,10 +13207,10 @@
       <c r="AE142" s="6"/>
       <c r="AF142" s="6"/>
       <c r="AG142" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH142" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI142" s="6" t="n">
         <v>128</v>
@@ -13368,13 +13238,13 @@
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="8" t="n">
@@ -13383,30 +13253,30 @@
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N143" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O143" s="11"/>
       <c r="P143" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q143" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R143" s="16" t="s">
-        <v>483</v>
+      <c r="R143" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="S143" s="6"/>
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
       <c r="W143" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X143" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Y143" s="6"/>
       <c r="Z143" s="6"/>
@@ -13419,10 +13289,10 @@
       <c r="AE143" s="6"/>
       <c r="AF143" s="6"/>
       <c r="AG143" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI143" s="6" t="n">
         <v>129</v>
@@ -13450,13 +13320,13 @@
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="8" t="n">
@@ -13469,7 +13339,7 @@
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
       <c r="Q144" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R144" s="6"/>
       <c r="S144" s="6"/>
@@ -13477,7 +13347,7 @@
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
       <c r="W144" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X144" s="6"/>
       <c r="Y144" s="6"/>
@@ -13491,10 +13361,10 @@
       <c r="AE144" s="6"/>
       <c r="AF144" s="6"/>
       <c r="AG144" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI144" s="6" t="n">
         <v>130</v>
@@ -13502,8 +13372,8 @@
       <c r="AJ144" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK144" s="15" t="s">
-        <v>490</v>
+      <c r="AK144" s="13" t="s">
+        <v>491</v>
       </c>
       <c r="AL144" s="6" t="n">
         <v>126</v>
@@ -13524,10 +13394,10 @@
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H145" s="6" t="s">
         <v>86</v>
@@ -13539,34 +13409,34 @@
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
       <c r="M145" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N145" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O145" s="11"/>
       <c r="P145" s="11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R145" s="16" t="s">
-        <v>483</v>
+      <c r="R145" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="S145" s="6"/>
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
       <c r="W145" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X145" s="6"/>
       <c r="Y145" s="6"/>
       <c r="Z145" s="6"/>
       <c r="AA145" s="6"/>
       <c r="AB145" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC145" s="6" t="s">
         <v>92</v>
@@ -13575,10 +13445,10 @@
       <c r="AE145" s="6"/>
       <c r="AF145" s="6"/>
       <c r="AG145" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI145" s="6" t="n">
         <v>131</v>
@@ -13606,10 +13476,10 @@
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H146" s="6" t="s">
         <v>86</v>
@@ -13620,35 +13490,35 @@
       </c>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
-      <c r="M146" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="N146" s="31" t="s">
+      <c r="M146" s="6" t="s">
         <v>496</v>
       </c>
+      <c r="N146" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="O146" s="11"/>
-      <c r="P146" s="31" t="s">
-        <v>496</v>
+      <c r="P146" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R146" s="16" t="s">
-        <v>483</v>
+      <c r="R146" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="S146" s="6"/>
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
       <c r="W146" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X146" s="6"/>
       <c r="Y146" s="6"/>
       <c r="Z146" s="6"/>
       <c r="AA146" s="6"/>
       <c r="AB146" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AC146" s="6" t="s">
         <v>92</v>
@@ -13657,10 +13527,10 @@
       <c r="AE146" s="6"/>
       <c r="AF146" s="6"/>
       <c r="AG146" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI146" s="6" t="n">
         <v>132</v>
@@ -13688,13 +13558,13 @@
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="H147" s="29" t="s">
         <v>499</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="8" t="n">
@@ -13703,25 +13573,25 @@
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N147" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
       <c r="Q147" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R147" s="16" t="s">
-        <v>462</v>
+      <c r="R147" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="S147" s="6"/>
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
       <c r="W147" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X147" s="6"/>
       <c r="Y147" s="6"/>
@@ -13735,10 +13605,10 @@
       <c r="AE147" s="6"/>
       <c r="AF147" s="6"/>
       <c r="AG147" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH147" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI147" s="6" t="n">
         <v>133</v>
@@ -13765,16 +13635,16 @@
         <v>40</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F148" s="16" t="s">
-        <v>500</v>
+        <v>321</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="8"/>
@@ -13782,39 +13652,39 @@
       <c r="L148" s="8"/>
       <c r="M148" s="6"/>
       <c r="N148" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
       <c r="Q148" s="6"/>
       <c r="R148" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S148" s="6"/>
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
       <c r="W148" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="X148" s="6"/>
       <c r="Y148" s="6"/>
-      <c r="Z148" s="17"/>
+      <c r="Z148" s="14"/>
       <c r="AA148" s="6"/>
       <c r="AB148" s="6"/>
       <c r="AC148" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD148" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD148" s="9" t="n">
         <v>0.025</v>
       </c>
       <c r="AE148" s="6"/>
       <c r="AF148" s="6"/>
       <c r="AG148" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AH148" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AI148" s="6" t="n">
         <v>135</v>
@@ -13823,7 +13693,7 @@
         <v>2</v>
       </c>
       <c r="AK148" s="6"/>
-      <c r="AL148" s="16" t="n">
+      <c r="AL148" s="6" t="n">
         <v>312</v>
       </c>
     </row>
@@ -13838,19 +13708,19 @@
         <v>39</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E149" s="32" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>321</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="8" t="n">
@@ -13871,17 +13741,17 @@
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
       <c r="W149" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="X149" s="6"/>
       <c r="Y149" s="6"/>
-      <c r="Z149" s="17"/>
+      <c r="Z149" s="14"/>
       <c r="AA149" s="6"/>
       <c r="AB149" s="6"/>
       <c r="AC149" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AD149" s="19" t="n">
+        <v>320</v>
+      </c>
+      <c r="AD149" s="9" t="n">
         <v>0.03</v>
       </c>
       <c r="AE149" s="6"/>
@@ -13894,10 +13764,10 @@
       <c r="AJ149" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK149" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="AL149" s="16" t="n">
+      <c r="AK149" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="AL149" s="6" t="n">
         <v>301</v>
       </c>
     </row>
@@ -13912,19 +13782,19 @@
         <v>39</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E150" s="32" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>321</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="8" t="n">
@@ -13935,10 +13805,10 @@
       </c>
       <c r="L150" s="8"/>
       <c r="M150" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N150" s="11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
@@ -13946,28 +13816,28 @@
         <v>88</v>
       </c>
       <c r="R150" s="6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S150" s="6"/>
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
       <c r="W150" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="X150" s="6"/>
       <c r="Y150" s="6"/>
-      <c r="Z150" s="17"/>
+      <c r="Z150" s="14"/>
       <c r="AA150" s="6"/>
       <c r="AB150" s="6"/>
       <c r="AC150" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AD150" s="9"/>
       <c r="AE150" s="6"/>
       <c r="AF150" s="6"/>
       <c r="AG150" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AH150" s="6"/>
       <c r="AI150" s="6" t="n">
@@ -13992,16 +13862,16 @@
         <v>39</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H151" s="6" t="s">
         <v>81</v>
@@ -14023,7 +13893,7 @@
       <c r="W151" s="6"/>
       <c r="X151" s="6"/>
       <c r="Y151" s="6"/>
-      <c r="Z151" s="17"/>
+      <c r="Z151" s="14"/>
       <c r="AA151" s="6"/>
       <c r="AB151" s="6"/>
       <c r="AC151" s="6" t="s">
@@ -14040,10 +13910,10 @@
       <c r="AJ151" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="AK151" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="AL151" s="16" t="n">
+      <c r="AK151" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL151" s="6" t="n">
         <v>400</v>
       </c>
     </row>
@@ -14058,19 +13928,19 @@
         <v>39</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="8" t="n">
@@ -14080,7 +13950,7 @@
       <c r="L152" s="8"/>
       <c r="M152" s="6"/>
       <c r="N152" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
@@ -14088,7 +13958,7 @@
         <v>88</v>
       </c>
       <c r="R152" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S152" s="6"/>
       <c r="T152" s="6"/>
@@ -14096,16 +13966,16 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y152" s="6"/>
-      <c r="Z152" s="17"/>
+      <c r="Z152" s="14"/>
       <c r="AA152" s="6"/>
       <c r="AB152" s="6"/>
       <c r="AC152" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD152" s="19" t="n">
+      <c r="AD152" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="AE152" s="6"/>
@@ -14134,19 +14004,19 @@
         <v>39</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I153" s="6"/>
       <c r="J153" s="8" t="n">
@@ -14156,7 +14026,7 @@
       <c r="L153" s="8"/>
       <c r="M153" s="6"/>
       <c r="N153" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
@@ -14164,7 +14034,7 @@
         <v>88</v>
       </c>
       <c r="R153" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S153" s="6"/>
       <c r="T153" s="6"/>
@@ -14172,16 +14042,16 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Y153" s="6"/>
-      <c r="Z153" s="17"/>
+      <c r="Z153" s="14"/>
       <c r="AA153" s="6"/>
       <c r="AB153" s="6"/>
       <c r="AC153" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD153" s="19" t="n">
+      <c r="AD153" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="AE153" s="6"/>
@@ -14210,19 +14080,19 @@
         <v>39</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I154" s="6"/>
       <c r="J154" s="8" t="n">
@@ -14232,7 +14102,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="6"/>
       <c r="N154" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
@@ -14240,7 +14110,7 @@
         <v>88</v>
       </c>
       <c r="R154" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S154" s="6"/>
       <c r="T154" s="6"/>
@@ -14248,16 +14118,16 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y154" s="6"/>
-      <c r="Z154" s="17"/>
+      <c r="Z154" s="14"/>
       <c r="AA154" s="6"/>
       <c r="AB154" s="6"/>
       <c r="AC154" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD154" s="19" t="n">
+      <c r="AD154" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="AE154" s="6"/>
@@ -14286,19 +14156,19 @@
         <v>39</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="8" t="n">
@@ -14307,8 +14177,8 @@
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
       <c r="M155" s="6"/>
-      <c r="N155" s="34" t="s">
-        <v>526</v>
+      <c r="N155" s="25" t="s">
+        <v>527</v>
       </c>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
@@ -14316,24 +14186,24 @@
         <v>88</v>
       </c>
       <c r="R155" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="S155" s="6"/>
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
-      <c r="X155" s="34" t="s">
-        <v>526</v>
+      <c r="X155" s="25" t="s">
+        <v>527</v>
       </c>
       <c r="Y155" s="6"/>
-      <c r="Z155" s="17"/>
+      <c r="Z155" s="14"/>
       <c r="AA155" s="6"/>
       <c r="AB155" s="6"/>
       <c r="AC155" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AD155" s="19" t="n">
+      <c r="AD155" s="9" t="n">
         <v>0.01</v>
       </c>
       <c r="AE155" s="6"/>
@@ -14355,859 +14225,859 @@
       <c r="A156" s="6" t="n">
         <v>143</v>
       </c>
-      <c r="B156" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D156" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E156" s="36" t="s">
+      <c r="B156" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="F156" s="36" t="s">
+      <c r="E156" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="G156" s="36" t="s">
+      <c r="F156" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="H156" s="35" t="s">
+      <c r="G156" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="I156" s="35" t="s">
+      <c r="H156" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="J156" s="37"/>
-      <c r="K156" s="37"/>
-      <c r="L156" s="37"/>
-      <c r="M156" s="35"/>
-      <c r="N156" s="35"/>
-      <c r="O156" s="35"/>
-      <c r="P156" s="35"/>
-      <c r="Q156" s="35"/>
-      <c r="R156" s="35"/>
-      <c r="S156" s="35" t="s">
+      <c r="I156" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="T156" s="35"/>
-      <c r="U156" s="35"/>
-      <c r="V156" s="35"/>
-      <c r="W156" s="35"/>
-      <c r="X156" s="35"/>
-      <c r="Y156" s="35"/>
-      <c r="Z156" s="35"/>
-      <c r="AA156" s="35"/>
-      <c r="AB156" s="35"/>
-      <c r="AC156" s="35"/>
-      <c r="AD156" s="38"/>
-      <c r="AE156" s="39"/>
-      <c r="AF156" s="35"/>
-      <c r="AG156" s="35"/>
-      <c r="AH156" s="35"/>
-      <c r="AI156" s="35" t="n">
+      <c r="J156" s="8"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="6"/>
+      <c r="W156" s="6"/>
+      <c r="X156" s="6"/>
+      <c r="Y156" s="6"/>
+      <c r="Z156" s="6"/>
+      <c r="AA156" s="6"/>
+      <c r="AB156" s="6"/>
+      <c r="AC156" s="6"/>
+      <c r="AD156" s="9"/>
+      <c r="AE156" s="26"/>
+      <c r="AF156" s="6"/>
+      <c r="AG156" s="6"/>
+      <c r="AH156" s="6"/>
+      <c r="AI156" s="6" t="n">
         <v>143</v>
       </c>
-      <c r="AJ156" s="35"/>
-      <c r="AK156" s="35" t="n">
+      <c r="AJ156" s="6"/>
+      <c r="AK156" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="AL156" s="35"/>
+      <c r="AL156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>144</v>
       </c>
-      <c r="B157" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E157" s="35" t="s">
+      <c r="B157" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="J157" s="8"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="F157" s="35" t="s">
-        <v>535</v>
-      </c>
-      <c r="G157" s="40" t="s">
-        <v>536</v>
-      </c>
-      <c r="H157" s="35" t="s">
-        <v>531</v>
-      </c>
-      <c r="I157" s="35" t="s">
-        <v>532</v>
-      </c>
-      <c r="J157" s="37"/>
-      <c r="K157" s="37"/>
-      <c r="L157" s="37"/>
-      <c r="M157" s="35"/>
-      <c r="N157" s="35"/>
-      <c r="O157" s="35"/>
-      <c r="P157" s="35"/>
-      <c r="Q157" s="35"/>
-      <c r="R157" s="35"/>
-      <c r="S157" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T157" s="35"/>
-      <c r="U157" s="35"/>
-      <c r="V157" s="35"/>
-      <c r="W157" s="35"/>
-      <c r="X157" s="35"/>
-      <c r="Y157" s="35"/>
-      <c r="Z157" s="35"/>
-      <c r="AA157" s="35"/>
-      <c r="AB157" s="35"/>
-      <c r="AC157" s="35"/>
-      <c r="AD157" s="38"/>
-      <c r="AE157" s="39"/>
-      <c r="AF157" s="35"/>
-      <c r="AG157" s="35"/>
-      <c r="AH157" s="35"/>
-      <c r="AI157" s="35" t="n">
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="6"/>
+      <c r="W157" s="6"/>
+      <c r="X157" s="6"/>
+      <c r="Y157" s="6"/>
+      <c r="Z157" s="6"/>
+      <c r="AA157" s="6"/>
+      <c r="AB157" s="6"/>
+      <c r="AC157" s="6"/>
+      <c r="AD157" s="9"/>
+      <c r="AE157" s="26"/>
+      <c r="AF157" s="6"/>
+      <c r="AG157" s="6"/>
+      <c r="AH157" s="6"/>
+      <c r="AI157" s="6" t="n">
         <v>144</v>
       </c>
-      <c r="AJ157" s="35"/>
-      <c r="AK157" s="41" t="s">
-        <v>537</v>
-      </c>
-      <c r="AL157" s="35"/>
+      <c r="AJ157" s="6"/>
+      <c r="AK157" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>145</v>
       </c>
-      <c r="B158" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D158" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E158" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="F158" s="36" t="s">
+      <c r="B158" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E158" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="G158" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="H158" s="35" t="s">
+      <c r="F158" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="I158" s="35" t="s">
+      <c r="G158" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="H158" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J158" s="37"/>
-      <c r="K158" s="37"/>
-      <c r="L158" s="37"/>
-      <c r="M158" s="42" t="s">
+      <c r="I158" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="N158" s="43" t="s">
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="O158" s="35"/>
-      <c r="P158" s="35"/>
-      <c r="Q158" s="35"/>
-      <c r="R158" s="35"/>
-      <c r="S158" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T158" s="35"/>
-      <c r="U158" s="35"/>
-      <c r="V158" s="35"/>
-      <c r="W158" s="35"/>
-      <c r="X158" s="35"/>
-      <c r="Y158" s="35"/>
-      <c r="Z158" s="35"/>
-      <c r="AA158" s="35"/>
-      <c r="AB158" s="35"/>
-      <c r="AC158" s="35"/>
-      <c r="AD158" s="38"/>
-      <c r="AE158" s="39"/>
-      <c r="AF158" s="35"/>
-      <c r="AG158" s="35"/>
-      <c r="AH158" s="35"/>
-      <c r="AI158" s="35" t="n">
+      <c r="N158" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="6"/>
+      <c r="W158" s="6"/>
+      <c r="X158" s="6"/>
+      <c r="Y158" s="6"/>
+      <c r="Z158" s="6"/>
+      <c r="AA158" s="6"/>
+      <c r="AB158" s="6"/>
+      <c r="AC158" s="6"/>
+      <c r="AD158" s="9"/>
+      <c r="AE158" s="26"/>
+      <c r="AF158" s="6"/>
+      <c r="AG158" s="6"/>
+      <c r="AH158" s="6"/>
+      <c r="AI158" s="6" t="n">
         <v>145</v>
       </c>
-      <c r="AJ158" s="35"/>
-      <c r="AK158" s="44" t="n">
+      <c r="AJ158" s="6"/>
+      <c r="AK158" s="6" t="n">
         <v>139</v>
       </c>
-      <c r="AL158" s="35"/>
+      <c r="AL158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
-      <c r="B159" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E159" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="F159" s="45" t="s">
+      <c r="B159" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E159" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="G159" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="H159" s="35" t="s">
+      <c r="F159" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="I159" s="35" t="s">
+      <c r="G159" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="H159" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J159" s="37"/>
-      <c r="K159" s="37"/>
-      <c r="L159" s="37"/>
-      <c r="M159" s="42" t="s">
+      <c r="I159" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="N159" s="43" t="s">
-        <v>544</v>
-      </c>
-      <c r="O159" s="35"/>
-      <c r="P159" s="35"/>
-      <c r="Q159" s="35"/>
-      <c r="R159" s="35"/>
-      <c r="S159" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T159" s="35"/>
-      <c r="U159" s="35"/>
-      <c r="V159" s="35"/>
-      <c r="W159" s="35"/>
-      <c r="X159" s="35"/>
-      <c r="Y159" s="35"/>
-      <c r="Z159" s="35"/>
-      <c r="AA159" s="35"/>
-      <c r="AB159" s="35"/>
-      <c r="AC159" s="35"/>
-      <c r="AD159" s="38"/>
-      <c r="AE159" s="39"/>
-      <c r="AF159" s="35"/>
-      <c r="AG159" s="35"/>
-      <c r="AH159" s="35"/>
-      <c r="AI159" s="35" t="n">
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="N159" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+      <c r="W159" s="6"/>
+      <c r="X159" s="6"/>
+      <c r="Y159" s="6"/>
+      <c r="Z159" s="6"/>
+      <c r="AA159" s="6"/>
+      <c r="AB159" s="6"/>
+      <c r="AC159" s="6"/>
+      <c r="AD159" s="9"/>
+      <c r="AE159" s="26"/>
+      <c r="AF159" s="6"/>
+      <c r="AG159" s="6"/>
+      <c r="AH159" s="6"/>
+      <c r="AI159" s="6" t="n">
         <v>146</v>
       </c>
-      <c r="AJ159" s="35"/>
-      <c r="AK159" s="44" t="n">
+      <c r="AJ159" s="6"/>
+      <c r="AK159" s="6" t="n">
         <v>140</v>
       </c>
-      <c r="AL159" s="35"/>
+      <c r="AL159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
-      <c r="B160" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D160" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E160" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="F160" s="45" t="s">
+      <c r="B160" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E160" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="G160" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="H160" s="35" t="s">
+      <c r="F160" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="I160" s="35" t="s">
+      <c r="G160" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="H160" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J160" s="37"/>
-      <c r="K160" s="37"/>
-      <c r="L160" s="37"/>
-      <c r="M160" s="42" t="s">
+      <c r="I160" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="N160" s="43" t="s">
-        <v>545</v>
-      </c>
-      <c r="O160" s="35"/>
-      <c r="P160" s="35"/>
-      <c r="Q160" s="35"/>
-      <c r="R160" s="35"/>
-      <c r="S160" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T160" s="35"/>
-      <c r="U160" s="35"/>
-      <c r="V160" s="35"/>
-      <c r="W160" s="35"/>
-      <c r="X160" s="35"/>
-      <c r="Y160" s="35"/>
-      <c r="Z160" s="35"/>
-      <c r="AA160" s="35"/>
-      <c r="AB160" s="35"/>
-      <c r="AC160" s="35"/>
-      <c r="AD160" s="38"/>
-      <c r="AE160" s="39"/>
-      <c r="AF160" s="35"/>
-      <c r="AG160" s="35"/>
-      <c r="AH160" s="35"/>
-      <c r="AI160" s="35" t="n">
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="N160" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
+      <c r="W160" s="6"/>
+      <c r="X160" s="6"/>
+      <c r="Y160" s="6"/>
+      <c r="Z160" s="6"/>
+      <c r="AA160" s="6"/>
+      <c r="AB160" s="6"/>
+      <c r="AC160" s="6"/>
+      <c r="AD160" s="9"/>
+      <c r="AE160" s="26"/>
+      <c r="AF160" s="6"/>
+      <c r="AG160" s="6"/>
+      <c r="AH160" s="6"/>
+      <c r="AI160" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="AJ160" s="35"/>
-      <c r="AK160" s="44" t="n">
+      <c r="AJ160" s="6"/>
+      <c r="AK160" s="6" t="n">
         <v>141</v>
       </c>
-      <c r="AL160" s="35"/>
+      <c r="AL160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6"/>
-      <c r="B161" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E161" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="F161" s="45" t="s">
+      <c r="B161" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E161" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="G161" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="H161" s="35" t="s">
+      <c r="F161" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="I161" s="35" t="s">
+      <c r="G161" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="H161" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J161" s="37"/>
-      <c r="K161" s="37"/>
-      <c r="L161" s="37"/>
-      <c r="M161" s="42" t="s">
+      <c r="I161" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="N161" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="O161" s="35"/>
-      <c r="P161" s="35"/>
-      <c r="Q161" s="35"/>
-      <c r="R161" s="35"/>
-      <c r="S161" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T161" s="35"/>
-      <c r="U161" s="35"/>
-      <c r="V161" s="35"/>
-      <c r="W161" s="35"/>
-      <c r="X161" s="35"/>
-      <c r="Y161" s="35"/>
-      <c r="Z161" s="35"/>
-      <c r="AA161" s="35"/>
-      <c r="AB161" s="35"/>
-      <c r="AC161" s="35"/>
-      <c r="AD161" s="38"/>
-      <c r="AE161" s="39"/>
-      <c r="AF161" s="35"/>
-      <c r="AG161" s="35"/>
-      <c r="AH161" s="35"/>
-      <c r="AI161" s="35" t="n">
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="N161" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+      <c r="S161" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T161" s="6"/>
+      <c r="U161" s="6"/>
+      <c r="V161" s="6"/>
+      <c r="W161" s="6"/>
+      <c r="X161" s="6"/>
+      <c r="Y161" s="6"/>
+      <c r="Z161" s="6"/>
+      <c r="AA161" s="6"/>
+      <c r="AB161" s="6"/>
+      <c r="AC161" s="6"/>
+      <c r="AD161" s="9"/>
+      <c r="AE161" s="26"/>
+      <c r="AF161" s="6"/>
+      <c r="AG161" s="6"/>
+      <c r="AH161" s="6"/>
+      <c r="AI161" s="6" t="n">
         <v>148</v>
       </c>
-      <c r="AJ161" s="35"/>
-      <c r="AK161" s="44" t="n">
+      <c r="AJ161" s="6"/>
+      <c r="AK161" s="6" t="n">
         <v>142</v>
       </c>
-      <c r="AL161" s="35"/>
+      <c r="AL161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>148</v>
       </c>
-      <c r="B162" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C162" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D162" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E162" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="F162" s="36" t="s">
+      <c r="B162" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E162" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="G162" s="36" t="s">
+      <c r="F162" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="H162" s="35" t="s">
+      <c r="G162" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="I162" s="35" t="s">
+      <c r="H162" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="J162" s="37"/>
-      <c r="K162" s="37"/>
-      <c r="L162" s="37"/>
-      <c r="M162" s="35"/>
-      <c r="N162" s="35"/>
-      <c r="O162" s="35"/>
-      <c r="P162" s="35"/>
-      <c r="Q162" s="35"/>
-      <c r="R162" s="35"/>
-      <c r="S162" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T162" s="35"/>
-      <c r="U162" s="35"/>
-      <c r="V162" s="35"/>
-      <c r="W162" s="35"/>
-      <c r="X162" s="35"/>
-      <c r="Y162" s="35"/>
-      <c r="Z162" s="35"/>
-      <c r="AA162" s="35"/>
-      <c r="AB162" s="35"/>
-      <c r="AC162" s="35"/>
-      <c r="AD162" s="38"/>
-      <c r="AE162" s="39"/>
-      <c r="AF162" s="35"/>
-      <c r="AG162" s="35"/>
-      <c r="AH162" s="35"/>
-      <c r="AI162" s="35" t="n">
+      <c r="I162" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T162" s="6"/>
+      <c r="U162" s="6"/>
+      <c r="V162" s="6"/>
+      <c r="W162" s="6"/>
+      <c r="X162" s="6"/>
+      <c r="Y162" s="6"/>
+      <c r="Z162" s="6"/>
+      <c r="AA162" s="6"/>
+      <c r="AB162" s="6"/>
+      <c r="AC162" s="6"/>
+      <c r="AD162" s="9"/>
+      <c r="AE162" s="26"/>
+      <c r="AF162" s="6"/>
+      <c r="AG162" s="6"/>
+      <c r="AH162" s="6"/>
+      <c r="AI162" s="6" t="n">
         <v>149</v>
       </c>
-      <c r="AJ162" s="35"/>
-      <c r="AK162" s="41" t="s">
-        <v>552</v>
-      </c>
-      <c r="AL162" s="35"/>
+      <c r="AJ162" s="6"/>
+      <c r="AK162" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>149</v>
       </c>
-      <c r="B163" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E163" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="F163" s="36" t="s">
+      <c r="B163" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E163" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="G163" s="36" t="s">
+      <c r="F163" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="H163" s="35" t="s">
+      <c r="G163" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="I163" s="35" t="s">
-        <v>551</v>
-      </c>
-      <c r="J163" s="37"/>
-      <c r="K163" s="37"/>
-      <c r="L163" s="37"/>
-      <c r="M163" s="35"/>
-      <c r="N163" s="35"/>
-      <c r="O163" s="35"/>
-      <c r="P163" s="35"/>
-      <c r="Q163" s="35"/>
-      <c r="R163" s="35"/>
-      <c r="S163" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T163" s="35"/>
-      <c r="U163" s="35"/>
-      <c r="V163" s="35"/>
-      <c r="W163" s="35"/>
-      <c r="X163" s="35"/>
-      <c r="Y163" s="35"/>
-      <c r="Z163" s="35"/>
-      <c r="AA163" s="35"/>
-      <c r="AB163" s="35"/>
-      <c r="AC163" s="35"/>
-      <c r="AD163" s="38"/>
-      <c r="AE163" s="39"/>
-      <c r="AF163" s="35"/>
-      <c r="AG163" s="35"/>
-      <c r="AH163" s="35"/>
-      <c r="AI163" s="35" t="n">
+      <c r="H163" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T163" s="6"/>
+      <c r="U163" s="6"/>
+      <c r="V163" s="6"/>
+      <c r="W163" s="6"/>
+      <c r="X163" s="6"/>
+      <c r="Y163" s="6"/>
+      <c r="Z163" s="6"/>
+      <c r="AA163" s="6"/>
+      <c r="AB163" s="6"/>
+      <c r="AC163" s="6"/>
+      <c r="AD163" s="9"/>
+      <c r="AE163" s="26"/>
+      <c r="AF163" s="6"/>
+      <c r="AG163" s="6"/>
+      <c r="AH163" s="6"/>
+      <c r="AI163" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="AJ163" s="35"/>
-      <c r="AK163" s="35" t="n">
+      <c r="AJ163" s="6"/>
+      <c r="AK163" s="6" t="n">
         <v>136</v>
       </c>
-      <c r="AL163" s="35"/>
+      <c r="AL163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="B164" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C164" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E164" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="F164" s="36" t="s">
+      <c r="B164" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E164" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="G164" s="36" t="s">
+      <c r="F164" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="H164" s="35" t="s">
+      <c r="G164" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="I164" s="35" t="s">
-        <v>551</v>
-      </c>
-      <c r="J164" s="37"/>
-      <c r="K164" s="37"/>
-      <c r="L164" s="37"/>
-      <c r="M164" s="35"/>
-      <c r="N164" s="35" t="s">
+      <c r="H164" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="O164" s="35"/>
-      <c r="P164" s="35"/>
-      <c r="Q164" s="35"/>
-      <c r="R164" s="35"/>
-      <c r="S164" s="35" t="s">
+      <c r="I164" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="T164" s="35"/>
-      <c r="U164" s="35"/>
-      <c r="V164" s="35"/>
-      <c r="W164" s="46" t="s">
-        <v>463</v>
-      </c>
-      <c r="X164" s="35"/>
-      <c r="Y164" s="35"/>
-      <c r="Z164" s="35"/>
-      <c r="AA164" s="35"/>
-      <c r="AB164" s="35"/>
-      <c r="AC164" s="35"/>
-      <c r="AD164" s="38"/>
-      <c r="AE164" s="47"/>
-      <c r="AF164" s="35"/>
-      <c r="AG164" s="35"/>
-      <c r="AH164" s="35"/>
-      <c r="AI164" s="35" t="n">
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="6"/>
+      <c r="W164" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="X164" s="6"/>
+      <c r="Y164" s="6"/>
+      <c r="Z164" s="6"/>
+      <c r="AA164" s="6"/>
+      <c r="AB164" s="6"/>
+      <c r="AC164" s="6"/>
+      <c r="AD164" s="9"/>
+      <c r="AE164" s="10"/>
+      <c r="AF164" s="6"/>
+      <c r="AG164" s="6"/>
+      <c r="AH164" s="6"/>
+      <c r="AI164" s="6" t="n">
         <v>151</v>
       </c>
-      <c r="AJ164" s="35"/>
-      <c r="AK164" s="35"/>
-      <c r="AL164" s="35"/>
+      <c r="AJ164" s="6"/>
+      <c r="AK164" s="6"/>
+      <c r="AL164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>151</v>
       </c>
-      <c r="B165" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C165" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E165" s="36" t="s">
+      <c r="B165" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="G165" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="J165" s="8"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="F165" s="36" t="s">
-        <v>564</v>
-      </c>
-      <c r="G165" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="H165" s="35" t="s">
-        <v>566</v>
-      </c>
-      <c r="I165" s="35" t="s">
-        <v>541</v>
-      </c>
-      <c r="J165" s="37"/>
-      <c r="K165" s="37"/>
-      <c r="L165" s="37"/>
-      <c r="M165" s="35"/>
-      <c r="N165" s="35" t="s">
-        <v>567</v>
-      </c>
-      <c r="O165" s="35"/>
-      <c r="P165" s="35"/>
-      <c r="Q165" s="35"/>
-      <c r="R165" s="35"/>
-      <c r="S165" s="35" t="s">
-        <v>562</v>
-      </c>
-      <c r="T165" s="35"/>
-      <c r="U165" s="35"/>
-      <c r="V165" s="35"/>
-      <c r="W165" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="X165" s="35"/>
-      <c r="Y165" s="35"/>
-      <c r="Z165" s="35"/>
-      <c r="AA165" s="35"/>
-      <c r="AB165" s="35"/>
-      <c r="AC165" s="35"/>
-      <c r="AD165" s="38"/>
-      <c r="AE165" s="47"/>
-      <c r="AF165" s="35"/>
-      <c r="AG165" s="35"/>
-      <c r="AH165" s="35"/>
-      <c r="AI165" s="35" t="n">
+      <c r="T165" s="6"/>
+      <c r="U165" s="6"/>
+      <c r="V165" s="6"/>
+      <c r="W165" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X165" s="6"/>
+      <c r="Y165" s="6"/>
+      <c r="Z165" s="6"/>
+      <c r="AA165" s="6"/>
+      <c r="AB165" s="6"/>
+      <c r="AC165" s="6"/>
+      <c r="AD165" s="9"/>
+      <c r="AE165" s="10"/>
+      <c r="AF165" s="6"/>
+      <c r="AG165" s="6"/>
+      <c r="AH165" s="6"/>
+      <c r="AI165" s="6" t="n">
         <v>152</v>
       </c>
-      <c r="AJ165" s="35"/>
-      <c r="AK165" s="35"/>
-      <c r="AL165" s="35"/>
+      <c r="AJ165" s="6"/>
+      <c r="AK165" s="6"/>
+      <c r="AL165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>153</v>
       </c>
-      <c r="B166" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C166" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E166" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="F166" s="36" t="s">
+      <c r="B166" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E166" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="G166" s="36" t="s">
+      <c r="F166" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="H166" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="I166" s="35" t="s">
+      <c r="G166" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="H166" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J166" s="37"/>
-      <c r="K166" s="37"/>
-      <c r="L166" s="37"/>
-      <c r="M166" s="35" t="s">
-        <v>572</v>
-      </c>
-      <c r="N166" s="41" t="s">
+      <c r="I166" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="J166" s="8"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="O166" s="35"/>
-      <c r="P166" s="35"/>
-      <c r="Q166" s="35"/>
-      <c r="R166" s="35"/>
-      <c r="S166" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T166" s="35"/>
-      <c r="U166" s="35"/>
-      <c r="V166" s="35"/>
-      <c r="W166" s="35"/>
-      <c r="X166" s="35"/>
-      <c r="Y166" s="35"/>
-      <c r="Z166" s="35"/>
-      <c r="AA166" s="35"/>
-      <c r="AB166" s="35"/>
-      <c r="AC166" s="35"/>
-      <c r="AD166" s="38"/>
-      <c r="AE166" s="47"/>
-      <c r="AF166" s="35"/>
-      <c r="AG166" s="35"/>
-      <c r="AH166" s="35"/>
-      <c r="AI166" s="35" t="n">
+      <c r="N166" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T166" s="6"/>
+      <c r="U166" s="6"/>
+      <c r="V166" s="6"/>
+      <c r="W166" s="6"/>
+      <c r="X166" s="6"/>
+      <c r="Y166" s="6"/>
+      <c r="Z166" s="6"/>
+      <c r="AA166" s="6"/>
+      <c r="AB166" s="6"/>
+      <c r="AC166" s="6"/>
+      <c r="AD166" s="9"/>
+      <c r="AE166" s="10"/>
+      <c r="AF166" s="6"/>
+      <c r="AG166" s="6"/>
+      <c r="AH166" s="6"/>
+      <c r="AI166" s="6" t="n">
         <v>153</v>
       </c>
-      <c r="AJ166" s="35"/>
-      <c r="AK166" s="41" t="s">
-        <v>574</v>
-      </c>
-      <c r="AL166" s="35"/>
+      <c r="AJ166" s="6"/>
+      <c r="AK166" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="AL166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>155</v>
       </c>
-      <c r="B167" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C167" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D167" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E167" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="F167" s="36" t="s">
+      <c r="B167" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E167" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="G167" s="36" t="s">
+      <c r="F167" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="H167" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="I167" s="35" t="s">
+      <c r="G167" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="H167" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J167" s="37"/>
-      <c r="K167" s="37"/>
-      <c r="L167" s="37"/>
-      <c r="M167" s="35" t="s">
-        <v>572</v>
-      </c>
-      <c r="N167" s="48" t="s">
-        <v>575</v>
-      </c>
-      <c r="O167" s="35"/>
-      <c r="P167" s="35"/>
-      <c r="Q167" s="35"/>
-      <c r="R167" s="35"/>
-      <c r="S167" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T167" s="35"/>
-      <c r="U167" s="35"/>
-      <c r="V167" s="35"/>
-      <c r="W167" s="35"/>
-      <c r="X167" s="35"/>
-      <c r="Y167" s="35"/>
-      <c r="Z167" s="35"/>
-      <c r="AA167" s="35"/>
-      <c r="AB167" s="35"/>
-      <c r="AC167" s="35"/>
-      <c r="AD167" s="38"/>
-      <c r="AE167" s="47"/>
-      <c r="AF167" s="35"/>
-      <c r="AG167" s="35"/>
-      <c r="AH167" s="35"/>
-      <c r="AI167" s="35" t="n">
+      <c r="I167" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="J167" s="8"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="N167" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6"/>
+      <c r="V167" s="6"/>
+      <c r="W167" s="6"/>
+      <c r="X167" s="6"/>
+      <c r="Y167" s="6"/>
+      <c r="Z167" s="6"/>
+      <c r="AA167" s="6"/>
+      <c r="AB167" s="6"/>
+      <c r="AC167" s="6"/>
+      <c r="AD167" s="9"/>
+      <c r="AE167" s="10"/>
+      <c r="AF167" s="6"/>
+      <c r="AG167" s="6"/>
+      <c r="AH167" s="6"/>
+      <c r="AI167" s="6" t="n">
         <v>155</v>
       </c>
-      <c r="AJ167" s="35"/>
-      <c r="AK167" s="35" t="n">
+      <c r="AJ167" s="6"/>
+      <c r="AK167" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="AL167" s="35"/>
+      <c r="AL167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="B168" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C168" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D168" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E168" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="F168" s="36" t="s">
+      <c r="B168" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E168" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="G168" s="36" t="s">
+      <c r="F168" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="H168" s="35" t="s">
-        <v>540</v>
-      </c>
-      <c r="I168" s="35" t="s">
+      <c r="G168" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="H168" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="J168" s="37"/>
-      <c r="K168" s="37"/>
-      <c r="L168" s="37"/>
-      <c r="M168" s="35" t="s">
-        <v>572</v>
-      </c>
-      <c r="N168" s="48" t="s">
-        <v>576</v>
-      </c>
-      <c r="O168" s="35"/>
-      <c r="P168" s="35"/>
-      <c r="Q168" s="35"/>
-      <c r="R168" s="35"/>
-      <c r="S168" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="T168" s="35"/>
-      <c r="U168" s="35"/>
-      <c r="V168" s="35"/>
-      <c r="W168" s="35"/>
-      <c r="X168" s="35"/>
-      <c r="Y168" s="35"/>
-      <c r="Z168" s="35"/>
-      <c r="AA168" s="35"/>
-      <c r="AB168" s="35"/>
-      <c r="AC168" s="35"/>
-      <c r="AD168" s="38"/>
-      <c r="AE168" s="47"/>
-      <c r="AF168" s="35"/>
-      <c r="AG168" s="35"/>
-      <c r="AH168" s="35"/>
-      <c r="AI168" s="35" t="n">
+      <c r="I168" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="N168" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="T168" s="6"/>
+      <c r="U168" s="6"/>
+      <c r="V168" s="6"/>
+      <c r="W168" s="6"/>
+      <c r="X168" s="6"/>
+      <c r="Y168" s="6"/>
+      <c r="Z168" s="6"/>
+      <c r="AA168" s="6"/>
+      <c r="AB168" s="6"/>
+      <c r="AC168" s="6"/>
+      <c r="AD168" s="9"/>
+      <c r="AE168" s="10"/>
+      <c r="AF168" s="6"/>
+      <c r="AG168" s="6"/>
+      <c r="AH168" s="6"/>
+      <c r="AI168" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="AJ168" s="35"/>
-      <c r="AK168" s="43" t="s">
-        <v>577</v>
-      </c>
-      <c r="AL168" s="35"/>
+      <c r="AJ168" s="6"/>
+      <c r="AK168" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="AL168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
@@ -15220,32 +15090,32 @@
         <v>39</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="E169" s="32"/>
-      <c r="F169" s="32" t="s">
-        <v>578</v>
-      </c>
-      <c r="G169" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24" t="s">
         <v>579</v>
       </c>
+      <c r="G169" s="24" t="s">
+        <v>580</v>
+      </c>
       <c r="H169" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
       <c r="M169" s="6"/>
-      <c r="N169" s="49"/>
+      <c r="N169" s="28"/>
       <c r="O169" s="6"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
       <c r="R169" s="6"/>
       <c r="S169" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
@@ -15257,17 +15127,17 @@
       <c r="AA169" s="6"/>
       <c r="AB169" s="6"/>
       <c r="AC169" s="6"/>
-      <c r="AD169" s="50"/>
+      <c r="AD169" s="29"/>
       <c r="AE169" s="6"/>
       <c r="AF169" s="6"/>
       <c r="AG169" s="6"/>
-      <c r="AH169" s="51"/>
-      <c r="AI169" s="52" t="n">
+      <c r="AH169" s="7"/>
+      <c r="AI169" s="11" t="n">
         <v>521</v>
       </c>
       <c r="AJ169" s="6"/>
-      <c r="AK169" s="41"/>
-      <c r="AL169" s="35"/>
+      <c r="AK169" s="13"/>
+      <c r="AL169" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AL169"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1604,7 +1605,7 @@
     <t xml:space="preserve">BRAND</t>
   </si>
   <si>
-    <t xml:space="preserve">1 door cooler</t>
+    <t xml:space="preserve">1 door cooler - Modern Trade</t>
   </si>
   <si>
     <t xml:space="preserve">Min 30% Coca-Cola</t>
@@ -1613,7 +1614,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 30% кока-кола</t>
   </si>
   <si>
-    <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
+    <t xml:space="preserve">Company Coolers: 1st Cash Cooler, 2 door cooler - Modern Trade, Open Front - Modern Trade, Cash Cooler (Open Top) - Modern Trade, Coolers - Counter top, 1.5 door cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
@@ -1931,7 +1932,7 @@
     <numFmt numFmtId="173" formatCode="D\-MMM"/>
     <numFmt numFmtId="174" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
@@ -1976,6 +1977,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2056,7 +2064,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2147,6 +2155,10 @@
     </xf>
     <xf numFmtId="174" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2257,52 +2269,52 @@
   </sheetPr>
   <dimension ref="A1:AL169"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="S156" activeCellId="0" sqref="S156:S169"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="X142" activeCellId="0" sqref="X142:X143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.7692307692308"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.3076923076923"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.3522267206478"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="87.4089068825911"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="125.971659919028"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="55.8097165991903"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="88.1578947368421"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="127.14979757085"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="56.2388663967611"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="63.7368421052632"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="64.2712550607287"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -13190,7 +13202,7 @@
       <c r="W142" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="X142" s="5" t="s">
+      <c r="X142" s="23" t="s">
         <v>485</v>
       </c>
       <c r="Y142" s="5"/>
@@ -13272,7 +13284,7 @@
       <c r="W143" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="X143" s="5" t="s">
+      <c r="X143" s="16" t="s">
         <v>488</v>
       </c>
       <c r="Y143" s="5"/>
@@ -13707,7 +13719,7 @@
       <c r="D149" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E149" s="23" t="s">
+      <c r="E149" s="24" t="s">
         <v>321</v>
       </c>
       <c r="F149" s="5" t="s">
@@ -13781,7 +13793,7 @@
       <c r="D150" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E150" s="23" t="s">
+      <c r="E150" s="24" t="s">
         <v>321</v>
       </c>
       <c r="F150" s="5" t="s">
@@ -14174,7 +14186,7 @@
       <c r="K155" s="7"/>
       <c r="L155" s="7"/>
       <c r="M155" s="5"/>
-      <c r="N155" s="24" t="s">
+      <c r="N155" s="25" t="s">
         <v>527</v>
       </c>
       <c r="O155" s="10"/>
@@ -14190,7 +14202,7 @@
       <c r="U155" s="5"/>
       <c r="V155" s="5"/>
       <c r="W155" s="5"/>
-      <c r="X155" s="24" t="s">
+      <c r="X155" s="25" t="s">
         <v>527</v>
       </c>
       <c r="Y155" s="5"/>
@@ -14231,13 +14243,13 @@
       <c r="D156" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="F156" s="23" t="s">
+      <c r="F156" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="G156" s="23" t="s">
+      <c r="G156" s="24" t="s">
         <v>531</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -14269,7 +14281,7 @@
       <c r="AB156" s="5"/>
       <c r="AC156" s="5"/>
       <c r="AD156" s="8"/>
-      <c r="AE156" s="25"/>
+      <c r="AE156" s="26"/>
       <c r="AF156" s="5"/>
       <c r="AG156" s="5"/>
       <c r="AH156" s="5"/>
@@ -14333,7 +14345,7 @@
       <c r="AB157" s="5"/>
       <c r="AC157" s="5"/>
       <c r="AD157" s="8"/>
-      <c r="AE157" s="25"/>
+      <c r="AE157" s="26"/>
       <c r="AF157" s="5"/>
       <c r="AG157" s="5"/>
       <c r="AH157" s="5"/>
@@ -14359,13 +14371,13 @@
       <c r="D158" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E158" s="23" t="s">
+      <c r="E158" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F158" s="23" t="s">
+      <c r="F158" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="G158" s="23" t="s">
+      <c r="G158" s="24" t="s">
         <v>512</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -14377,7 +14389,7 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="7"/>
-      <c r="M158" s="26" t="s">
+      <c r="M158" s="27" t="s">
         <v>543</v>
       </c>
       <c r="N158" s="12" t="s">
@@ -14401,7 +14413,7 @@
       <c r="AB158" s="5"/>
       <c r="AC158" s="5"/>
       <c r="AD158" s="8"/>
-      <c r="AE158" s="25"/>
+      <c r="AE158" s="26"/>
       <c r="AF158" s="5"/>
       <c r="AG158" s="5"/>
       <c r="AH158" s="5"/>
@@ -14425,13 +14437,13 @@
       <c r="D159" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E159" s="23" t="s">
+      <c r="E159" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F159" s="23" t="s">
+      <c r="F159" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="G159" s="23" t="s">
+      <c r="G159" s="24" t="s">
         <v>512</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -14443,7 +14455,7 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="7"/>
-      <c r="M159" s="26" t="s">
+      <c r="M159" s="27" t="s">
         <v>543</v>
       </c>
       <c r="N159" s="12" t="s">
@@ -14467,7 +14479,7 @@
       <c r="AB159" s="5"/>
       <c r="AC159" s="5"/>
       <c r="AD159" s="8"/>
-      <c r="AE159" s="25"/>
+      <c r="AE159" s="26"/>
       <c r="AF159" s="5"/>
       <c r="AG159" s="5"/>
       <c r="AH159" s="5"/>
@@ -14491,13 +14503,13 @@
       <c r="D160" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E160" s="23" t="s">
+      <c r="E160" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F160" s="23" t="s">
+      <c r="F160" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="G160" s="23" t="s">
+      <c r="G160" s="24" t="s">
         <v>512</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -14509,7 +14521,7 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="7"/>
-      <c r="M160" s="26" t="s">
+      <c r="M160" s="27" t="s">
         <v>543</v>
       </c>
       <c r="N160" s="12" t="s">
@@ -14533,7 +14545,7 @@
       <c r="AB160" s="5"/>
       <c r="AC160" s="5"/>
       <c r="AD160" s="8"/>
-      <c r="AE160" s="25"/>
+      <c r="AE160" s="26"/>
       <c r="AF160" s="5"/>
       <c r="AG160" s="5"/>
       <c r="AH160" s="5"/>
@@ -14557,13 +14569,13 @@
       <c r="D161" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="F161" s="23" t="s">
+      <c r="F161" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="G161" s="23" t="s">
+      <c r="G161" s="24" t="s">
         <v>512</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -14575,7 +14587,7 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="7"/>
-      <c r="M161" s="26" t="s">
+      <c r="M161" s="27" t="s">
         <v>543</v>
       </c>
       <c r="N161" s="12" t="s">
@@ -14599,7 +14611,7 @@
       <c r="AB161" s="5"/>
       <c r="AC161" s="5"/>
       <c r="AD161" s="8"/>
-      <c r="AE161" s="25"/>
+      <c r="AE161" s="26"/>
       <c r="AF161" s="5"/>
       <c r="AG161" s="5"/>
       <c r="AH161" s="5"/>
@@ -14625,13 +14637,13 @@
       <c r="D162" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E162" s="23" t="s">
+      <c r="E162" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="F162" s="23" t="s">
+      <c r="F162" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="G162" s="23" t="s">
+      <c r="G162" s="24" t="s">
         <v>550</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -14663,7 +14675,7 @@
       <c r="AB162" s="5"/>
       <c r="AC162" s="5"/>
       <c r="AD162" s="8"/>
-      <c r="AE162" s="25"/>
+      <c r="AE162" s="26"/>
       <c r="AF162" s="5"/>
       <c r="AG162" s="5"/>
       <c r="AH162" s="5"/>
@@ -14689,13 +14701,13 @@
       <c r="D163" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E163" s="23" t="s">
+      <c r="E163" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="F163" s="23" t="s">
+      <c r="F163" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="G163" s="23" t="s">
+      <c r="G163" s="24" t="s">
         <v>556</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -14727,7 +14739,7 @@
       <c r="AB163" s="5"/>
       <c r="AC163" s="5"/>
       <c r="AD163" s="8"/>
-      <c r="AE163" s="25"/>
+      <c r="AE163" s="26"/>
       <c r="AF163" s="5"/>
       <c r="AG163" s="5"/>
       <c r="AH163" s="5"/>
@@ -14753,13 +14765,13 @@
       <c r="D164" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E164" s="23" t="s">
+      <c r="E164" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="F164" s="23" t="s">
+      <c r="F164" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="G164" s="23" t="s">
+      <c r="G164" s="24" t="s">
         <v>560</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -14819,13 +14831,13 @@
       <c r="D165" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E165" s="23" t="s">
+      <c r="E165" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="F165" s="23" t="s">
+      <c r="F165" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="G165" s="23" t="s">
+      <c r="G165" s="24" t="s">
         <v>566</v>
       </c>
       <c r="H165" s="5" t="s">
@@ -14885,13 +14897,13 @@
       <c r="D166" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E166" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="F166" s="23" t="s">
+      <c r="F166" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="G166" s="23" t="s">
+      <c r="G166" s="24" t="s">
         <v>572</v>
       </c>
       <c r="H166" s="5" t="s">
@@ -14953,13 +14965,13 @@
       <c r="D167" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="E167" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="F167" s="23" t="s">
+      <c r="F167" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="G167" s="23" t="s">
+      <c r="G167" s="24" t="s">
         <v>572</v>
       </c>
       <c r="H167" s="5" t="s">
@@ -14974,7 +14986,7 @@
       <c r="M167" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="N167" s="27" t="s">
+      <c r="N167" s="28" t="s">
         <v>576</v>
       </c>
       <c r="O167" s="5"/>
@@ -15021,13 +15033,13 @@
       <c r="D168" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E168" s="23" t="s">
+      <c r="E168" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="F168" s="23" t="s">
+      <c r="F168" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="G168" s="23" t="s">
+      <c r="G168" s="24" t="s">
         <v>572</v>
       </c>
       <c r="H168" s="5" t="s">
@@ -15042,7 +15054,7 @@
       <c r="M168" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="N168" s="27" t="s">
+      <c r="N168" s="28" t="s">
         <v>577</v>
       </c>
       <c r="O168" s="5"/>
@@ -15089,11 +15101,11 @@
       <c r="D169" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E169" s="23"/>
-      <c r="F169" s="23" t="s">
+      <c r="E169" s="24"/>
+      <c r="F169" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="G169" s="23" t="s">
+      <c r="G169" s="24" t="s">
         <v>580</v>
       </c>
       <c r="H169" s="5" t="s">
@@ -15106,7 +15118,7 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
       <c r="M169" s="5"/>
-      <c r="N169" s="27"/>
+      <c r="N169" s="28"/>
       <c r="O169" s="5"/>
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
@@ -15124,7 +15136,7 @@
       <c r="AA169" s="5"/>
       <c r="AB169" s="5"/>
       <c r="AC169" s="5"/>
-      <c r="AD169" s="28"/>
+      <c r="AD169" s="29"/>
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
       <c r="AG169" s="5"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$169</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2269,52 +2270,52 @@
   </sheetPr>
   <dimension ref="A1:AL169"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="X142" activeCellId="0" sqref="X142:X143"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="61.3805668016194"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="88.1578947368421"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="127.14979757085"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="56.2388663967611"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="26.8866396761134"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="88.9068825910931"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="128.222672064777"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="56.663967611336"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="27.1012145748988"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="64.2712550607287"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="64.8056680161943"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.03238866396761"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -11583,7 +11584,7 @@
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -11,8 +11,11 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1762,10 +1765,10 @@
     <t xml:space="preserve">Импульсная Активация</t>
   </si>
   <si>
-    <t xml:space="preserve">139
-140
-141
-142
+    <t xml:space="preserve">140
+620
+621
+623
 </t>
   </si>
   <si>
@@ -1802,7 +1805,7 @@
     <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activations: Dobry/Coke  in Bakery</t>
+    <t xml:space="preserve">Impulse Activations: Dobry/Coke in Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Impulse Активации: Добрый/Кола в выпечке</t>
@@ -1996,7 +1999,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2026,6 +2029,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2079,7 +2089,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2124,6 +2134,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2147,52 +2161,52 @@
   </sheetPr>
   <dimension ref="A1:AL176"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="AJ115" activeCellId="0" sqref="AJ115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="52.0607287449393"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="28.8137651821862"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="90.9433198380567"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="130.684210526316"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="158.748987854251"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="36.7408906882591"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="21.6396761133603"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="67.7004048582996"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4574898785425"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="134.218623481781"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="163.141700404858"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -11018,10 +11032,10 @@
       <c r="AG113" s="7"/>
       <c r="AH113" s="7"/>
       <c r="AI113" s="7" t="n">
+        <v>939</v>
+      </c>
+      <c r="AJ113" s="7" t="n">
         <v>3</v>
-      </c>
-      <c r="AJ113" s="7" t="n">
-        <v>939</v>
       </c>
       <c r="AK113" s="8"/>
       <c r="AL113" s="7" t="n">
@@ -11096,10 +11110,10 @@
       <c r="AG114" s="7"/>
       <c r="AH114" s="7"/>
       <c r="AI114" s="7" t="n">
+        <v>940</v>
+      </c>
+      <c r="AJ114" s="7" t="n">
         <v>3</v>
-      </c>
-      <c r="AJ114" s="7" t="n">
-        <v>940</v>
       </c>
       <c r="AK114" s="8"/>
       <c r="AL114" s="7" t="n">
@@ -14343,7 +14357,7 @@
       <c r="AJ158" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AK158" s="10" t="s">
+      <c r="AK158" s="11" t="s">
         <v>535</v>
       </c>
       <c r="AL158" s="7" t="n">
@@ -15579,7 +15593,7 @@
       <c r="AL176" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL176"/>
+  <autoFilter ref="A1:AL1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -11,11 +11,12 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2161,52 +2162,52 @@
   </sheetPr>
   <dimension ref="A1:AL176"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="AJ115" activeCellId="0" sqref="AJ115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.4574898785425"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.6720647773279"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="134.218623481781"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="163.141700404858"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="135.396761133603"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="164.534412955466"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -15593,7 +15594,7 @@
       <c r="AL176" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
+  <autoFilter ref="A1:AL176"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2162,52 +2162,52 @@
   </sheetPr>
   <dimension ref="A1:AL176"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AJ115" activeCellId="0" sqref="AJ115"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.6720647773279"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="135.396761133603"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="164.534412955466"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="136.684210526316"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="166.032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="70.5910931174089"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
@@ -15594,10 +15594,10 @@
       <c r="AL176" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL176"/>
+  <autoFilter ref="A1:AL1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="606">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1399,6 +1399,9 @@
     <t xml:space="preserve">Coca-Cola - 0.9L</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000054227,  5449000228970</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD Display 1st: Sprite - 0.9L</t>
   </si>
   <si>
@@ -1408,6 +1411,9 @@
     <t xml:space="preserve">Sprite - 0.9L</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000050939,  5449000228956</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSD Display Coca-Cola Zero - 0.9L</t>
   </si>
   <si>
@@ -1415,6 +1421,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000133328, 5449000231659</t>
   </si>
   <si>
     <t xml:space="preserve">SSD Display 1st: Fanta Orange - 0.9L</t>
@@ -2039,12 +2048,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2090,7 +2105,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2135,6 +2150,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2148,6 +2167,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2162,51 +2241,51 @@
   </sheetPr>
   <dimension ref="A1:AL176"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="N124" activeCellId="0" sqref="N124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="54.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.6275303643725"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="136.684210526316"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="166.032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="137.862348178138"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="167.534412955466"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -11801,8 +11880,8 @@
       <c r="M124" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="N124" s="8" t="n">
-        <v>5449000000439</v>
+      <c r="N124" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="O124" s="7"/>
       <c r="P124" s="7"/>
@@ -11860,10 +11939,10 @@
         <v>310</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>52</v>
@@ -11875,10 +11954,10 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="N125" s="8" t="n">
-        <v>5449000012203</v>
+        <v>421</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="O125" s="7"/>
       <c r="P125" s="7"/>
@@ -11936,10 +12015,10 @@
         <v>310</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>52</v>
@@ -11951,10 +12030,10 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="N126" s="8" t="n">
-        <v>5449000133335</v>
+        <v>425</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="O126" s="7"/>
       <c r="P126" s="7"/>
@@ -12012,10 +12091,10 @@
         <v>310</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>52</v>
@@ -12027,10 +12106,10 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="N127" s="8" t="n">
-        <v>5449000052926</v>
+        <v>429</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="O127" s="7"/>
       <c r="P127" s="7"/>
@@ -12088,10 +12167,10 @@
         <v>394</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>397</v>
@@ -12118,7 +12197,7 @@
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AA128" s="7"/>
       <c r="AB128" s="7"/>
@@ -12139,7 +12218,7 @@
         <v>2</v>
       </c>
       <c r="AK128" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AL128" s="7" t="n">
         <v>302</v>
@@ -12162,10 +12241,10 @@
         <v>394</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>52</v>
@@ -12200,7 +12279,7 @@
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AA129" s="7"/>
       <c r="AB129" s="7"/>
@@ -12240,10 +12319,10 @@
         <v>394</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>404</v>
@@ -12267,14 +12346,14 @@
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="V130" s="7"/>
       <c r="W130" s="7"/>
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AA130" s="7"/>
       <c r="AB130" s="7"/>
@@ -12314,10 +12393,10 @@
         <v>394</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>409</v>
@@ -12350,7 +12429,7 @@
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AA131" s="7"/>
       <c r="AB131" s="7"/>
@@ -12361,7 +12440,7 @@
       <c r="AE131" s="7"/>
       <c r="AF131" s="7"/>
       <c r="AG131" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AH131" s="7"/>
       <c r="AI131" s="7" t="n">
@@ -12390,10 +12469,10 @@
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>40</v>
@@ -12454,10 +12533,10 @@
         <v>394</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>397</v>
@@ -12484,7 +12563,7 @@
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
@@ -12505,7 +12584,7 @@
         <v>2</v>
       </c>
       <c r="AK133" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AL133" s="7" t="n">
         <v>303</v>
@@ -12528,10 +12607,10 @@
         <v>394</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>52</v>
@@ -12566,7 +12645,7 @@
       <c r="X134" s="7"/>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AA134" s="7"/>
       <c r="AB134" s="7"/>
@@ -12606,10 +12685,10 @@
         <v>394</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>404</v>
@@ -12633,14 +12712,14 @@
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="V135" s="7"/>
       <c r="W135" s="7"/>
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AA135" s="7"/>
       <c r="AB135" s="7"/>
@@ -12680,13 +12759,13 @@
         <v>394</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7" t="n">
@@ -12710,7 +12789,7 @@
       <c r="X136" s="7"/>
       <c r="Y136" s="7"/>
       <c r="Z136" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AA136" s="7"/>
       <c r="AB136" s="7"/>
@@ -12729,7 +12808,7 @@
         <v>3</v>
       </c>
       <c r="AK136" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AL136" s="7" t="n">
         <v>115</v>
@@ -12752,10 +12831,10 @@
         <v>394</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>409</v>
@@ -12765,10 +12844,10 @@
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="O137" s="7"/>
       <c r="P137" s="7"/>
@@ -12786,7 +12865,7 @@
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AA137" s="7"/>
       <c r="AB137" s="7"/>
@@ -12797,7 +12876,7 @@
       <c r="AE137" s="7"/>
       <c r="AF137" s="7"/>
       <c r="AG137" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AH137" s="7"/>
       <c r="AI137" s="7" t="n">
@@ -12828,10 +12907,10 @@
         <v>394</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>409</v>
@@ -12841,10 +12920,10 @@
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="O138" s="7"/>
       <c r="P138" s="7"/>
@@ -12862,7 +12941,7 @@
       <c r="X138" s="7"/>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AA138" s="7"/>
       <c r="AB138" s="7"/>
@@ -12873,7 +12952,7 @@
       <c r="AE138" s="7"/>
       <c r="AF138" s="7"/>
       <c r="AG138" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AH138" s="7"/>
       <c r="AI138" s="7" t="n">
@@ -12901,16 +12980,16 @@
         <v>40</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -12921,7 +13000,7 @@
       <c r="O139" s="7"/>
       <c r="P139" s="7"/>
       <c r="Q139" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
@@ -12943,7 +13022,7 @@
       <c r="AE139" s="7"/>
       <c r="AF139" s="7"/>
       <c r="AG139" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AH139" s="7"/>
       <c r="AI139" s="7" t="n">
@@ -12953,7 +13032,7 @@
         <v>2</v>
       </c>
       <c r="AK139" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AL139" s="7" t="n">
         <v>311</v>
@@ -12974,10 +13053,10 @@
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>40</v>
@@ -13015,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="AK140" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AL140" s="7"/>
     </row>
@@ -13034,10 +13113,10 @@
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>40</v>
@@ -13095,16 +13174,16 @@
         <v>40</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7" t="n">
@@ -13118,20 +13197,20 @@
         <v>305</v>
       </c>
       <c r="N142" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O142" s="7"/>
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
       <c r="R142" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
       <c r="U142" s="7"/>
       <c r="V142" s="7"/>
       <c r="W142" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X142" s="7"/>
       <c r="Y142" s="7"/>
@@ -13171,16 +13250,16 @@
         <v>40</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7" t="n">
@@ -13192,20 +13271,20 @@
         <v>305</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O143" s="7"/>
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
       <c r="R143" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
       <c r="U143" s="7"/>
       <c r="V143" s="7"/>
       <c r="W143" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
@@ -13246,10 +13325,10 @@
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>40</v>
@@ -13287,7 +13366,7 @@
         <v>1</v>
       </c>
       <c r="AK144" s="10" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AL144" s="7" t="n">
         <v>310</v>
@@ -13310,10 +13389,10 @@
         <v>310</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>404</v>
@@ -13330,16 +13409,16 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
       <c r="R145" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
       <c r="U145" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="V145" s="7"/>
       <c r="W145" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X145" s="7"/>
       <c r="Y145" s="7"/>
@@ -13355,10 +13434,10 @@
       <c r="AE145" s="7"/>
       <c r="AF145" s="7"/>
       <c r="AG145" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH145" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI145" s="7" t="n">
         <v>124</v>
@@ -13388,13 +13467,13 @@
         <v>310</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -13408,20 +13487,20 @@
         <v>305</v>
       </c>
       <c r="N146" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O146" s="7"/>
       <c r="P146" s="7"/>
       <c r="Q146" s="7"/>
       <c r="R146" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
       <c r="U146" s="7"/>
       <c r="V146" s="7"/>
       <c r="W146" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X146" s="7"/>
       <c r="Y146" s="7"/>
@@ -13437,10 +13516,10 @@
       <c r="AE146" s="7"/>
       <c r="AF146" s="7"/>
       <c r="AG146" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH146" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI146" s="7" t="n">
         <v>125</v>
@@ -13470,10 +13549,10 @@
         <v>310</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>47</v>
@@ -13495,7 +13574,7 @@
       <c r="U147" s="7"/>
       <c r="V147" s="7"/>
       <c r="W147" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X147" s="7"/>
       <c r="Y147" s="7"/>
@@ -13511,10 +13590,10 @@
       <c r="AE147" s="7"/>
       <c r="AF147" s="7"/>
       <c r="AG147" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH147" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI147" s="7" t="n">
         <v>126</v>
@@ -13523,7 +13602,7 @@
         <v>2</v>
       </c>
       <c r="AK147" s="10" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AL147" s="7" t="n">
         <v>312</v>
@@ -13544,10 +13623,10 @@
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>304</v>
@@ -13559,30 +13638,30 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N148" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="O148" s="7"/>
       <c r="P148" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q148" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R148" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
       <c r="U148" s="7"/>
       <c r="V148" s="7"/>
       <c r="W148" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X148" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
@@ -13595,10 +13674,10 @@
       <c r="AE148" s="7"/>
       <c r="AF148" s="7"/>
       <c r="AG148" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH148" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI148" s="7" t="n">
         <v>128</v>
@@ -13626,10 +13705,10 @@
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>304</v>
@@ -13641,30 +13720,30 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N149" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="O149" s="7"/>
       <c r="P149" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q149" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R149" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="S149" s="7"/>
       <c r="T149" s="7"/>
       <c r="U149" s="7"/>
       <c r="V149" s="7"/>
       <c r="W149" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X149" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
@@ -13677,10 +13756,10 @@
       <c r="AE149" s="7"/>
       <c r="AF149" s="7"/>
       <c r="AG149" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH149" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI149" s="7" t="n">
         <v>129</v>
@@ -13708,13 +13787,13 @@
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7" t="n">
@@ -13735,7 +13814,7 @@
       <c r="U150" s="7"/>
       <c r="V150" s="7"/>
       <c r="W150" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X150" s="7"/>
       <c r="Y150" s="7"/>
@@ -13749,10 +13828,10 @@
       <c r="AE150" s="7"/>
       <c r="AF150" s="7"/>
       <c r="AG150" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH150" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI150" s="7" t="n">
         <v>130</v>
@@ -13761,7 +13840,7 @@
         <v>3</v>
       </c>
       <c r="AK150" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AL150" s="7" t="n">
         <v>126</v>
@@ -13782,10 +13861,10 @@
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>52</v>
@@ -13797,27 +13876,27 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N151" s="8" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="O151" s="7"/>
       <c r="P151" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q151" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R151" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
       <c r="U151" s="7"/>
       <c r="V151" s="7"/>
       <c r="W151" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X151" s="7"/>
       <c r="Y151" s="7"/>
@@ -13833,10 +13912,10 @@
       <c r="AE151" s="7"/>
       <c r="AF151" s="7"/>
       <c r="AG151" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH151" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI151" s="7" t="n">
         <v>131</v>
@@ -13864,10 +13943,10 @@
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>52</v>
@@ -13879,27 +13958,27 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="N152" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="O152" s="7"/>
       <c r="P152" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q152" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R152" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="S152" s="7"/>
       <c r="T152" s="7"/>
       <c r="U152" s="7"/>
       <c r="V152" s="7"/>
       <c r="W152" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X152" s="7"/>
       <c r="Y152" s="7"/>
@@ -13915,10 +13994,10 @@
       <c r="AE152" s="7"/>
       <c r="AF152" s="7"/>
       <c r="AG152" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH152" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI152" s="7" t="n">
         <v>132</v>
@@ -13946,13 +14025,13 @@
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7" t="n">
@@ -13964,7 +14043,7 @@
         <v>305</v>
       </c>
       <c r="N153" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O153" s="7"/>
       <c r="P153" s="7"/>
@@ -13972,14 +14051,14 @@
         <v>54</v>
       </c>
       <c r="R153" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
       <c r="U153" s="7"/>
       <c r="V153" s="7"/>
       <c r="W153" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X153" s="7"/>
       <c r="Y153" s="7"/>
@@ -13993,10 +14072,10 @@
       <c r="AE153" s="7"/>
       <c r="AF153" s="7"/>
       <c r="AG153" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH153" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI153" s="7" t="n">
         <v>133</v>
@@ -14026,13 +14105,13 @@
         <v>310</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -14040,20 +14119,20 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O154" s="7"/>
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
       <c r="R154" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="S154" s="7"/>
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
       <c r="V154" s="7"/>
       <c r="W154" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X154" s="7"/>
       <c r="Y154" s="7"/>
@@ -14069,10 +14148,10 @@
       <c r="AE154" s="7"/>
       <c r="AF154" s="7"/>
       <c r="AG154" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH154" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AI154" s="7" t="n">
         <v>135</v>
@@ -14102,13 +14181,13 @@
         <v>310</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7" t="n">
@@ -14129,7 +14208,7 @@
       <c r="U155" s="7"/>
       <c r="V155" s="7"/>
       <c r="W155" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X155" s="7"/>
       <c r="Y155" s="7"/>
@@ -14176,13 +14255,13 @@
         <v>310</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7" t="n">
@@ -14196,7 +14275,7 @@
         <v>305</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O156" s="7"/>
       <c r="P156" s="7"/>
@@ -14204,14 +14283,14 @@
         <v>54</v>
       </c>
       <c r="R156" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="S156" s="7"/>
       <c r="T156" s="7"/>
       <c r="U156" s="7"/>
       <c r="V156" s="7"/>
       <c r="W156" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="X156" s="7"/>
       <c r="Y156" s="7"/>
@@ -14219,13 +14298,13 @@
       <c r="AA156" s="7"/>
       <c r="AB156" s="7"/>
       <c r="AC156" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="AD156" s="9"/>
       <c r="AE156" s="7"/>
       <c r="AF156" s="7"/>
       <c r="AG156" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AH156" s="7"/>
       <c r="AI156" s="7" t="n">
@@ -14254,10 +14333,10 @@
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>40</v>
@@ -14316,10 +14395,10 @@
         <v>310</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>47</v>
@@ -14358,8 +14437,8 @@
       <c r="AJ158" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AK158" s="11" t="s">
-        <v>535</v>
+      <c r="AK158" s="12" t="s">
+        <v>538</v>
       </c>
       <c r="AL158" s="7" t="n">
         <v>400</v>
@@ -14382,13 +14461,13 @@
         <v>310</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7" t="n">
@@ -14398,7 +14477,7 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="8" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="O159" s="7"/>
       <c r="P159" s="7"/>
@@ -14406,7 +14485,7 @@
         <v>54</v>
       </c>
       <c r="R159" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="S159" s="7"/>
       <c r="T159" s="7"/>
@@ -14414,7 +14493,7 @@
       <c r="V159" s="7"/>
       <c r="W159" s="7"/>
       <c r="X159" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -14455,16 +14534,16 @@
         <v>300</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="H160" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7" t="n">
@@ -14474,7 +14553,7 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
       <c r="N160" s="8" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="O160" s="7"/>
       <c r="P160" s="7"/>
@@ -14482,7 +14561,7 @@
         <v>54</v>
       </c>
       <c r="R160" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="S160" s="7"/>
       <c r="T160" s="7"/>
@@ -14490,7 +14569,7 @@
       <c r="V160" s="7"/>
       <c r="W160" s="7"/>
       <c r="X160" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -14531,16 +14610,16 @@
         <v>300</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7" t="n">
@@ -14550,7 +14629,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
       <c r="N161" s="8" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="O161" s="7"/>
       <c r="P161" s="7"/>
@@ -14558,7 +14637,7 @@
         <v>54</v>
       </c>
       <c r="R161" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="S161" s="7"/>
       <c r="T161" s="7"/>
@@ -14566,7 +14645,7 @@
       <c r="V161" s="7"/>
       <c r="W161" s="7"/>
       <c r="X161" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -14607,16 +14686,16 @@
         <v>300</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7" t="n">
@@ -14626,7 +14705,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
       <c r="N162" s="8" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="O162" s="7"/>
       <c r="P162" s="7"/>
@@ -14634,7 +14713,7 @@
         <v>54</v>
       </c>
       <c r="R162" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="S162" s="7"/>
       <c r="T162" s="7"/>
@@ -14642,7 +14721,7 @@
       <c r="V162" s="7"/>
       <c r="W162" s="7"/>
       <c r="X162" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -14680,22 +14759,22 @@
         <v>39</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -14706,7 +14785,7 @@
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
       <c r="R163" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S163" s="7"/>
       <c r="T163" s="7"/>
@@ -14744,22 +14823,22 @@
         <v>39</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E164" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="H164" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="I164" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -14770,7 +14849,7 @@
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
       <c r="R164" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S164" s="7"/>
       <c r="T164" s="7"/>
@@ -14793,7 +14872,7 @@
       </c>
       <c r="AJ164" s="7"/>
       <c r="AK164" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AL164" s="7"/>
     </row>
@@ -14808,37 +14887,37 @@
         <v>39</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="O165" s="7"/>
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
       <c r="R165" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S165" s="7"/>
       <c r="T165" s="7"/>
@@ -14876,37 +14955,37 @@
         <v>39</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="O166" s="7"/>
       <c r="P166" s="7"/>
       <c r="Q166" s="7"/>
       <c r="R166" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S166" s="7"/>
       <c r="T166" s="7"/>
@@ -14944,37 +15023,37 @@
         <v>39</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F167" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I167" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="O167" s="7"/>
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
       <c r="R167" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S167" s="7"/>
       <c r="T167" s="7"/>
@@ -15012,37 +15091,37 @@
         <v>39</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="O168" s="7"/>
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
       <c r="R168" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S168" s="7"/>
       <c r="T168" s="7"/>
@@ -15080,22 +15159,22 @@
         <v>39</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
@@ -15106,7 +15185,7 @@
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
       <c r="R169" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S169" s="7"/>
       <c r="T169" s="7"/>
@@ -15129,7 +15208,7 @@
       </c>
       <c r="AJ169" s="7"/>
       <c r="AK169" s="10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AL169" s="7"/>
     </row>
@@ -15144,22 +15223,22 @@
         <v>39</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="I170" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="I170" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
@@ -15170,7 +15249,7 @@
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
       <c r="R170" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S170" s="7"/>
       <c r="T170" s="7"/>
@@ -15208,42 +15287,42 @@
         <v>39</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I171" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
       <c r="N171" s="8" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="O171" s="7"/>
       <c r="P171" s="7"/>
       <c r="Q171" s="7"/>
       <c r="R171" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="S171" s="7"/>
       <c r="T171" s="7"/>
       <c r="U171" s="7"/>
       <c r="V171" s="7"/>
       <c r="W171" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="X171" s="7"/>
       <c r="Y171" s="7"/>
@@ -15274,42 +15353,42 @@
         <v>39</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
       <c r="N172" s="8" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O172" s="7"/>
       <c r="P172" s="7"/>
       <c r="Q172" s="7"/>
       <c r="R172" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="S172" s="7"/>
       <c r="T172" s="7"/>
       <c r="U172" s="7"/>
       <c r="V172" s="7"/>
       <c r="W172" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="X172" s="7"/>
       <c r="Y172" s="7"/>
@@ -15340,37 +15419,37 @@
         <v>39</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I173" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="N173" s="10" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="O173" s="7"/>
       <c r="P173" s="7"/>
       <c r="Q173" s="7"/>
       <c r="R173" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S173" s="7"/>
       <c r="T173" s="7"/>
@@ -15393,7 +15472,7 @@
       </c>
       <c r="AJ173" s="7"/>
       <c r="AK173" s="10" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AL173" s="7"/>
     </row>
@@ -15408,37 +15487,37 @@
         <v>39</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I174" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="O174" s="7"/>
       <c r="P174" s="7"/>
       <c r="Q174" s="7"/>
       <c r="R174" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S174" s="7"/>
       <c r="T174" s="7"/>
@@ -15476,37 +15555,37 @@
         <v>39</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="O175" s="7"/>
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
       <c r="R175" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S175" s="7"/>
       <c r="T175" s="7"/>
@@ -15529,7 +15608,7 @@
       </c>
       <c r="AJ175" s="7"/>
       <c r="AK175" s="10" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="AL175" s="7"/>
     </row>
@@ -15544,20 +15623,20 @@
         <v>39</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
@@ -15568,7 +15647,7 @@
       <c r="P176" s="7"/>
       <c r="Q176" s="7"/>
       <c r="R176" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="S176" s="7"/>
       <c r="T176" s="7"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
@@ -1530,7 +1530,7 @@
     <t xml:space="preserve">Dobriy - Apple - 1L, Dobriy - Apple - 0.2L</t>
   </si>
   <si>
-    <t xml:space="preserve">4607042434877, 4607042430619</t>
+    <t xml:space="preserve">4607042434877, 4607042430619=4607042434891, 4607042430565</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
@@ -1545,7 +1545,7 @@
     <t xml:space="preserve">Dobriy - Multifruit - 1L, Dobriy - Multifruit - 0.2L</t>
   </si>
   <si>
-    <t xml:space="preserve">4607042434891, 4607042430565</t>
+    <t xml:space="preserve">4607042434891, 4607042430565=4607042434877, 4607042430619</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
@@ -2241,51 +2241,51 @@
   </sheetPr>
   <dimension ref="A1:AL176"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="N124" activeCellId="0" sqref="N124"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="N138" activeCellId="0" sqref="N138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="54.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="58.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="137.862348178138"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="167.534412955466"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="139.04048582996"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="169.032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -15673,7 +15673,7 @@
       <c r="AL176" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
+  <autoFilter ref="A1:AL176"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Convenience Small" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Convenience Small'!$A$1:$AL$176</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="605">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">Кока-Кола Зеро Вишня- 0.9л</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000251626</t>
+    <t xml:space="preserve">5449000251626, 5449000251619</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
@@ -608,9 +608,6 @@
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongras - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">5449000189301, 5449000235947</t>
@@ -2048,12 +2045,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2105,7 +2108,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2151,6 +2154,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2211,7 +2222,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -2241,51 +2252,51 @@
   </sheetPr>
   <dimension ref="A1:AL176"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="N138" activeCellId="0" sqref="N138"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="M114" activeCellId="0" sqref="M114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="55.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="55.7004048582996"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="58.3076923076923"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="139.04048582996"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="169.032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="140.218623481781"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="170.534412955466"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="3" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="72.4129554655871"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="39" style="1" width="9.10526315789474"/>
   </cols>
@@ -3603,10 +3614,10 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O17" s="7"/>
@@ -5802,10 +5813,10 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="N45" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -5867,10 +5878,10 @@
         <v>137</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>52</v>
@@ -5882,10 +5893,10 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -5947,10 +5958,10 @@
         <v>137</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>52</v>
@@ -5962,10 +5973,10 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="N47" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
@@ -6027,10 +6038,10 @@
         <v>137</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>52</v>
@@ -6042,10 +6053,10 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -6107,10 +6118,10 @@
         <v>137</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>47</v>
@@ -6150,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="AK49" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL49" s="7" t="n">
         <v>300</v>
@@ -6173,10 +6184,10 @@
         <v>137</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>52</v>
@@ -6188,10 +6199,10 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -6253,10 +6264,10 @@
         <v>137</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>52</v>
@@ -6268,10 +6279,10 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
@@ -6333,10 +6344,10 @@
         <v>137</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>52</v>
@@ -6348,10 +6359,10 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
@@ -6413,10 +6424,10 @@
         <v>137</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>52</v>
@@ -6428,10 +6439,10 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
@@ -6493,10 +6504,10 @@
         <v>137</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>52</v>
@@ -6508,10 +6519,10 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
@@ -6573,10 +6584,10 @@
         <v>137</v>
       </c>
       <c r="F55" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>52</v>
@@ -6588,10 +6599,10 @@
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
@@ -6653,10 +6664,10 @@
         <v>137</v>
       </c>
       <c r="F56" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>52</v>
@@ -6668,10 +6679,10 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
@@ -6733,10 +6744,10 @@
         <v>137</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>52</v>
@@ -6748,10 +6759,10 @@
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O57" s="7"/>
       <c r="P57" s="7"/>
@@ -6813,10 +6824,10 @@
         <v>137</v>
       </c>
       <c r="F58" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>52</v>
@@ -6828,10 +6839,10 @@
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
@@ -6893,10 +6904,10 @@
         <v>137</v>
       </c>
       <c r="F59" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>52</v>
@@ -6908,10 +6919,10 @@
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O59" s="7"/>
       <c r="P59" s="7"/>
@@ -6973,10 +6984,10 @@
         <v>137</v>
       </c>
       <c r="F60" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>52</v>
@@ -6988,10 +6999,10 @@
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
@@ -7053,10 +7064,10 @@
         <v>137</v>
       </c>
       <c r="F61" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>52</v>
@@ -7068,10 +7079,10 @@
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O61" s="7"/>
       <c r="P61" s="7"/>
@@ -7133,10 +7144,10 @@
         <v>137</v>
       </c>
       <c r="F62" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>52</v>
@@ -7148,10 +7159,10 @@
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O62" s="7"/>
       <c r="P62" s="7"/>
@@ -7213,10 +7224,10 @@
         <v>137</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>52</v>
@@ -7228,10 +7239,10 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
@@ -7293,10 +7304,10 @@
         <v>137</v>
       </c>
       <c r="F64" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>52</v>
@@ -7308,10 +7319,10 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O64" s="7"/>
       <c r="P64" s="7"/>
@@ -7373,10 +7384,10 @@
         <v>137</v>
       </c>
       <c r="F65" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>52</v>
@@ -7388,10 +7399,10 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
@@ -7453,10 +7464,10 @@
         <v>137</v>
       </c>
       <c r="F66" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>52</v>
@@ -7468,10 +7479,10 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
@@ -7533,10 +7544,10 @@
         <v>137</v>
       </c>
       <c r="F67" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>52</v>
@@ -7548,10 +7559,10 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
@@ -7613,10 +7624,10 @@
         <v>137</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>52</v>
@@ -7628,10 +7639,10 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
@@ -7693,10 +7704,10 @@
         <v>137</v>
       </c>
       <c r="F69" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>52</v>
@@ -7708,10 +7719,10 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
@@ -7773,10 +7784,10 @@
         <v>137</v>
       </c>
       <c r="F70" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>52</v>
@@ -7788,10 +7799,10 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
@@ -7853,10 +7864,10 @@
         <v>137</v>
       </c>
       <c r="F71" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>52</v>
@@ -7868,10 +7879,10 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O71" s="7"/>
       <c r="P71" s="7"/>
@@ -7933,10 +7944,10 @@
         <v>137</v>
       </c>
       <c r="F72" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>52</v>
@@ -7948,10 +7959,10 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O72" s="7"/>
       <c r="P72" s="7"/>
@@ -8013,10 +8024,10 @@
         <v>137</v>
       </c>
       <c r="F73" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>52</v>
@@ -8028,10 +8039,10 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O73" s="7"/>
       <c r="P73" s="7"/>
@@ -8093,10 +8104,10 @@
         <v>137</v>
       </c>
       <c r="F74" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>52</v>
@@ -8108,10 +8119,10 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O74" s="7"/>
       <c r="P74" s="7"/>
@@ -8173,10 +8184,10 @@
         <v>137</v>
       </c>
       <c r="F75" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>52</v>
@@ -8188,10 +8199,10 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O75" s="7"/>
       <c r="P75" s="7"/>
@@ -8253,10 +8264,10 @@
         <v>137</v>
       </c>
       <c r="F76" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>52</v>
@@ -8268,7 +8279,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N76" s="8" t="n">
         <v>4650075422922</v>
@@ -8333,10 +8344,10 @@
         <v>137</v>
       </c>
       <c r="F77" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>52</v>
@@ -8348,10 +8359,10 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O77" s="7"/>
       <c r="P77" s="7"/>
@@ -8413,10 +8424,10 @@
         <v>137</v>
       </c>
       <c r="F78" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>52</v>
@@ -8428,7 +8439,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N78" s="8" t="n">
         <v>4650075421550</v>
@@ -8493,10 +8504,10 @@
         <v>137</v>
       </c>
       <c r="F79" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>52</v>
@@ -8508,10 +8519,10 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
@@ -8573,10 +8584,10 @@
         <v>137</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>52</v>
@@ -8588,10 +8599,10 @@
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O80" s="7"/>
       <c r="P80" s="7"/>
@@ -8653,10 +8664,10 @@
         <v>137</v>
       </c>
       <c r="F81" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>47</v>
@@ -8696,7 +8707,7 @@
         <v>2</v>
       </c>
       <c r="AK81" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL81" s="7" t="n">
         <v>300</v>
@@ -8719,13 +8730,13 @@
         <v>137</v>
       </c>
       <c r="F82" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>47</v>
+      <c r="H82" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7" t="n">
@@ -8734,7 +8745,7 @@
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N82" s="8" t="n">
         <v>5449000244239</v>
@@ -8799,13 +8810,13 @@
         <v>137</v>
       </c>
       <c r="F83" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>47</v>
+      <c r="H83" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7" t="n">
@@ -8814,7 +8825,7 @@
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N83" s="8" t="n">
         <v>5449000244253</v>
@@ -8879,13 +8890,13 @@
         <v>137</v>
       </c>
       <c r="F84" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>47</v>
+      <c r="H84" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7" t="n">
@@ -8894,7 +8905,7 @@
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N84" s="8" t="n">
         <v>54008212</v>
@@ -8957,10 +8968,10 @@
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>40</v>
@@ -8998,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="AK85" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL85" s="7"/>
     </row>
@@ -9017,10 +9028,10 @@
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>40</v>
@@ -9058,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="AK86" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL86" s="7" t="n">
         <v>520</v>
@@ -9075,19 +9086,19 @@
         <v>39</v>
       </c>
       <c r="D87" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="H87" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7" t="n">
@@ -9096,27 +9107,27 @@
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="N87" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="N87" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="O87" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R87" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
       <c r="W87" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
@@ -9124,7 +9135,7 @@
       <c r="AA87" s="7"/>
       <c r="AB87" s="7"/>
       <c r="AC87" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD87" s="9" t="n">
         <v>0.0625</v>
@@ -9155,19 +9166,19 @@
         <v>39</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E88" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7" t="n">
@@ -9180,7 +9191,7 @@
       <c r="O88" s="7"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
@@ -9188,14 +9199,14 @@
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
       <c r="W88" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
       <c r="AA88" s="7"/>
       <c r="AB88" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC88" s="7" t="s">
         <v>58</v>
@@ -9214,7 +9225,7 @@
         <v>2</v>
       </c>
       <c r="AK88" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AL88" s="7" t="n">
         <v>501</v>
@@ -9231,16 +9242,16 @@
         <v>39</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F89" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>52</v>
@@ -9270,14 +9281,14 @@
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
       <c r="W89" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="7"/>
       <c r="AB89" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC89" s="7" t="s">
         <v>58</v>
@@ -9309,16 +9320,16 @@
         <v>39</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F90" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>52</v>
@@ -9330,7 +9341,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N90" s="8" t="s">
         <v>53</v>
@@ -9348,14 +9359,14 @@
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
       <c r="W90" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="7"/>
       <c r="AB90" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC90" s="7" t="s">
         <v>58</v>
@@ -9387,16 +9398,16 @@
         <v>39</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F91" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>52</v>
@@ -9426,14 +9437,14 @@
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
       <c r="W91" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="7"/>
       <c r="AB91" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC91" s="7" t="s">
         <v>58</v>
@@ -9465,16 +9476,16 @@
         <v>39</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F92" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>52</v>
@@ -9504,14 +9515,14 @@
       <c r="U92" s="7"/>
       <c r="V92" s="7"/>
       <c r="W92" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="7"/>
       <c r="AB92" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC92" s="7" t="s">
         <v>58</v>
@@ -9543,16 +9554,16 @@
         <v>39</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F93" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>52</v>
@@ -9564,7 +9575,7 @@
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N93" s="8" t="s">
         <v>76</v>
@@ -9582,14 +9593,14 @@
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
       <c r="W93" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
       <c r="AA93" s="7"/>
       <c r="AB93" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC93" s="7" t="s">
         <v>58</v>
@@ -9621,16 +9632,16 @@
         <v>39</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F94" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>52</v>
@@ -9660,14 +9671,14 @@
       <c r="U94" s="7"/>
       <c r="V94" s="7"/>
       <c r="W94" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
       <c r="AA94" s="7"/>
       <c r="AB94" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC94" s="7" t="s">
         <v>58</v>
@@ -9699,16 +9710,16 @@
         <v>39</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F95" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>52</v>
@@ -9720,7 +9731,7 @@
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N95" s="8" t="s">
         <v>73</v>
@@ -9738,14 +9749,14 @@
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
       <c r="W95" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
       <c r="AA95" s="7"/>
       <c r="AB95" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC95" s="7" t="s">
         <v>58</v>
@@ -9777,16 +9788,16 @@
         <v>39</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>52</v>
@@ -9816,14 +9827,14 @@
       <c r="U96" s="7"/>
       <c r="V96" s="7"/>
       <c r="W96" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
       <c r="AA96" s="7"/>
       <c r="AB96" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC96" s="7" t="s">
         <v>58</v>
@@ -9855,16 +9866,16 @@
         <v>39</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>52</v>
@@ -9876,7 +9887,7 @@
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N97" s="8" t="n">
         <v>5449000064110</v>
@@ -9894,14 +9905,14 @@
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
       <c r="W97" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
       <c r="AA97" s="7"/>
       <c r="AB97" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC97" s="7" t="s">
         <v>58</v>
@@ -9937,10 +9948,10 @@
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>40</v>
@@ -9978,7 +9989,7 @@
         <v>1</v>
       </c>
       <c r="AK98" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL98" s="7" t="n">
         <v>520</v>
@@ -9998,16 +10009,16 @@
         <v>40</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="H99" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7" t="n">
@@ -10016,27 +10027,27 @@
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
       <c r="W99" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
@@ -10044,7 +10055,7 @@
       <c r="AA99" s="7"/>
       <c r="AB99" s="7"/>
       <c r="AC99" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD99" s="9" t="n">
         <v>0.0525</v>
@@ -10075,19 +10086,19 @@
         <v>39</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F100" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>347</v>
-      </c>
       <c r="H100" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7" t="n">
@@ -10100,7 +10111,7 @@
       <c r="O100" s="7"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
@@ -10108,14 +10119,14 @@
       <c r="U100" s="7"/>
       <c r="V100" s="7"/>
       <c r="W100" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
       <c r="AA100" s="7"/>
       <c r="AB100" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC100" s="7" t="s">
         <v>58</v>
@@ -10134,7 +10145,7 @@
         <v>2</v>
       </c>
       <c r="AK100" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL100" s="7" t="n">
         <v>502</v>
@@ -10151,16 +10162,16 @@
         <v>39</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F101" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>52</v>
@@ -10172,7 +10183,7 @@
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N101" s="8" t="n">
         <v>4607042434877</v>
@@ -10190,14 +10201,14 @@
       <c r="U101" s="7"/>
       <c r="V101" s="7"/>
       <c r="W101" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
       <c r="AA101" s="7"/>
       <c r="AB101" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC101" s="7" t="s">
         <v>58</v>
@@ -10229,16 +10240,16 @@
         <v>39</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F102" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>52</v>
@@ -10250,7 +10261,7 @@
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N102" s="8" t="n">
         <v>4607042434891</v>
@@ -10268,14 +10279,14 @@
       <c r="U102" s="7"/>
       <c r="V102" s="7"/>
       <c r="W102" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
       <c r="AA102" s="7"/>
       <c r="AB102" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC102" s="7" t="s">
         <v>58</v>
@@ -10307,16 +10318,16 @@
         <v>39</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F103" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>52</v>
@@ -10328,7 +10339,7 @@
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N103" s="8" t="n">
         <v>4607042438738</v>
@@ -10346,14 +10357,14 @@
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
       <c r="W103" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
       <c r="AA103" s="7"/>
       <c r="AB103" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC103" s="7" t="s">
         <v>58</v>
@@ -10385,16 +10396,16 @@
         <v>39</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F104" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>52</v>
@@ -10406,7 +10417,7 @@
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N104" s="8" t="n">
         <v>4607042439155</v>
@@ -10424,14 +10435,14 @@
       <c r="U104" s="7"/>
       <c r="V104" s="7"/>
       <c r="W104" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X104" s="7"/>
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
       <c r="AA104" s="7"/>
       <c r="AB104" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC104" s="7" t="s">
         <v>58</v>
@@ -10463,16 +10474,16 @@
         <v>39</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F105" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>52</v>
@@ -10484,7 +10495,7 @@
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N105" s="8" t="n">
         <v>4607042439216</v>
@@ -10502,14 +10513,14 @@
       <c r="U105" s="7"/>
       <c r="V105" s="7"/>
       <c r="W105" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
       <c r="AA105" s="7"/>
       <c r="AB105" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC105" s="7" t="s">
         <v>58</v>
@@ -10545,10 +10556,10 @@
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>40</v>
@@ -10586,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="AK106" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AL106" s="7" t="n">
         <v>520</v>
@@ -10606,16 +10617,16 @@
         <v>40</v>
       </c>
       <c r="E107" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F107" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="H107" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7" t="n">
@@ -10624,27 +10635,27 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
       <c r="W107" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
@@ -10652,7 +10663,7 @@
       <c r="AA107" s="7"/>
       <c r="AB107" s="7"/>
       <c r="AC107" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD107" s="9" t="n">
         <v>0.0125</v>
@@ -10683,19 +10694,19 @@
         <v>39</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F108" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="H108" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7" t="n">
@@ -10708,7 +10719,7 @@
       <c r="O108" s="7"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
@@ -10716,14 +10727,14 @@
       <c r="U108" s="7"/>
       <c r="V108" s="7"/>
       <c r="W108" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
       <c r="AA108" s="7"/>
       <c r="AB108" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC108" s="7" t="s">
         <v>58</v>
@@ -10742,7 +10753,7 @@
         <v>2</v>
       </c>
       <c r="AK108" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AL108" s="7" t="n">
         <v>503</v>
@@ -10759,10 +10770,10 @@
         <v>39</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>144</v>
@@ -10798,14 +10809,14 @@
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
       <c r="W109" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
       <c r="AA109" s="7"/>
       <c r="AB109" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC109" s="7" t="s">
         <v>58</v>
@@ -10841,10 +10852,10 @@
       </c>
       <c r="E110" s="7"/>
       <c r="F110" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>40</v>
@@ -10882,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="AK110" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL110" s="7" t="n">
         <v>520</v>
@@ -10902,16 +10913,16 @@
         <v>40</v>
       </c>
       <c r="E111" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="G111" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>374</v>
-      </c>
       <c r="H111" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7" t="n">
@@ -10920,27 +10931,27 @@
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P111" s="7"/>
       <c r="Q111" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
       <c r="W111" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
@@ -10948,7 +10959,7 @@
       <c r="AA111" s="7"/>
       <c r="AB111" s="7"/>
       <c r="AC111" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD111" s="9" t="n">
         <v>0.0275</v>
@@ -10979,19 +10990,19 @@
         <v>39</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F112" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="H112" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7" t="n">
@@ -11004,7 +11015,7 @@
       <c r="O112" s="7"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
@@ -11012,14 +11023,14 @@
       <c r="U112" s="7"/>
       <c r="V112" s="7"/>
       <c r="W112" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
       <c r="AA112" s="7"/>
       <c r="AB112" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC112" s="7" t="s">
         <v>58</v>
@@ -11038,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="AK112" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL112" s="7" t="n">
         <v>504</v>
@@ -11055,16 +11066,16 @@
         <v>39</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F113" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>52</v>
@@ -11094,14 +11105,14 @@
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
       <c r="W113" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
       <c r="AA113" s="7"/>
       <c r="AB113" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC113" s="7" t="s">
         <v>58</v>
@@ -11133,16 +11144,16 @@
         <v>39</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F114" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>52</v>
@@ -11157,7 +11168,7 @@
         <v>177</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O114" s="7"/>
       <c r="P114" s="7"/>
@@ -11172,14 +11183,14 @@
       <c r="U114" s="7"/>
       <c r="V114" s="7"/>
       <c r="W114" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
       <c r="AA114" s="7"/>
       <c r="AB114" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC114" s="7" t="s">
         <v>58</v>
@@ -11215,10 +11226,10 @@
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>40</v>
@@ -11276,16 +11287,16 @@
         <v>40</v>
       </c>
       <c r="E116" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F116" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="G116" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G116" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="H116" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7" t="n">
@@ -11294,27 +11305,27 @@
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N116" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P116" s="7"/>
       <c r="Q116" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
       <c r="V116" s="7"/>
       <c r="W116" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
@@ -11322,7 +11333,7 @@
       <c r="AA116" s="7"/>
       <c r="AB116" s="7"/>
       <c r="AC116" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD116" s="9" t="n">
         <v>0.035</v>
@@ -11357,10 +11368,10 @@
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>40</v>
@@ -11398,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="AK117" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL117" s="7"/>
     </row>
@@ -11417,10 +11428,10 @@
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>40</v>
@@ -11458,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="AK118" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL118" s="7" t="n">
         <v>301</v>
@@ -11478,16 +11489,16 @@
         <v>40</v>
       </c>
       <c r="E119" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="G119" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="H119" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7" t="n">
@@ -11500,7 +11511,7 @@
       <c r="O119" s="7"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
@@ -11511,7 +11522,7 @@
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA119" s="7"/>
       <c r="AB119" s="7"/>
@@ -11532,7 +11543,7 @@
         <v>2</v>
       </c>
       <c r="AK119" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL119" s="7" t="n">
         <v>302</v>
@@ -11552,13 +11563,13 @@
         <v>40</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F120" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>52</v>
@@ -11570,20 +11581,20 @@
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="N120" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="N120" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="O120" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P120" s="7"/>
       <c r="Q120" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
@@ -11593,7 +11604,7 @@
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
       <c r="Z120" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA120" s="7"/>
       <c r="AB120" s="7"/>
@@ -11630,16 +11641,16 @@
         <v>40</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F121" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="G121" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7" t="n">
@@ -11655,19 +11666,19 @@
         <v>54</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
       <c r="U121" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="V121" s="7"/>
       <c r="W121" s="7"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA121" s="7"/>
       <c r="AB121" s="7"/>
@@ -11704,29 +11715,29 @@
         <v>40</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F122" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G122" s="7" t="s">
+      <c r="H122" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N122" s="8" t="s">
         <v>53</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P122" s="7"/>
       <c r="Q122" s="7" t="s">
@@ -11743,7 +11754,7 @@
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
       <c r="Z122" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA122" s="7"/>
       <c r="AB122" s="7"/>
@@ -11754,7 +11765,7 @@
       <c r="AE122" s="7"/>
       <c r="AF122" s="7"/>
       <c r="AG122" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AH122" s="7"/>
       <c r="AI122" s="7" t="n">
@@ -11779,19 +11790,19 @@
         <v>39</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F123" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="G123" s="7" t="s">
-        <v>412</v>
-      </c>
       <c r="H123" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7" t="n">
@@ -11804,7 +11815,7 @@
       <c r="O123" s="7"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
@@ -11815,7 +11826,7 @@
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA123" s="7"/>
       <c r="AB123" s="7"/>
@@ -11828,10 +11839,10 @@
       <c r="AE123" s="7"/>
       <c r="AF123" s="7"/>
       <c r="AG123" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AH123" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AI123" s="7" t="n">
         <v>106</v>
@@ -11840,7 +11851,7 @@
         <v>2</v>
       </c>
       <c r="AK123" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL123" s="7" t="n">
         <v>302</v>
@@ -11857,16 +11868,16 @@
         <v>39</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F124" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>52</v>
@@ -11878,10 +11889,10 @@
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="N124" s="13" t="s">
         <v>417</v>
-      </c>
-      <c r="N124" s="11" t="s">
-        <v>418</v>
       </c>
       <c r="O124" s="7"/>
       <c r="P124" s="7"/>
@@ -11899,7 +11910,7 @@
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
       <c r="Z124" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA124" s="7"/>
       <c r="AB124" s="7"/>
@@ -11933,16 +11944,16 @@
         <v>39</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F125" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>52</v>
@@ -11954,10 +11965,10 @@
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="N125" s="13" t="s">
         <v>421</v>
-      </c>
-      <c r="N125" s="11" t="s">
-        <v>422</v>
       </c>
       <c r="O125" s="7"/>
       <c r="P125" s="7"/>
@@ -11975,7 +11986,7 @@
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA125" s="7"/>
       <c r="AB125" s="7"/>
@@ -12009,16 +12020,16 @@
         <v>39</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F126" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>52</v>
@@ -12030,10 +12041,10 @@
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="N126" s="13" t="s">
         <v>425</v>
-      </c>
-      <c r="N126" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="O126" s="7"/>
       <c r="P126" s="7"/>
@@ -12051,7 +12062,7 @@
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA126" s="7"/>
       <c r="AB126" s="7"/>
@@ -12085,16 +12096,16 @@
         <v>39</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F127" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>52</v>
@@ -12106,9 +12117,9 @@
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="N127" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="N127" s="13" t="s">
         <v>73</v>
       </c>
       <c r="O127" s="7"/>
@@ -12127,7 +12138,7 @@
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA127" s="7"/>
       <c r="AB127" s="7"/>
@@ -12164,16 +12175,16 @@
         <v>40</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F128" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="G128" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="H128" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7" t="n">
@@ -12186,7 +12197,7 @@
       <c r="O128" s="7"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
@@ -12197,7 +12208,7 @@
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA128" s="7"/>
       <c r="AB128" s="7"/>
@@ -12218,7 +12229,7 @@
         <v>2</v>
       </c>
       <c r="AK128" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AL128" s="7" t="n">
         <v>302</v>
@@ -12238,13 +12249,13 @@
         <v>40</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F129" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>52</v>
@@ -12256,20 +12267,20 @@
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="N129" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="N129" s="8" t="s">
-        <v>306</v>
-      </c>
       <c r="O129" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P129" s="7"/>
       <c r="Q129" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R129" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S129" s="7"/>
       <c r="T129" s="7"/>
@@ -12279,7 +12290,7 @@
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA129" s="7"/>
       <c r="AB129" s="7"/>
@@ -12316,16 +12327,16 @@
         <v>40</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F130" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>437</v>
-      </c>
       <c r="H130" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7" t="n">
@@ -12341,19 +12352,19 @@
         <v>54</v>
       </c>
       <c r="R130" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V130" s="7"/>
       <c r="W130" s="7"/>
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA130" s="7"/>
       <c r="AB130" s="7"/>
@@ -12390,29 +12401,29 @@
         <v>40</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F131" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="G131" s="7" t="s">
-        <v>440</v>
-      </c>
       <c r="H131" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="7"/>
       <c r="M131" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N131" s="8" t="s">
         <v>53</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P131" s="7"/>
       <c r="Q131" s="7" t="s">
@@ -12429,7 +12440,7 @@
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AA131" s="7"/>
       <c r="AB131" s="7"/>
@@ -12440,7 +12451,7 @@
       <c r="AE131" s="7"/>
       <c r="AF131" s="7"/>
       <c r="AG131" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AH131" s="7"/>
       <c r="AI131" s="7" t="n">
@@ -12469,10 +12480,10 @@
       </c>
       <c r="E132" s="7"/>
       <c r="F132" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>40</v>
@@ -12530,16 +12541,16 @@
         <v>40</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F133" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G133" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="H133" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7" t="n">
@@ -12552,7 +12563,7 @@
       <c r="O133" s="7"/>
       <c r="P133" s="7"/>
       <c r="Q133" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
@@ -12563,7 +12574,7 @@
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA133" s="7"/>
       <c r="AB133" s="7"/>
@@ -12584,7 +12595,7 @@
         <v>2</v>
       </c>
       <c r="AK133" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AL133" s="7" t="n">
         <v>303</v>
@@ -12604,13 +12615,13 @@
         <v>40</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F134" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>52</v>
@@ -12622,20 +12633,20 @@
       <c r="K134" s="7"/>
       <c r="L134" s="7"/>
       <c r="M134" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P134" s="7"/>
       <c r="Q134" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R134" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
@@ -12645,7 +12656,7 @@
       <c r="X134" s="7"/>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA134" s="7"/>
       <c r="AB134" s="7"/>
@@ -12682,16 +12693,16 @@
         <v>40</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F135" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G135" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="G135" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="H135" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7" t="n">
@@ -12707,19 +12718,19 @@
         <v>54</v>
       </c>
       <c r="R135" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V135" s="7"/>
       <c r="W135" s="7"/>
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA135" s="7"/>
       <c r="AB135" s="7"/>
@@ -12756,16 +12767,16 @@
         <v>40</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F136" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="H136" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7" t="n">
@@ -12789,7 +12800,7 @@
       <c r="X136" s="7"/>
       <c r="Y136" s="7"/>
       <c r="Z136" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA136" s="7"/>
       <c r="AB136" s="7"/>
@@ -12808,7 +12819,7 @@
         <v>3</v>
       </c>
       <c r="AK136" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AL136" s="7" t="n">
         <v>115</v>
@@ -12828,26 +12839,26 @@
         <v>40</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G137" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="G137" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="H137" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="7"/>
       <c r="M137" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="N137" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="N137" s="8" t="s">
-        <v>460</v>
       </c>
       <c r="O137" s="7"/>
       <c r="P137" s="7"/>
@@ -12865,7 +12876,7 @@
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA137" s="7"/>
       <c r="AB137" s="7"/>
@@ -12876,7 +12887,7 @@
       <c r="AE137" s="7"/>
       <c r="AF137" s="7"/>
       <c r="AG137" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AH137" s="7"/>
       <c r="AI137" s="7" t="n">
@@ -12904,26 +12915,26 @@
         <v>40</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F138" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G138" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="G138" s="7" t="s">
-        <v>463</v>
-      </c>
       <c r="H138" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
       <c r="M138" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="N138" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="N138" s="8" t="s">
-        <v>465</v>
       </c>
       <c r="O138" s="7"/>
       <c r="P138" s="7"/>
@@ -12941,7 +12952,7 @@
       <c r="X138" s="7"/>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AA138" s="7"/>
       <c r="AB138" s="7"/>
@@ -12952,7 +12963,7 @@
       <c r="AE138" s="7"/>
       <c r="AF138" s="7"/>
       <c r="AG138" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH138" s="7"/>
       <c r="AI138" s="7" t="n">
@@ -12980,16 +12991,16 @@
         <v>40</v>
       </c>
       <c r="E139" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F139" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="G139" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="H139" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -13000,7 +13011,7 @@
       <c r="O139" s="7"/>
       <c r="P139" s="7"/>
       <c r="Q139" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
@@ -13022,7 +13033,7 @@
       <c r="AE139" s="7"/>
       <c r="AF139" s="7"/>
       <c r="AG139" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AH139" s="7"/>
       <c r="AI139" s="7" t="n">
@@ -13032,7 +13043,7 @@
         <v>2</v>
       </c>
       <c r="AK139" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AL139" s="7" t="n">
         <v>311</v>
@@ -13053,10 +13064,10 @@
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>40</v>
@@ -13094,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="AK140" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AL140" s="7"/>
     </row>
@@ -13113,10 +13124,10 @@
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>40</v>
@@ -13174,16 +13185,16 @@
         <v>40</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="G142" s="7" t="s">
+      <c r="H142" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7" t="n">
@@ -13194,23 +13205,23 @@
       </c>
       <c r="L142" s="7"/>
       <c r="M142" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N142" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O142" s="7"/>
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
       <c r="R142" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
       <c r="U142" s="7"/>
       <c r="V142" s="7"/>
       <c r="W142" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X142" s="7"/>
       <c r="Y142" s="7"/>
@@ -13250,16 +13261,16 @@
         <v>40</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F143" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G143" s="7" t="s">
+      <c r="H143" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7" t="n">
@@ -13268,23 +13279,23 @@
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
       <c r="M143" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O143" s="7"/>
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
       <c r="R143" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
       <c r="U143" s="7"/>
       <c r="V143" s="7"/>
       <c r="W143" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
@@ -13325,10 +13336,10 @@
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>40</v>
@@ -13366,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="AK144" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AL144" s="7" t="n">
         <v>310</v>
@@ -13386,16 +13397,16 @@
         <v>40</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="G145" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="H145" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7" t="n">
@@ -13409,16 +13420,16 @@
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
       <c r="R145" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
       <c r="U145" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V145" s="7"/>
       <c r="W145" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X145" s="7"/>
       <c r="Y145" s="7"/>
@@ -13434,10 +13445,10 @@
       <c r="AE145" s="7"/>
       <c r="AF145" s="7"/>
       <c r="AG145" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH145" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI145" s="7" t="n">
         <v>124</v>
@@ -13464,16 +13475,16 @@
         <v>40</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F146" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="G146" s="7" t="s">
+      <c r="H146" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -13484,23 +13495,23 @@
         <v>15</v>
       </c>
       <c r="M146" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N146" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O146" s="7"/>
       <c r="P146" s="7"/>
       <c r="Q146" s="7"/>
       <c r="R146" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
       <c r="U146" s="7"/>
       <c r="V146" s="7"/>
       <c r="W146" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X146" s="7"/>
       <c r="Y146" s="7"/>
@@ -13516,10 +13527,10 @@
       <c r="AE146" s="7"/>
       <c r="AF146" s="7"/>
       <c r="AG146" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH146" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI146" s="7" t="n">
         <v>125</v>
@@ -13546,13 +13557,13 @@
         <v>40</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F147" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>47</v>
@@ -13566,7 +13577,7 @@
       <c r="O147" s="7"/>
       <c r="P147" s="7"/>
       <c r="Q147" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
@@ -13574,7 +13585,7 @@
       <c r="U147" s="7"/>
       <c r="V147" s="7"/>
       <c r="W147" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X147" s="7"/>
       <c r="Y147" s="7"/>
@@ -13582,7 +13593,7 @@
       <c r="AA147" s="7"/>
       <c r="AB147" s="7"/>
       <c r="AC147" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD147" s="9" t="n">
         <v>0.025</v>
@@ -13590,10 +13601,10 @@
       <c r="AE147" s="7"/>
       <c r="AF147" s="7"/>
       <c r="AG147" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH147" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI147" s="7" t="n">
         <v>126</v>
@@ -13602,7 +13613,7 @@
         <v>2</v>
       </c>
       <c r="AK147" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AL147" s="7" t="n">
         <v>312</v>
@@ -13623,13 +13634,13 @@
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="G148" s="7" t="s">
-        <v>504</v>
-      </c>
       <c r="H148" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7" t="n">
@@ -13638,30 +13649,30 @@
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
       <c r="M148" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="N148" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="N148" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="O148" s="7"/>
       <c r="P148" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q148" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R148" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
       <c r="U148" s="7"/>
       <c r="V148" s="7"/>
       <c r="W148" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X148" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
@@ -13674,10 +13685,10 @@
       <c r="AE148" s="7"/>
       <c r="AF148" s="7"/>
       <c r="AG148" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH148" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI148" s="7" t="n">
         <v>128</v>
@@ -13705,13 +13716,13 @@
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="G149" s="7" t="s">
-        <v>510</v>
-      </c>
       <c r="H149" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7" t="n">
@@ -13720,30 +13731,30 @@
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
       <c r="M149" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="N149" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="N149" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="O149" s="7"/>
       <c r="P149" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q149" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R149" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S149" s="7"/>
       <c r="T149" s="7"/>
       <c r="U149" s="7"/>
       <c r="V149" s="7"/>
       <c r="W149" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X149" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
@@ -13756,10 +13767,10 @@
       <c r="AE149" s="7"/>
       <c r="AF149" s="7"/>
       <c r="AG149" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH149" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI149" s="7" t="n">
         <v>129</v>
@@ -13787,13 +13798,13 @@
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="G150" s="7" t="s">
-        <v>513</v>
-      </c>
       <c r="H150" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7" t="n">
@@ -13806,7 +13817,7 @@
       <c r="O150" s="7"/>
       <c r="P150" s="7"/>
       <c r="Q150" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
@@ -13814,7 +13825,7 @@
       <c r="U150" s="7"/>
       <c r="V150" s="7"/>
       <c r="W150" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X150" s="7"/>
       <c r="Y150" s="7"/>
@@ -13828,10 +13839,10 @@
       <c r="AE150" s="7"/>
       <c r="AF150" s="7"/>
       <c r="AG150" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH150" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI150" s="7" t="n">
         <v>130</v>
@@ -13840,7 +13851,7 @@
         <v>3</v>
       </c>
       <c r="AK150" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AL150" s="7" t="n">
         <v>126</v>
@@ -13861,10 +13872,10 @@
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>52</v>
@@ -13876,34 +13887,34 @@
       <c r="K151" s="7"/>
       <c r="L151" s="7"/>
       <c r="M151" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="N151" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="N151" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="O151" s="7"/>
       <c r="P151" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q151" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R151" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
       <c r="U151" s="7"/>
       <c r="V151" s="7"/>
       <c r="W151" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X151" s="7"/>
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
       <c r="AA151" s="7"/>
       <c r="AB151" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC151" s="7" t="s">
         <v>58</v>
@@ -13912,10 +13923,10 @@
       <c r="AE151" s="7"/>
       <c r="AF151" s="7"/>
       <c r="AG151" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH151" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI151" s="7" t="n">
         <v>131</v>
@@ -13943,10 +13954,10 @@
       </c>
       <c r="E152" s="7"/>
       <c r="F152" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>52</v>
@@ -13958,34 +13969,34 @@
       <c r="K152" s="7"/>
       <c r="L152" s="7"/>
       <c r="M152" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="N152" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="N152" s="8" t="s">
-        <v>520</v>
       </c>
       <c r="O152" s="7"/>
       <c r="P152" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q152" s="7" t="s">
         <v>54</v>
       </c>
       <c r="R152" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S152" s="7"/>
       <c r="T152" s="7"/>
       <c r="U152" s="7"/>
       <c r="V152" s="7"/>
       <c r="W152" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X152" s="7"/>
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
       <c r="AA152" s="7"/>
       <c r="AB152" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC152" s="7" t="s">
         <v>58</v>
@@ -13994,10 +14005,10 @@
       <c r="AE152" s="7"/>
       <c r="AF152" s="7"/>
       <c r="AG152" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH152" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI152" s="7" t="n">
         <v>132</v>
@@ -14025,13 +14036,13 @@
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="G153" s="7" t="s">
+      <c r="H153" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7" t="n">
@@ -14040,10 +14051,10 @@
       <c r="K153" s="7"/>
       <c r="L153" s="7"/>
       <c r="M153" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N153" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O153" s="7"/>
       <c r="P153" s="7"/>
@@ -14051,14 +14062,14 @@
         <v>54</v>
       </c>
       <c r="R153" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
       <c r="U153" s="7"/>
       <c r="V153" s="7"/>
       <c r="W153" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X153" s="7"/>
       <c r="Y153" s="7"/>
@@ -14072,10 +14083,10 @@
       <c r="AE153" s="7"/>
       <c r="AF153" s="7"/>
       <c r="AG153" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH153" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI153" s="7" t="n">
         <v>133</v>
@@ -14102,16 +14113,16 @@
         <v>40</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="G154" s="7" t="s">
+      <c r="H154" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -14119,20 +14130,20 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O154" s="7"/>
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
       <c r="R154" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S154" s="7"/>
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
       <c r="V154" s="7"/>
       <c r="W154" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X154" s="7"/>
       <c r="Y154" s="7"/>
@@ -14140,7 +14151,7 @@
       <c r="AA154" s="7"/>
       <c r="AB154" s="7"/>
       <c r="AC154" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD154" s="9" t="n">
         <v>0.025</v>
@@ -14148,10 +14159,10 @@
       <c r="AE154" s="7"/>
       <c r="AF154" s="7"/>
       <c r="AG154" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AH154" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AI154" s="7" t="n">
         <v>135</v>
@@ -14175,19 +14186,19 @@
         <v>39</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="G155" s="7" t="s">
-        <v>528</v>
-      </c>
       <c r="H155" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7" t="n">
@@ -14208,7 +14219,7 @@
       <c r="U155" s="7"/>
       <c r="V155" s="7"/>
       <c r="W155" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="X155" s="7"/>
       <c r="Y155" s="7"/>
@@ -14216,7 +14227,7 @@
       <c r="AA155" s="7"/>
       <c r="AB155" s="7"/>
       <c r="AC155" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AD155" s="9" t="n">
         <v>0.03</v>
@@ -14249,19 +14260,19 @@
         <v>39</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G156" s="7" t="s">
+      <c r="H156" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7" t="n">
@@ -14272,10 +14283,10 @@
       </c>
       <c r="L156" s="7"/>
       <c r="M156" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O156" s="7"/>
       <c r="P156" s="7"/>
@@ -14283,14 +14294,14 @@
         <v>54</v>
       </c>
       <c r="R156" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S156" s="7"/>
       <c r="T156" s="7"/>
       <c r="U156" s="7"/>
       <c r="V156" s="7"/>
       <c r="W156" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="X156" s="7"/>
       <c r="Y156" s="7"/>
@@ -14298,13 +14309,13 @@
       <c r="AA156" s="7"/>
       <c r="AB156" s="7"/>
       <c r="AC156" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AD156" s="9"/>
       <c r="AE156" s="7"/>
       <c r="AF156" s="7"/>
       <c r="AG156" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AH156" s="7"/>
       <c r="AI156" s="7" t="n">
@@ -14333,10 +14344,10 @@
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>40</v>
@@ -14389,16 +14400,16 @@
         <v>39</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F158" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>47</v>
@@ -14437,8 +14448,8 @@
       <c r="AJ158" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="AK158" s="12" t="s">
-        <v>538</v>
+      <c r="AK158" s="14" t="s">
+        <v>537</v>
       </c>
       <c r="AL158" s="7" t="n">
         <v>400</v>
@@ -14455,19 +14466,19 @@
         <v>39</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F159" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="H159" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7" t="n">
@@ -14477,7 +14488,7 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O159" s="7"/>
       <c r="P159" s="7"/>
@@ -14485,7 +14496,7 @@
         <v>54</v>
       </c>
       <c r="R159" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S159" s="7"/>
       <c r="T159" s="7"/>
@@ -14493,7 +14504,7 @@
       <c r="V159" s="7"/>
       <c r="W159" s="7"/>
       <c r="X159" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -14531,19 +14542,19 @@
         <v>39</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E160" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F160" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="G160" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="G160" s="7" t="s">
-        <v>545</v>
-      </c>
       <c r="H160" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7" t="n">
@@ -14553,7 +14564,7 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
       <c r="N160" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O160" s="7"/>
       <c r="P160" s="7"/>
@@ -14561,7 +14572,7 @@
         <v>54</v>
       </c>
       <c r="R160" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S160" s="7"/>
       <c r="T160" s="7"/>
@@ -14569,7 +14580,7 @@
       <c r="V160" s="7"/>
       <c r="W160" s="7"/>
       <c r="X160" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -14607,19 +14618,19 @@
         <v>39</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F161" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G161" s="7" t="s">
-        <v>548</v>
-      </c>
       <c r="H161" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7" t="n">
@@ -14629,7 +14640,7 @@
       <c r="L161" s="7"/>
       <c r="M161" s="7"/>
       <c r="N161" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O161" s="7"/>
       <c r="P161" s="7"/>
@@ -14637,7 +14648,7 @@
         <v>54</v>
       </c>
       <c r="R161" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S161" s="7"/>
       <c r="T161" s="7"/>
@@ -14645,7 +14656,7 @@
       <c r="V161" s="7"/>
       <c r="W161" s="7"/>
       <c r="X161" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -14683,19 +14694,19 @@
         <v>39</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F162" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G162" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="H162" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7" t="n">
@@ -14705,7 +14716,7 @@
       <c r="L162" s="7"/>
       <c r="M162" s="7"/>
       <c r="N162" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O162" s="7"/>
       <c r="P162" s="7"/>
@@ -14713,7 +14724,7 @@
         <v>54</v>
       </c>
       <c r="R162" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S162" s="7"/>
       <c r="T162" s="7"/>
@@ -14721,7 +14732,7 @@
       <c r="V162" s="7"/>
       <c r="W162" s="7"/>
       <c r="X162" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -14759,22 +14770,22 @@
         <v>39</v>
       </c>
       <c r="D163" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="F163" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="G163" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="G163" s="7" t="s">
+      <c r="H163" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="H163" s="7" t="s">
+      <c r="I163" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -14785,7 +14796,7 @@
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
       <c r="R163" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S163" s="7"/>
       <c r="T163" s="7"/>
@@ -14823,22 +14834,22 @@
         <v>39</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E164" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F164" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="G164" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="G164" s="7" t="s">
-        <v>562</v>
-      </c>
       <c r="H164" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="I164" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
@@ -14849,7 +14860,7 @@
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
       <c r="R164" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S164" s="7"/>
       <c r="T164" s="7"/>
@@ -14872,7 +14883,7 @@
       </c>
       <c r="AJ164" s="7"/>
       <c r="AK164" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AL164" s="7"/>
     </row>
@@ -14887,37 +14898,37 @@
         <v>39</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E165" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F165" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="G165" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H165" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G165" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H165" s="7" t="s">
+      <c r="I165" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="I165" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
       <c r="M165" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="N165" s="10" t="s">
         <v>568</v>
-      </c>
-      <c r="N165" s="10" t="s">
-        <v>569</v>
       </c>
       <c r="O165" s="7"/>
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
       <c r="R165" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S165" s="7"/>
       <c r="T165" s="7"/>
@@ -14955,37 +14966,37 @@
         <v>39</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E166" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F166" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="G166" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H166" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G166" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H166" s="7" t="s">
+      <c r="I166" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="I166" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
       <c r="M166" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O166" s="7"/>
       <c r="P166" s="7"/>
       <c r="Q166" s="7"/>
       <c r="R166" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S166" s="7"/>
       <c r="T166" s="7"/>
@@ -15023,37 +15034,37 @@
         <v>39</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E167" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F167" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="G167" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H167" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G167" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H167" s="7" t="s">
+      <c r="I167" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="I167" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
       <c r="M167" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O167" s="7"/>
       <c r="P167" s="7"/>
       <c r="Q167" s="7"/>
       <c r="R167" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S167" s="7"/>
       <c r="T167" s="7"/>
@@ -15091,37 +15102,37 @@
         <v>39</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E168" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F168" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="G168" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H168" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G168" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="H168" s="7" t="s">
+      <c r="I168" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="I168" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
       <c r="M168" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N168" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O168" s="7"/>
       <c r="P168" s="7"/>
       <c r="Q168" s="7"/>
       <c r="R168" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S168" s="7"/>
       <c r="T168" s="7"/>
@@ -15159,22 +15170,22 @@
         <v>39</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E169" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F169" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="G169" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="I169" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="I169" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
@@ -15185,7 +15196,7 @@
       <c r="P169" s="7"/>
       <c r="Q169" s="7"/>
       <c r="R169" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S169" s="7"/>
       <c r="T169" s="7"/>
@@ -15208,7 +15219,7 @@
       </c>
       <c r="AJ169" s="7"/>
       <c r="AK169" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AL169" s="7"/>
     </row>
@@ -15223,22 +15234,22 @@
         <v>39</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E170" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F170" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="G170" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="H170" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="H170" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="I170" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
@@ -15249,7 +15260,7 @@
       <c r="P170" s="7"/>
       <c r="Q170" s="7"/>
       <c r="R170" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S170" s="7"/>
       <c r="T170" s="7"/>
@@ -15287,42 +15298,42 @@
         <v>39</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E171" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="G171" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G171" s="7" t="s">
+      <c r="H171" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="H171" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="I171" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
       <c r="M171" s="7"/>
       <c r="N171" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O171" s="7"/>
       <c r="P171" s="7"/>
       <c r="Q171" s="7"/>
       <c r="R171" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S171" s="7"/>
       <c r="T171" s="7"/>
       <c r="U171" s="7"/>
       <c r="V171" s="7"/>
       <c r="W171" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X171" s="7"/>
       <c r="Y171" s="7"/>
@@ -15353,42 +15364,42 @@
         <v>39</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E172" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F172" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="G172" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="H172" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="H172" s="7" t="s">
-        <v>592</v>
-      </c>
       <c r="I172" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
       <c r="M172" s="7"/>
       <c r="N172" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O172" s="7"/>
       <c r="P172" s="7"/>
       <c r="Q172" s="7"/>
       <c r="R172" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S172" s="7"/>
       <c r="T172" s="7"/>
       <c r="U172" s="7"/>
       <c r="V172" s="7"/>
       <c r="W172" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="X172" s="7"/>
       <c r="Y172" s="7"/>
@@ -15419,37 +15430,37 @@
         <v>39</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E173" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F173" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="F173" s="7" t="s">
+      <c r="G173" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G173" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="H173" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="I173" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="I173" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
       <c r="M173" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="N173" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="N173" s="10" t="s">
-        <v>599</v>
       </c>
       <c r="O173" s="7"/>
       <c r="P173" s="7"/>
       <c r="Q173" s="7"/>
       <c r="R173" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S173" s="7"/>
       <c r="T173" s="7"/>
@@ -15472,7 +15483,7 @@
       </c>
       <c r="AJ173" s="7"/>
       <c r="AK173" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AL173" s="7"/>
     </row>
@@ -15487,37 +15498,37 @@
         <v>39</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E174" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F174" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="G174" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="H174" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="I174" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="I174" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N174" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="O174" s="7"/>
       <c r="P174" s="7"/>
       <c r="Q174" s="7"/>
       <c r="R174" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S174" s="7"/>
       <c r="T174" s="7"/>
@@ -15555,37 +15566,37 @@
         <v>39</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E175" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="G175" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="H175" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="I175" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="I175" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
       <c r="M175" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O175" s="7"/>
       <c r="P175" s="7"/>
       <c r="Q175" s="7"/>
       <c r="R175" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S175" s="7"/>
       <c r="T175" s="7"/>
@@ -15608,7 +15619,7 @@
       </c>
       <c r="AJ175" s="7"/>
       <c r="AK175" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AL175" s="7"/>
     </row>
@@ -15623,20 +15634,20 @@
         <v>39</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="G176" s="7" t="s">
-        <v>605</v>
-      </c>
       <c r="H176" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J176" s="7"/>
       <c r="K176" s="7"/>
@@ -15647,7 +15658,7 @@
       <c r="P176" s="7"/>
       <c r="Q176" s="7"/>
       <c r="R176" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S176" s="7"/>
       <c r="T176" s="7"/>
@@ -15673,7 +15684,7 @@
       <c r="AL176" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL176"/>
+  <autoFilter ref="A1:AL1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABE22FC-5402-4BE2-AE90-09A44CFDC0CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEDD2FB-0655-4599-A732-66A141941B5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="604">
   <si>
     <t>Sorting</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
   </si>
   <si>
     <t>BINARY</t>
@@ -1992,6 +1989,9 @@
   </si>
   <si>
     <t>number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
   </si>
 </sst>
 </file>
@@ -2491,9 +2491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK175"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="N1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X148" sqref="X148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,13 +2803,13 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD4" s="7">
         <v>9.4959999999999992E-3</v>
@@ -2846,10 +2846,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>52</v>
@@ -2861,10 +2861,10 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -2883,13 +2883,13 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD5" s="7">
         <v>9.4959999999999992E-3</v>
@@ -2926,10 +2926,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>52</v>
@@ -2941,10 +2941,10 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -2963,13 +2963,13 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD6" s="7">
         <v>9.4959999999999992E-3</v>
@@ -3006,10 +3006,10 @@
         <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>52</v>
@@ -3021,10 +3021,10 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -3043,13 +3043,13 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD7" s="7">
         <v>9.4959999999999992E-3</v>
@@ -3086,10 +3086,10 @@
         <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>52</v>
@@ -3101,10 +3101,10 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -3123,13 +3123,13 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD8" s="7">
         <v>9.4959999999999992E-3</v>
@@ -3166,10 +3166,10 @@
         <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>52</v>
@@ -3181,10 +3181,10 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -3203,13 +3203,13 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="7">
         <v>9.4959999999999992E-3</v>
@@ -3246,10 +3246,10 @@
         <v>44</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>52</v>
@@ -3261,10 +3261,10 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -3283,13 +3283,13 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD10" s="7">
         <v>9.4959999999999992E-3</v>
@@ -3326,10 +3326,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>52</v>
@@ -3341,10 +3341,10 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -3363,13 +3363,13 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD11" s="7">
         <v>9.4959999999999992E-3</v>
@@ -3406,10 +3406,10 @@
         <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>52</v>
@@ -3421,10 +3421,10 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -3443,13 +3443,13 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD12" s="7">
         <v>9.4959999999999992E-3</v>
@@ -3486,10 +3486,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>52</v>
@@ -3501,10 +3501,10 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -3523,13 +3523,13 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="7">
         <v>9.4959999999999992E-3</v>
@@ -3566,10 +3566,10 @@
         <v>44</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>52</v>
@@ -3581,10 +3581,10 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -3603,13 +3603,13 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD14" s="7">
         <v>4.0130000000000001E-3</v>
@@ -3646,10 +3646,10 @@
         <v>44</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>52</v>
@@ -3661,10 +3661,10 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -3683,13 +3683,13 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="7">
         <v>4.0130000000000001E-3</v>
@@ -3726,10 +3726,10 @@
         <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>52</v>
@@ -3741,7 +3741,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N16" s="6">
         <v>5449000253101</v>
@@ -3763,13 +3763,13 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD16" s="7">
         <v>4.0130000000000001E-3</v>
@@ -3806,10 +3806,10 @@
         <v>44</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>52</v>
@@ -3821,10 +3821,10 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -3843,13 +3843,13 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD17" s="7">
         <v>3.9969999999999997E-3</v>
@@ -3886,10 +3886,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>52</v>
@@ -3901,10 +3901,10 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -3923,13 +3923,13 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD18" s="7">
         <v>3.9969999999999997E-3</v>
@@ -3966,10 +3966,10 @@
         <v>44</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>52</v>
@@ -3981,10 +3981,10 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -4003,13 +4003,13 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD19" s="7">
         <v>3.9969999999999997E-3</v>
@@ -4046,10 +4046,10 @@
         <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>52</v>
@@ -4061,10 +4061,10 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -4083,13 +4083,13 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD20" s="7">
         <v>3.9969999999999997E-3</v>
@@ -4126,10 +4126,10 @@
         <v>44</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>52</v>
@@ -4141,7 +4141,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N21" s="6">
         <v>5449000064110</v>
@@ -4163,13 +4163,13 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD21" s="7">
         <v>3.9969999999999997E-3</v>
@@ -4206,10 +4206,10 @@
         <v>44</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>52</v>
@@ -4221,10 +4221,10 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -4243,13 +4243,13 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD22" s="7">
         <v>3.9969999999999997E-3</v>
@@ -4286,10 +4286,10 @@
         <v>44</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>52</v>
@@ -4301,10 +4301,10 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -4323,13 +4323,13 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD23" s="7">
         <v>3.0019999999999999E-3</v>
@@ -4366,10 +4366,10 @@
         <v>44</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>52</v>
@@ -4381,10 +4381,10 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -4403,13 +4403,13 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD24" s="7">
         <v>3.0019999999999999E-3</v>
@@ -4446,10 +4446,10 @@
         <v>44</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>52</v>
@@ -4461,10 +4461,10 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -4483,13 +4483,13 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD25" s="7">
         <v>3.0019999999999999E-3</v>
@@ -4526,10 +4526,10 @@
         <v>44</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>52</v>
@@ -4541,10 +4541,10 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -4563,13 +4563,13 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD26" s="7">
         <v>3.0019999999999999E-3</v>
@@ -4606,10 +4606,10 @@
         <v>44</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>52</v>
@@ -4621,7 +4621,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N27" s="6">
         <v>5449000098917</v>
@@ -4643,13 +4643,13 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD27" s="7">
         <v>3.0019999999999999E-3</v>
@@ -4686,10 +4686,10 @@
         <v>44</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>52</v>
@@ -4701,10 +4701,10 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
@@ -4723,13 +4723,13 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD28" s="7">
         <v>3.0019999999999999E-3</v>
@@ -4766,10 +4766,10 @@
         <v>44</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>52</v>
@@ -4781,10 +4781,10 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
@@ -4803,13 +4803,13 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD29" s="7">
         <v>3.0010000000000002E-3</v>
@@ -4846,10 +4846,10 @@
         <v>44</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>52</v>
@@ -4861,10 +4861,10 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
@@ -4883,13 +4883,13 @@
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD30" s="7">
         <v>3.0010000000000002E-3</v>
@@ -4926,10 +4926,10 @@
         <v>44</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>52</v>
@@ -4941,10 +4941,10 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
@@ -4963,13 +4963,13 @@
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD31" s="7">
         <v>3.0010000000000002E-3</v>
@@ -5003,13 +5003,13 @@
         <v>40</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>47</v>
@@ -5049,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="AK32" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL32" s="5">
         <v>300</v>
@@ -5069,13 +5069,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>52</v>
@@ -5087,10 +5087,10 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
@@ -5109,13 +5109,13 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD33" s="7">
         <v>6.0060000000000001E-3</v>
@@ -5149,13 +5149,13 @@
         <v>40</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>52</v>
@@ -5167,10 +5167,10 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -5189,13 +5189,13 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD34" s="7">
         <v>4.0039999999999997E-3</v>
@@ -5229,13 +5229,13 @@
         <v>40</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>52</v>
@@ -5247,10 +5247,10 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -5269,13 +5269,13 @@
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD35" s="7">
         <v>4.0039999999999997E-3</v>
@@ -5309,13 +5309,13 @@
         <v>40</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>52</v>
@@ -5327,10 +5327,10 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
@@ -5349,13 +5349,13 @@
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD36" s="7">
         <v>1.165E-3</v>
@@ -5389,13 +5389,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>52</v>
@@ -5407,10 +5407,10 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -5429,13 +5429,13 @@
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD37" s="7">
         <v>1.165E-3</v>
@@ -5469,13 +5469,13 @@
         <v>40</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>47</v>
@@ -5515,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="AK38" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL38" s="5">
         <v>300</v>
@@ -5535,13 +5535,13 @@
         <v>40</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>52</v>
@@ -5553,10 +5553,10 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -5575,13 +5575,13 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD39" s="7">
         <v>6.0060000000000001E-3</v>
@@ -5615,13 +5615,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>52</v>
@@ -5633,10 +5633,10 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -5655,13 +5655,13 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD40" s="7">
         <v>4.0039999999999997E-3</v>
@@ -5695,13 +5695,13 @@
         <v>40</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>52</v>
@@ -5713,10 +5713,10 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -5735,13 +5735,13 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD41" s="7">
         <v>4.0039999999999997E-3</v>
@@ -5775,13 +5775,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>52</v>
@@ -5793,10 +5793,10 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -5815,13 +5815,13 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD42" s="7">
         <v>4.0039999999999997E-3</v>
@@ -5855,13 +5855,13 @@
         <v>40</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>47</v>
@@ -5901,7 +5901,7 @@
         <v>2</v>
       </c>
       <c r="AK43" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL43" s="5">
         <v>300</v>
@@ -5921,13 +5921,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>52</v>
@@ -5939,10 +5939,10 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
@@ -5961,13 +5961,13 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD44" s="7">
         <v>4.0039999999999997E-3</v>
@@ -6001,13 +6001,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>52</v>
@@ -6019,10 +6019,10 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
@@ -6041,13 +6041,13 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD45" s="7">
         <v>4.0039999999999997E-3</v>
@@ -6081,13 +6081,13 @@
         <v>40</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>52</v>
@@ -6099,10 +6099,10 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
@@ -6121,13 +6121,13 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD46" s="7">
         <v>4.0039999999999997E-3</v>
@@ -6161,13 +6161,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>52</v>
@@ -6179,10 +6179,10 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
@@ -6201,13 +6201,13 @@
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD47" s="7">
         <v>4.0039999999999997E-3</v>
@@ -6241,13 +6241,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>52</v>
@@ -6259,10 +6259,10 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
@@ -6281,13 +6281,13 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD48" s="7">
         <v>1.165E-3</v>
@@ -6321,13 +6321,13 @@
         <v>40</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>47</v>
@@ -6367,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="AK49" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL49" s="5">
         <v>300</v>
@@ -6387,13 +6387,13 @@
         <v>40</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>52</v>
@@ -6405,10 +6405,10 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -6427,13 +6427,13 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD50" s="7">
         <v>6.0060000000000001E-3</v>
@@ -6467,13 +6467,13 @@
         <v>40</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>52</v>
@@ -6485,10 +6485,10 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
@@ -6507,13 +6507,13 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD51" s="7">
         <v>6.0060000000000001E-3</v>
@@ -6547,13 +6547,13 @@
         <v>40</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F52" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>52</v>
@@ -6565,10 +6565,10 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -6587,13 +6587,13 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD52" s="7">
         <v>6.0060000000000001E-3</v>
@@ -6627,13 +6627,13 @@
         <v>40</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>52</v>
@@ -6645,10 +6645,10 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
@@ -6667,13 +6667,13 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD53" s="7">
         <v>6.0060000000000001E-3</v>
@@ -6707,13 +6707,13 @@
         <v>40</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F54" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>52</v>
@@ -6725,10 +6725,10 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
@@ -6747,13 +6747,13 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD54" s="7">
         <v>6.0060000000000001E-3</v>
@@ -6787,13 +6787,13 @@
         <v>40</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F55" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>52</v>
@@ -6805,10 +6805,10 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
@@ -6827,13 +6827,13 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD55" s="7">
         <v>6.0060000000000001E-3</v>
@@ -6867,13 +6867,13 @@
         <v>40</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>52</v>
@@ -6885,10 +6885,10 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
@@ -6907,13 +6907,13 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD56" s="7">
         <v>6.0060000000000001E-3</v>
@@ -6947,13 +6947,13 @@
         <v>40</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>52</v>
@@ -6965,10 +6965,10 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
@@ -6987,13 +6987,13 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD57" s="7">
         <v>6.0060000000000001E-3</v>
@@ -7027,13 +7027,13 @@
         <v>40</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F58" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>52</v>
@@ -7045,10 +7045,10 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
@@ -7067,13 +7067,13 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD58" s="7">
         <v>6.0060000000000001E-3</v>
@@ -7107,13 +7107,13 @@
         <v>40</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>52</v>
@@ -7125,10 +7125,10 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
@@ -7147,13 +7147,13 @@
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD59" s="7">
         <v>6.0060000000000001E-3</v>
@@ -7187,13 +7187,13 @@
         <v>40</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F60" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>52</v>
@@ -7205,10 +7205,10 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
@@ -7227,13 +7227,13 @@
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
       <c r="Y60" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD60" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7267,13 +7267,13 @@
         <v>40</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>52</v>
@@ -7285,10 +7285,10 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
@@ -7307,13 +7307,13 @@
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD61" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7347,13 +7347,13 @@
         <v>40</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>52</v>
@@ -7365,10 +7365,10 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
@@ -7387,13 +7387,13 @@
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD62" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7427,13 +7427,13 @@
         <v>40</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F63" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>52</v>
@@ -7445,10 +7445,10 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O63" s="5"/>
       <c r="P63" s="5"/>
@@ -7467,13 +7467,13 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD63" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7507,13 +7507,13 @@
         <v>40</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F64" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>52</v>
@@ -7525,10 +7525,10 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5"/>
@@ -7547,13 +7547,13 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD64" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7587,13 +7587,13 @@
         <v>40</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F65" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>52</v>
@@ -7605,10 +7605,10 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
@@ -7627,13 +7627,13 @@
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
       <c r="Y65" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD65" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7667,13 +7667,13 @@
         <v>40</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>52</v>
@@ -7685,10 +7685,10 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
@@ -7707,13 +7707,13 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD66" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7747,13 +7747,13 @@
         <v>40</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F67" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>52</v>
@@ -7765,10 +7765,10 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
@@ -7787,13 +7787,13 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
       <c r="Y67" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD67" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7827,13 +7827,13 @@
         <v>40</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>52</v>
@@ -7845,10 +7845,10 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O68" s="5"/>
       <c r="P68" s="5"/>
@@ -7867,13 +7867,13 @@
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
       <c r="Y68" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD68" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7907,13 +7907,13 @@
         <v>40</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F69" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>52</v>
@@ -7925,10 +7925,10 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
@@ -7947,13 +7947,13 @@
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
       <c r="Y69" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD69" s="7">
         <v>4.0039999999999997E-3</v>
@@ -7987,13 +7987,13 @@
         <v>40</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F70" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>52</v>
@@ -8005,10 +8005,10 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
@@ -8027,13 +8027,13 @@
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
       <c r="Y70" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD70" s="7">
         <v>4.0039999999999997E-3</v>
@@ -8067,13 +8067,13 @@
         <v>40</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F71" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>52</v>
@@ -8085,10 +8085,10 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="5"/>
@@ -8107,13 +8107,13 @@
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD71" s="7">
         <v>4.0039999999999997E-3</v>
@@ -8147,13 +8147,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F72" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>52</v>
@@ -8165,10 +8165,10 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -8187,13 +8187,13 @@
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
       <c r="Y72" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD72" s="7">
         <v>4.0039999999999997E-3</v>
@@ -8227,13 +8227,13 @@
         <v>40</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F73" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>52</v>
@@ -8245,10 +8245,10 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
@@ -8267,13 +8267,13 @@
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
       <c r="Y73" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD73" s="7">
         <v>4.0039999999999997E-3</v>
@@ -8307,13 +8307,13 @@
         <v>40</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>52</v>
@@ -8325,10 +8325,10 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -8347,13 +8347,13 @@
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD74" s="7">
         <v>4.0039999999999997E-3</v>
@@ -8387,13 +8387,13 @@
         <v>40</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F75" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>52</v>
@@ -8405,10 +8405,10 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -8427,13 +8427,13 @@
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
       <c r="Y75" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD75" s="7">
         <v>1.165E-3</v>
@@ -8467,13 +8467,13 @@
         <v>40</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F76" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>52</v>
@@ -8485,7 +8485,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N76" s="6">
         <v>4650075422922</v>
@@ -8507,13 +8507,13 @@
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
       <c r="Y76" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD76" s="7">
         <v>1.147E-3</v>
@@ -8547,13 +8547,13 @@
         <v>40</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>52</v>
@@ -8565,10 +8565,10 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
@@ -8587,13 +8587,13 @@
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
       <c r="Y77" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD77" s="7">
         <v>1.147E-3</v>
@@ -8627,13 +8627,13 @@
         <v>40</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F78" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>52</v>
@@ -8645,7 +8645,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N78" s="6">
         <v>4650075421550</v>
@@ -8667,13 +8667,13 @@
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD78" s="7">
         <v>1.147E-3</v>
@@ -8707,13 +8707,13 @@
         <v>40</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F79" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>52</v>
@@ -8725,10 +8725,10 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -8747,13 +8747,13 @@
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD79" s="7">
         <v>1.147E-3</v>
@@ -8787,13 +8787,13 @@
         <v>40</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F80" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>52</v>
@@ -8805,10 +8805,10 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
@@ -8827,13 +8827,13 @@
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD80" s="7">
         <v>1.147E-3</v>
@@ -8867,13 +8867,13 @@
         <v>40</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F81" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>47</v>
@@ -8913,7 +8913,7 @@
         <v>2</v>
       </c>
       <c r="AK81" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AL81" s="5">
         <v>300</v>
@@ -8933,13 +8933,13 @@
         <v>40</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F82" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>52</v>
@@ -8951,7 +8951,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N82" s="6">
         <v>5449000244239</v>
@@ -8973,13 +8973,13 @@
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
       <c r="Y82" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD82" s="7">
         <v>1.147E-3</v>
@@ -9013,13 +9013,13 @@
         <v>40</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F83" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>52</v>
@@ -9031,7 +9031,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N83" s="6">
         <v>5449000244253</v>
@@ -9053,13 +9053,13 @@
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD83" s="7">
         <v>1.147E-3</v>
@@ -9093,13 +9093,13 @@
         <v>40</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F84" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>52</v>
@@ -9111,7 +9111,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N84" s="6">
         <v>54008212</v>
@@ -9133,13 +9133,13 @@
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5" t="s">
-        <v>57</v>
+        <v>603</v>
       </c>
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD84" s="7">
         <v>1.147E-3</v>
@@ -9174,10 +9174,10 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>40</v>
@@ -9215,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="AK85" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL85" s="5"/>
     </row>
@@ -9234,10 +9234,10 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>40</v>
@@ -9275,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="AK86" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AL86" s="5">
         <v>520</v>
@@ -9292,19 +9292,19 @@
         <v>39</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5">
@@ -9313,27 +9313,27 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N87" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="N87" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="O87" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P87" s="5"/>
       <c r="Q87" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
@@ -9341,7 +9341,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD87" s="7">
         <v>6.25E-2</v>
@@ -9372,19 +9372,19 @@
         <v>39</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="H88" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5">
@@ -9397,7 +9397,7 @@
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
@@ -9405,17 +9405,17 @@
       <c r="U88" s="5"/>
       <c r="V88" s="5"/>
       <c r="W88" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC88" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD88" s="7">
         <v>7.4999999999999997E-3</v>
@@ -9431,7 +9431,7 @@
         <v>2</v>
       </c>
       <c r="AK88" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL88" s="5">
         <v>501</v>
@@ -9448,16 +9448,16 @@
         <v>39</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F89" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>52</v>
@@ -9469,7 +9469,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N89" s="6">
         <v>54491472</v>
@@ -9487,17 +9487,17 @@
       <c r="U89" s="5"/>
       <c r="V89" s="5"/>
       <c r="W89" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC89" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD89" s="7"/>
       <c r="AE89" s="5"/>
@@ -9526,16 +9526,16 @@
         <v>39</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F90" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>52</v>
@@ -9547,7 +9547,7 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N90" s="6" t="s">
         <v>53</v>
@@ -9565,17 +9565,17 @@
       <c r="U90" s="5"/>
       <c r="V90" s="5"/>
       <c r="W90" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
       <c r="AB90" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC90" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD90" s="7"/>
       <c r="AE90" s="5"/>
@@ -9604,16 +9604,16 @@
         <v>39</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F91" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>52</v>
@@ -9625,7 +9625,7 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N91" s="6">
         <v>5449000131836</v>
@@ -9643,17 +9643,17 @@
       <c r="U91" s="5"/>
       <c r="V91" s="5"/>
       <c r="W91" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
       <c r="AB91" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC91" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD91" s="7"/>
       <c r="AE91" s="5"/>
@@ -9682,16 +9682,16 @@
         <v>39</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F92" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>52</v>
@@ -9703,7 +9703,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N92" s="6">
         <v>54491069</v>
@@ -9721,17 +9721,17 @@
       <c r="U92" s="5"/>
       <c r="V92" s="5"/>
       <c r="W92" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
       <c r="AB92" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC92" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD92" s="7"/>
       <c r="AE92" s="5"/>
@@ -9760,16 +9760,16 @@
         <v>39</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F93" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>325</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>52</v>
@@ -9781,10 +9781,10 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
@@ -9799,17 +9799,17 @@
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
       <c r="W93" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
       <c r="AB93" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD93" s="7"/>
       <c r="AE93" s="5"/>
@@ -9838,16 +9838,16 @@
         <v>39</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F94" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>52</v>
@@ -9859,7 +9859,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N94" s="6">
         <v>40822938</v>
@@ -9877,17 +9877,17 @@
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
       <c r="W94" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
       <c r="AB94" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD94" s="7"/>
       <c r="AE94" s="5"/>
@@ -9916,16 +9916,16 @@
         <v>39</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F95" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>330</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>52</v>
@@ -9937,10 +9937,10 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
@@ -9955,17 +9955,17 @@
       <c r="U95" s="5"/>
       <c r="V95" s="5"/>
       <c r="W95" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD95" s="7"/>
       <c r="AE95" s="5"/>
@@ -9994,16 +9994,16 @@
         <v>39</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F96" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>52</v>
@@ -10015,7 +10015,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N96" s="6">
         <v>5449000064110</v>
@@ -10033,17 +10033,17 @@
       <c r="U96" s="5"/>
       <c r="V96" s="5"/>
       <c r="W96" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC96" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD96" s="7"/>
       <c r="AE96" s="5"/>
@@ -10076,10 +10076,10 @@
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>40</v>
@@ -10117,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="AK97" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL97" s="5">
         <v>520</v>
@@ -10137,16 +10137,16 @@
         <v>40</v>
       </c>
       <c r="E98" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="G98" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="G98" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="H98" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I98" s="5"/>
       <c r="J98" s="5">
@@ -10155,27 +10155,27 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P98" s="5"/>
       <c r="Q98" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="5"/>
       <c r="W98" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
@@ -10183,7 +10183,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD98" s="7">
         <v>5.2499999999999998E-2</v>
@@ -10214,19 +10214,19 @@
         <v>39</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F99" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G99" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="H99" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5">
@@ -10239,7 +10239,7 @@
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
@@ -10247,17 +10247,17 @@
       <c r="U99" s="5"/>
       <c r="V99" s="5"/>
       <c r="W99" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC99" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD99" s="7">
         <v>7.4999999999999997E-3</v>
@@ -10273,7 +10273,7 @@
         <v>2</v>
       </c>
       <c r="AK99" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL99" s="5">
         <v>502</v>
@@ -10290,16 +10290,16 @@
         <v>39</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F100" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>52</v>
@@ -10311,7 +10311,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N100" s="6">
         <v>4607042434877</v>
@@ -10329,17 +10329,17 @@
       <c r="U100" s="5"/>
       <c r="V100" s="5"/>
       <c r="W100" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC100" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD100" s="7"/>
       <c r="AE100" s="5"/>
@@ -10368,16 +10368,16 @@
         <v>39</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F101" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>348</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>52</v>
@@ -10389,7 +10389,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N101" s="6">
         <v>4607042434891</v>
@@ -10407,17 +10407,17 @@
       <c r="U101" s="5"/>
       <c r="V101" s="5"/>
       <c r="W101" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC101" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD101" s="7"/>
       <c r="AE101" s="5"/>
@@ -10446,16 +10446,16 @@
         <v>39</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F102" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>350</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>52</v>
@@ -10467,7 +10467,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N102" s="6">
         <v>4607042438738</v>
@@ -10485,17 +10485,17 @@
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
       <c r="W102" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC102" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD102" s="7"/>
       <c r="AE102" s="5"/>
@@ -10524,16 +10524,16 @@
         <v>39</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F103" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>52</v>
@@ -10545,7 +10545,7 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N103" s="6">
         <v>4607042439155</v>
@@ -10563,17 +10563,17 @@
       <c r="U103" s="5"/>
       <c r="V103" s="5"/>
       <c r="W103" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC103" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD103" s="7"/>
       <c r="AE103" s="5"/>
@@ -10602,16 +10602,16 @@
         <v>39</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F104" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>52</v>
@@ -10623,7 +10623,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N104" s="6">
         <v>4607042439216</v>
@@ -10641,17 +10641,17 @@
       <c r="U104" s="5"/>
       <c r="V104" s="5"/>
       <c r="W104" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC104" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD104" s="7"/>
       <c r="AE104" s="5"/>
@@ -10684,10 +10684,10 @@
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>40</v>
@@ -10725,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="AK105" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL105" s="5">
         <v>520</v>
@@ -10745,16 +10745,16 @@
         <v>40</v>
       </c>
       <c r="E106" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="G106" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="H106" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I106" s="5"/>
       <c r="J106" s="5">
@@ -10763,27 +10763,27 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P106" s="5"/>
       <c r="Q106" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="5"/>
       <c r="W106" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
@@ -10791,7 +10791,7 @@
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD106" s="7">
         <v>1.2500000000000001E-2</v>
@@ -10822,19 +10822,19 @@
         <v>39</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F107" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="G107" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="H107" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5">
@@ -10847,7 +10847,7 @@
       <c r="O107" s="5"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
@@ -10855,17 +10855,17 @@
       <c r="U107" s="5"/>
       <c r="V107" s="5"/>
       <c r="W107" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC107" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD107" s="7">
         <v>7.4999999999999997E-3</v>
@@ -10881,7 +10881,7 @@
         <v>2</v>
       </c>
       <c r="AK107" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AL107" s="5">
         <v>503</v>
@@ -10898,16 +10898,16 @@
         <v>39</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F108" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>52</v>
@@ -10919,10 +10919,10 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O108" s="5"/>
       <c r="P108" s="5"/>
@@ -10937,17 +10937,17 @@
       <c r="U108" s="5"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
       <c r="AB108" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC108" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD108" s="7"/>
       <c r="AE108" s="5"/>
@@ -10980,10 +10980,10 @@
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>40</v>
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="AK109" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL109" s="5">
         <v>520</v>
@@ -11041,16 +11041,16 @@
         <v>40</v>
       </c>
       <c r="E110" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G110" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="H110" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I110" s="5"/>
       <c r="J110" s="5">
@@ -11059,27 +11059,27 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P110" s="5"/>
       <c r="Q110" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
@@ -11087,7 +11087,7 @@
       <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD110" s="7">
         <v>2.75E-2</v>
@@ -11118,19 +11118,19 @@
         <v>39</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F111" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G111" s="5" t="s">
-        <v>373</v>
-      </c>
       <c r="H111" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5">
@@ -11143,7 +11143,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
@@ -11151,17 +11151,17 @@
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
       <c r="W111" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
       <c r="AB111" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC111" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD111" s="7">
         <v>7.4999999999999997E-3</v>
@@ -11177,7 +11177,7 @@
         <v>2</v>
       </c>
       <c r="AK111" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL111" s="5">
         <v>504</v>
@@ -11194,16 +11194,16 @@
         <v>39</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F112" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>375</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>52</v>
@@ -11215,10 +11215,10 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O112" s="5"/>
       <c r="P112" s="5"/>
@@ -11233,17 +11233,17 @@
       <c r="U112" s="5"/>
       <c r="V112" s="5"/>
       <c r="W112" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
       <c r="AB112" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC112" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD112" s="7"/>
       <c r="AE112" s="5"/>
@@ -11272,16 +11272,16 @@
         <v>39</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F113" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>52</v>
@@ -11293,10 +11293,10 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
@@ -11311,17 +11311,17 @@
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
       <c r="AB113" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AC113" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD113" s="7"/>
       <c r="AE113" s="5"/>
@@ -11354,10 +11354,10 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>40</v>
@@ -11415,16 +11415,16 @@
         <v>40</v>
       </c>
       <c r="E115" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="G115" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="G115" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="H115" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I115" s="5"/>
       <c r="J115" s="5">
@@ -11433,27 +11433,27 @@
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P115" s="5"/>
       <c r="Q115" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5"/>
       <c r="W115" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
@@ -11461,7 +11461,7 @@
       <c r="AA115" s="5"/>
       <c r="AB115" s="5"/>
       <c r="AC115" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD115" s="7">
         <v>3.5000000000000003E-2</v>
@@ -11496,10 +11496,10 @@
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>40</v>
@@ -11537,7 +11537,7 @@
         <v>1</v>
       </c>
       <c r="AK116" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AL116" s="5"/>
     </row>
@@ -11556,10 +11556,10 @@
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>388</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>40</v>
@@ -11597,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="AK117" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL117" s="5">
         <v>301</v>
@@ -11617,16 +11617,16 @@
         <v>40</v>
       </c>
       <c r="E118" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5">
@@ -11639,7 +11639,7 @@
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
@@ -11650,12 +11650,12 @@
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
       <c r="Z118" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
       <c r="AC118" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD118" s="7">
         <v>0.05</v>
@@ -11671,7 +11671,7 @@
         <v>2</v>
       </c>
       <c r="AK118" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AL118" s="5">
         <v>302</v>
@@ -11691,13 +11691,13 @@
         <v>40</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F119" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>52</v>
@@ -11709,20 +11709,20 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N119" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="N119" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="O119" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P119" s="5"/>
       <c r="Q119" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R119" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
@@ -11732,12 +11732,12 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
       <c r="Z119" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD119" s="7"/>
       <c r="AE119" s="5"/>
@@ -11769,16 +11769,16 @@
         <v>40</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F120" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="H120" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5">
@@ -11794,24 +11794,24 @@
         <v>54</v>
       </c>
       <c r="R120" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
       <c r="U120" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
       <c r="Z120" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD120" s="7"/>
       <c r="AE120" s="5"/>
@@ -11843,29 +11843,29 @@
         <v>40</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F121" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="H121" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N121" s="6" t="s">
         <v>53</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P121" s="5"/>
       <c r="Q121" s="5" t="s">
@@ -11882,18 +11882,18 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
       <c r="Z121" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD121" s="7"/>
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
       <c r="AG121" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AH121" s="5"/>
       <c r="AI121" s="5">
@@ -11918,19 +11918,19 @@
         <v>39</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F122" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="G122" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="H122" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5">
@@ -11943,7 +11943,7 @@
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R122" s="5"/>
       <c r="S122" s="5"/>
@@ -11954,12 +11954,12 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
       <c r="Z122" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5"/>
       <c r="AC122" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD122" s="7">
         <v>0.01</v>
@@ -11967,10 +11967,10 @@
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
       <c r="AG122" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AH122" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI122" s="5">
         <v>106</v>
@@ -11979,7 +11979,7 @@
         <v>2</v>
       </c>
       <c r="AK122" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL122" s="5">
         <v>302</v>
@@ -11996,16 +11996,16 @@
         <v>39</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F123" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>52</v>
@@ -12017,10 +12017,10 @@
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="N123" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="N123" s="6" t="s">
-        <v>414</v>
       </c>
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
@@ -12038,12 +12038,12 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
       <c r="Z123" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD123" s="7"/>
       <c r="AE123" s="5"/>
@@ -12072,16 +12072,16 @@
         <v>39</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F124" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G124" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>52</v>
@@ -12093,10 +12093,10 @@
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="N124" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="N124" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
@@ -12114,12 +12114,12 @@
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
       <c r="Z124" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA124" s="5"/>
       <c r="AB124" s="5"/>
       <c r="AC124" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD124" s="7"/>
       <c r="AE124" s="5"/>
@@ -12148,16 +12148,16 @@
         <v>39</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F125" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>52</v>
@@ -12169,10 +12169,10 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="N125" s="6" t="s">
         <v>421</v>
-      </c>
-      <c r="N125" s="6" t="s">
-        <v>422</v>
       </c>
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
@@ -12190,12 +12190,12 @@
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
       <c r="Z125" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA125" s="5"/>
       <c r="AB125" s="5"/>
       <c r="AC125" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD125" s="7"/>
       <c r="AE125" s="5"/>
@@ -12224,16 +12224,16 @@
         <v>39</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F126" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G126" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>52</v>
@@ -12245,10 +12245,10 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
@@ -12266,12 +12266,12 @@
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
       <c r="Z126" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5"/>
       <c r="AC126" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD126" s="7"/>
       <c r="AE126" s="5"/>
@@ -12303,16 +12303,16 @@
         <v>40</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F127" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="G127" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="H127" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5">
@@ -12325,7 +12325,7 @@
       <c r="O127" s="5"/>
       <c r="P127" s="5"/>
       <c r="Q127" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R127" s="5"/>
       <c r="S127" s="5"/>
@@ -12336,12 +12336,12 @@
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
       <c r="Z127" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5"/>
       <c r="AC127" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD127" s="7">
         <v>0.04</v>
@@ -12357,7 +12357,7 @@
         <v>2</v>
       </c>
       <c r="AK127" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL127" s="5">
         <v>302</v>
@@ -12377,13 +12377,13 @@
         <v>40</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F128" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>52</v>
@@ -12395,20 +12395,20 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N128" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="N128" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="O128" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P128" s="5"/>
       <c r="Q128" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R128" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
@@ -12418,12 +12418,12 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
       <c r="Z128" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5"/>
       <c r="AC128" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD128" s="7"/>
       <c r="AE128" s="5"/>
@@ -12455,16 +12455,16 @@
         <v>40</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F129" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G129" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="G129" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="H129" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5">
@@ -12480,24 +12480,24 @@
         <v>54</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
       <c r="U129" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="V129" s="5"/>
       <c r="W129" s="5"/>
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
       <c r="Z129" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
       <c r="AC129" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD129" s="7"/>
       <c r="AE129" s="5"/>
@@ -12529,29 +12529,29 @@
         <v>40</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F130" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="G130" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="H130" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N130" s="6" t="s">
         <v>53</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P130" s="5"/>
       <c r="Q130" s="5" t="s">
@@ -12568,18 +12568,18 @@
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
       <c r="Z130" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5"/>
       <c r="AC130" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD130" s="7"/>
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
       <c r="AG130" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AH130" s="5"/>
       <c r="AI130" s="5">
@@ -12608,10 +12608,10 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G131" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>439</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>40</v>
@@ -12669,16 +12669,16 @@
         <v>40</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F132" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G132" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="G132" s="5" t="s">
-        <v>441</v>
-      </c>
       <c r="H132" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5">
@@ -12691,7 +12691,7 @@
       <c r="O132" s="5"/>
       <c r="P132" s="5"/>
       <c r="Q132" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R132" s="5"/>
       <c r="S132" s="5"/>
@@ -12702,12 +12702,12 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
       <c r="Z132" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5"/>
       <c r="AC132" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD132" s="7">
         <v>0.03</v>
@@ -12723,7 +12723,7 @@
         <v>2</v>
       </c>
       <c r="AK132" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AL132" s="5">
         <v>303</v>
@@ -12743,13 +12743,13 @@
         <v>40</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F133" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G133" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>445</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>52</v>
@@ -12761,20 +12761,20 @@
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P133" s="5"/>
       <c r="Q133" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R133" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S133" s="5"/>
       <c r="T133" s="5"/>
@@ -12784,12 +12784,12 @@
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
       <c r="Z133" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA133" s="5"/>
       <c r="AB133" s="5"/>
       <c r="AC133" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD133" s="7"/>
       <c r="AE133" s="5"/>
@@ -12821,16 +12821,16 @@
         <v>40</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F134" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G134" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>447</v>
-      </c>
       <c r="H134" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5">
@@ -12846,24 +12846,24 @@
         <v>54</v>
       </c>
       <c r="R134" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S134" s="5"/>
       <c r="T134" s="5"/>
       <c r="U134" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
       <c r="Z134" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA134" s="5"/>
       <c r="AB134" s="5"/>
       <c r="AC134" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD134" s="7"/>
       <c r="AE134" s="5"/>
@@ -12895,16 +12895,16 @@
         <v>40</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F135" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G135" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="H135" s="5" t="s">
         <v>450</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5">
@@ -12928,12 +12928,12 @@
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
       <c r="Z135" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA135" s="5"/>
       <c r="AB135" s="5"/>
       <c r="AC135" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD135" s="7"/>
       <c r="AE135" s="5"/>
@@ -12947,7 +12947,7 @@
         <v>3</v>
       </c>
       <c r="AK135" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AL135" s="5">
         <v>115</v>
@@ -12967,26 +12967,26 @@
         <v>40</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F136" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="G136" s="5" t="s">
-        <v>454</v>
-      </c>
       <c r="H136" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="N136" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="N136" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="O136" s="5"/>
       <c r="P136" s="5"/>
@@ -13004,18 +13004,18 @@
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
       <c r="Z136" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA136" s="5"/>
       <c r="AB136" s="5"/>
       <c r="AC136" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD136" s="7"/>
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
       <c r="AG136" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AH136" s="5"/>
       <c r="AI136" s="5">
@@ -13043,26 +13043,26 @@
         <v>40</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F137" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="G137" s="5" t="s">
-        <v>459</v>
-      </c>
       <c r="H137" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="N137" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="N137" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="O137" s="5"/>
       <c r="P137" s="5"/>
@@ -13080,18 +13080,18 @@
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
       <c r="Z137" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5"/>
       <c r="AC137" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD137" s="7"/>
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
       <c r="AG137" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AH137" s="5"/>
       <c r="AI137" s="5">
@@ -13119,16 +13119,16 @@
         <v>40</v>
       </c>
       <c r="E138" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="G138" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="H138" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>466</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -13139,7 +13139,7 @@
       <c r="O138" s="5"/>
       <c r="P138" s="5"/>
       <c r="Q138" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R138" s="5"/>
       <c r="S138" s="5"/>
@@ -13153,7 +13153,7 @@
       <c r="AA138" s="5"/>
       <c r="AB138" s="5"/>
       <c r="AC138" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD138" s="7">
         <v>0.14000000000000001</v>
@@ -13161,7 +13161,7 @@
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
       <c r="AG138" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AH138" s="5"/>
       <c r="AI138" s="5">
@@ -13171,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="AK138" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AL138" s="5">
         <v>311</v>
@@ -13192,10 +13192,10 @@
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>40</v>
@@ -13233,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="AK139" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AL139" s="5"/>
     </row>
@@ -13252,10 +13252,10 @@
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="G140" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>40</v>
@@ -13313,16 +13313,16 @@
         <v>40</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F141" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G141" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G141" s="5" t="s">
+      <c r="H141" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5">
@@ -13333,23 +13333,23 @@
       </c>
       <c r="L141" s="5"/>
       <c r="M141" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S141" s="5"/>
       <c r="T141" s="5"/>
       <c r="U141" s="5"/>
       <c r="V141" s="5"/>
       <c r="W141" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
@@ -13357,7 +13357,7 @@
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
       <c r="AC141" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD141" s="7"/>
       <c r="AE141" s="5"/>
@@ -13389,16 +13389,16 @@
         <v>40</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F142" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G142" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="H142" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5">
@@ -13407,23 +13407,23 @@
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S142" s="5"/>
       <c r="T142" s="5"/>
       <c r="U142" s="5"/>
       <c r="V142" s="5"/>
       <c r="W142" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
@@ -13431,7 +13431,7 @@
       <c r="AA142" s="5"/>
       <c r="AB142" s="5"/>
       <c r="AC142" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD142" s="7"/>
       <c r="AE142" s="5"/>
@@ -13464,10 +13464,10 @@
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="G143" s="5" t="s">
         <v>485</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>486</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>40</v>
@@ -13505,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="AK143" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AL143" s="5">
         <v>310</v>
@@ -13525,16 +13525,16 @@
         <v>40</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F144" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="G144" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="H144" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5">
@@ -13548,16 +13548,16 @@
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S144" s="5"/>
       <c r="T144" s="5"/>
       <c r="U144" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="V144" s="5"/>
       <c r="W144" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
@@ -13565,7 +13565,7 @@
       <c r="AA144" s="5"/>
       <c r="AB144" s="5"/>
       <c r="AC144" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD144" s="7">
         <v>2.5000000000000001E-2</v>
@@ -13573,10 +13573,10 @@
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
       <c r="AG144" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH144" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI144" s="5">
         <v>124</v>
@@ -13603,16 +13603,16 @@
         <v>40</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F145" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="G145" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="H145" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
@@ -13623,23 +13623,23 @@
         <v>15</v>
       </c>
       <c r="M145" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S145" s="5"/>
       <c r="T145" s="5"/>
       <c r="U145" s="5"/>
       <c r="V145" s="5"/>
       <c r="W145" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
@@ -13647,7 +13647,7 @@
       <c r="AA145" s="5"/>
       <c r="AB145" s="5"/>
       <c r="AC145" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD145" s="7">
         <v>2.5000000000000001E-2</v>
@@ -13655,10 +13655,10 @@
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
       <c r="AG145" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH145" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI145" s="5">
         <v>125</v>
@@ -13685,13 +13685,13 @@
         <v>40</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F146" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>47</v>
@@ -13705,7 +13705,7 @@
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
@@ -13713,7 +13713,7 @@
       <c r="U146" s="5"/>
       <c r="V146" s="5"/>
       <c r="W146" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
@@ -13721,7 +13721,7 @@
       <c r="AA146" s="5"/>
       <c r="AB146" s="5"/>
       <c r="AC146" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD146" s="7">
         <v>2.5000000000000001E-2</v>
@@ -13729,10 +13729,10 @@
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
       <c r="AG146" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH146" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI146" s="5">
         <v>126</v>
@@ -13741,7 +13741,7 @@
         <v>2</v>
       </c>
       <c r="AK146" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AL146" s="5">
         <v>312</v>
@@ -13762,13 +13762,13 @@
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G147" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="G147" s="5" t="s">
-        <v>500</v>
-      </c>
       <c r="H147" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I147" s="5"/>
       <c r="J147" s="5">
@@ -13777,46 +13777,46 @@
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
       <c r="M147" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="N147" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="N147" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="O147" s="5"/>
       <c r="P147" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q147" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R147" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S147" s="5"/>
       <c r="T147" s="5"/>
       <c r="U147" s="5"/>
       <c r="V147" s="5"/>
       <c r="W147" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X147" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
       <c r="AC147" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD147" s="7"/>
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
       <c r="AG147" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH147" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI147" s="5">
         <v>128</v>
@@ -13844,13 +13844,13 @@
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="G148" s="5" t="s">
-        <v>505</v>
-      </c>
       <c r="H148" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5">
@@ -13859,46 +13859,46 @@
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
       <c r="M148" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="N148" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="N148" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="O148" s="5"/>
       <c r="P148" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q148" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R148" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S148" s="5"/>
       <c r="T148" s="5"/>
       <c r="U148" s="5"/>
       <c r="V148" s="5"/>
       <c r="W148" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X148" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
       <c r="AC148" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD148" s="7"/>
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
       <c r="AG148" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH148" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI148" s="5">
         <v>129</v>
@@ -13926,13 +13926,13 @@
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="G149" s="5" t="s">
-        <v>507</v>
-      </c>
       <c r="H149" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5">
@@ -13945,7 +13945,7 @@
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R149" s="5"/>
       <c r="S149" s="5"/>
@@ -13953,7 +13953,7 @@
       <c r="U149" s="5"/>
       <c r="V149" s="5"/>
       <c r="W149" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
@@ -13961,16 +13961,16 @@
       <c r="AA149" s="5"/>
       <c r="AB149" s="5"/>
       <c r="AC149" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD149" s="7"/>
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
       <c r="AG149" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH149" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI149" s="5">
         <v>130</v>
@@ -13979,7 +13979,7 @@
         <v>3</v>
       </c>
       <c r="AK149" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AL149" s="5">
         <v>126</v>
@@ -14000,10 +14000,10 @@
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>52</v>
@@ -14015,46 +14015,46 @@
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
       <c r="M150" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="N150" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="N150" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="O150" s="5"/>
       <c r="P150" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q150" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R150" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S150" s="5"/>
       <c r="T150" s="5"/>
       <c r="U150" s="5"/>
       <c r="V150" s="5"/>
       <c r="W150" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC150" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD150" s="7"/>
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
       <c r="AG150" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH150" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI150" s="5">
         <v>131</v>
@@ -14082,10 +14082,10 @@
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>52</v>
@@ -14097,46 +14097,46 @@
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
       <c r="M151" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="N151" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="N151" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="O151" s="5"/>
       <c r="P151" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Q151" s="5" t="s">
         <v>54</v>
       </c>
       <c r="R151" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S151" s="5"/>
       <c r="T151" s="5"/>
       <c r="U151" s="5"/>
       <c r="V151" s="5"/>
       <c r="W151" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AC151" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD151" s="7"/>
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
       <c r="AG151" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH151" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI151" s="5">
         <v>132</v>
@@ -14164,13 +14164,13 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G152" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="H152" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="5">
@@ -14179,10 +14179,10 @@
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
       <c r="M152" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
@@ -14190,14 +14190,14 @@
         <v>54</v>
       </c>
       <c r="R152" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
       <c r="V152" s="5"/>
       <c r="W152" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
@@ -14205,16 +14205,16 @@
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
       <c r="AC152" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD152" s="7"/>
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
       <c r="AG152" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH152" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI152" s="5">
         <v>133</v>
@@ -14241,16 +14241,16 @@
         <v>40</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F153" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G153" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="H153" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
@@ -14258,20 +14258,20 @@
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
       <c r="N153" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O153" s="5"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S153" s="5"/>
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5"/>
       <c r="W153" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
@@ -14279,7 +14279,7 @@
       <c r="AA153" s="5"/>
       <c r="AB153" s="5"/>
       <c r="AC153" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD153" s="7">
         <v>2.5000000000000001E-2</v>
@@ -14287,10 +14287,10 @@
       <c r="AE153" s="5"/>
       <c r="AF153" s="5"/>
       <c r="AG153" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH153" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AI153" s="5">
         <v>135</v>
@@ -14314,19 +14314,19 @@
         <v>39</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F154" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G154" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="G154" s="5" t="s">
-        <v>523</v>
-      </c>
       <c r="H154" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5">
@@ -14347,7 +14347,7 @@
       <c r="U154" s="5"/>
       <c r="V154" s="5"/>
       <c r="W154" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
@@ -14355,7 +14355,7 @@
       <c r="AA154" s="5"/>
       <c r="AB154" s="5"/>
       <c r="AC154" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD154" s="7">
         <v>0.03</v>
@@ -14388,19 +14388,19 @@
         <v>39</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F155" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G155" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="H155" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5">
@@ -14411,10 +14411,10 @@
       </c>
       <c r="L155" s="5"/>
       <c r="M155" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
@@ -14422,14 +14422,14 @@
         <v>54</v>
       </c>
       <c r="R155" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S155" s="5"/>
       <c r="T155" s="5"/>
       <c r="U155" s="5"/>
       <c r="V155" s="5"/>
       <c r="W155" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
@@ -14437,13 +14437,13 @@
       <c r="AA155" s="5"/>
       <c r="AB155" s="5"/>
       <c r="AC155" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AD155" s="7"/>
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
       <c r="AG155" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AH155" s="5"/>
       <c r="AI155" s="5">
@@ -14472,10 +14472,10 @@
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G156" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>40</v>
@@ -14528,16 +14528,16 @@
         <v>39</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F157" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G157" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>47</v>
@@ -14577,7 +14577,7 @@
         <v>2</v>
       </c>
       <c r="AK157" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AL157" s="5">
         <v>400</v>
@@ -14594,19 +14594,19 @@
         <v>39</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F158" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="G158" s="5" t="s">
+      <c r="H158" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5">
@@ -14616,7 +14616,7 @@
       <c r="L158" s="5"/>
       <c r="M158" s="5"/>
       <c r="N158" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
@@ -14624,7 +14624,7 @@
         <v>54</v>
       </c>
       <c r="R158" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S158" s="5"/>
       <c r="T158" s="5"/>
@@ -14632,14 +14632,14 @@
       <c r="V158" s="5"/>
       <c r="W158" s="5"/>
       <c r="X158" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
       <c r="AC158" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD158" s="7">
         <v>0.01</v>
@@ -14670,19 +14670,19 @@
         <v>39</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E159" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="G159" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="G159" s="5" t="s">
-        <v>540</v>
-      </c>
       <c r="H159" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5">
@@ -14692,7 +14692,7 @@
       <c r="L159" s="5"/>
       <c r="M159" s="5"/>
       <c r="N159" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
@@ -14700,7 +14700,7 @@
         <v>54</v>
       </c>
       <c r="R159" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S159" s="5"/>
       <c r="T159" s="5"/>
@@ -14708,14 +14708,14 @@
       <c r="V159" s="5"/>
       <c r="W159" s="5"/>
       <c r="X159" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
       <c r="AC159" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD159" s="7">
         <v>0.01</v>
@@ -14746,19 +14746,19 @@
         <v>39</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F160" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="G160" s="5" t="s">
-        <v>543</v>
-      </c>
       <c r="H160" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5">
@@ -14768,7 +14768,7 @@
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
       <c r="N160" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
@@ -14776,7 +14776,7 @@
         <v>54</v>
       </c>
       <c r="R160" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S160" s="5"/>
       <c r="T160" s="5"/>
@@ -14784,14 +14784,14 @@
       <c r="V160" s="5"/>
       <c r="W160" s="5"/>
       <c r="X160" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
       <c r="AC160" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD160" s="7">
         <v>0.01</v>
@@ -14822,19 +14822,19 @@
         <v>39</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F161" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="G161" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="G161" s="5" t="s">
-        <v>546</v>
-      </c>
       <c r="H161" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5">
@@ -14844,7 +14844,7 @@
       <c r="L161" s="5"/>
       <c r="M161" s="5"/>
       <c r="N161" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
@@ -14852,7 +14852,7 @@
         <v>54</v>
       </c>
       <c r="R161" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S161" s="5"/>
       <c r="T161" s="5"/>
@@ -14860,14 +14860,14 @@
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
       <c r="X161" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
       <c r="AC161" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD161" s="7">
         <v>0.01</v>
@@ -14898,22 +14898,22 @@
         <v>39</v>
       </c>
       <c r="D162" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E162" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="F162" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="G162" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="G162" s="5" t="s">
+      <c r="H162" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="H162" s="5" t="s">
+      <c r="I162" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
@@ -14924,7 +14924,7 @@
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S162" s="5"/>
       <c r="T162" s="5"/>
@@ -14962,22 +14962,22 @@
         <v>39</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E163" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="G163" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="G163" s="5" t="s">
-        <v>557</v>
-      </c>
       <c r="H163" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I163" s="5" t="s">
         <v>552</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
@@ -14988,7 +14988,7 @@
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
@@ -15011,7 +15011,7 @@
       </c>
       <c r="AJ163" s="5"/>
       <c r="AK163" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AL163" s="5"/>
     </row>
@@ -15026,37 +15026,37 @@
         <v>39</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E164" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="F164" s="5" t="s">
+      <c r="G164" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H164" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G164" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="H164" s="5" t="s">
+      <c r="I164" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="I164" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
       <c r="M164" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="N164" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="N164" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S164" s="5"/>
       <c r="T164" s="5"/>
@@ -15094,37 +15094,37 @@
         <v>39</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E165" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="G165" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H165" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G165" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="H165" s="5" t="s">
+      <c r="I165" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="I165" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
       <c r="M165" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S165" s="5"/>
       <c r="T165" s="5"/>
@@ -15162,37 +15162,37 @@
         <v>39</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E166" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="G166" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H166" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G166" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="H166" s="5" t="s">
+      <c r="I166" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N166" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
@@ -15230,37 +15230,37 @@
         <v>39</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E167" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="G167" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="H167" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="G167" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="H167" s="5" t="s">
+      <c r="I167" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
       <c r="M167" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N167" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O167" s="5"/>
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
       <c r="R167" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
@@ -15298,22 +15298,22 @@
         <v>39</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E168" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F168" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="G168" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="H168" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="H168" s="5" t="s">
+      <c r="I168" s="5" t="s">
         <v>571</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>572</v>
       </c>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
@@ -15324,7 +15324,7 @@
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
@@ -15347,7 +15347,7 @@
       </c>
       <c r="AJ168" s="5"/>
       <c r="AK168" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AL168" s="5"/>
     </row>
@@ -15362,22 +15362,22 @@
         <v>39</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E169" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="G169" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="H169" s="5" t="s">
-        <v>577</v>
-      </c>
       <c r="I169" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
@@ -15388,7 +15388,7 @@
       <c r="P169" s="5"/>
       <c r="Q169" s="5"/>
       <c r="R169" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S169" s="5"/>
       <c r="T169" s="5"/>
@@ -15426,42 +15426,42 @@
         <v>39</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E170" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F170" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="G170" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="H170" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="H170" s="5" t="s">
-        <v>581</v>
-      </c>
       <c r="I170" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O170" s="5"/>
       <c r="P170" s="5"/>
       <c r="Q170" s="5"/>
       <c r="R170" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="S170" s="5"/>
       <c r="T170" s="5"/>
       <c r="U170" s="5"/>
       <c r="V170" s="5"/>
       <c r="W170" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="X170" s="5"/>
       <c r="Y170" s="5"/>
@@ -15492,42 +15492,42 @@
         <v>39</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E171" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="G171" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="H171" s="5" t="s">
-        <v>587</v>
-      </c>
       <c r="I171" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
       <c r="N171" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O171" s="5"/>
       <c r="P171" s="5"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="S171" s="5"/>
       <c r="T171" s="5"/>
       <c r="U171" s="5"/>
       <c r="V171" s="5"/>
       <c r="W171" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="X171" s="5"/>
       <c r="Y171" s="5"/>
@@ -15558,37 +15558,37 @@
         <v>39</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E172" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="G172" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="G172" s="5" t="s">
-        <v>592</v>
-      </c>
       <c r="H172" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I172" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="I172" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
       <c r="M172" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="N172" s="8" t="s">
         <v>593</v>
-      </c>
-      <c r="N172" s="8" t="s">
-        <v>594</v>
       </c>
       <c r="O172" s="5"/>
       <c r="P172" s="5"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
@@ -15611,7 +15611,7 @@
       </c>
       <c r="AJ172" s="5"/>
       <c r="AK172" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AL172" s="5"/>
     </row>
@@ -15626,37 +15626,37 @@
         <v>39</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E173" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F173" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="G173" s="5" t="s">
-        <v>592</v>
-      </c>
       <c r="H173" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I173" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="I173" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
       <c r="M173" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N173" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O173" s="5"/>
       <c r="P173" s="5"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
@@ -15694,37 +15694,37 @@
         <v>39</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E174" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F174" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="G174" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="G174" s="5" t="s">
-        <v>592</v>
-      </c>
       <c r="H174" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I174" s="5" t="s">
         <v>561</v>
-      </c>
-      <c r="I174" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
       <c r="M174" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N174" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O174" s="5"/>
       <c r="P174" s="5"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S174" s="5"/>
       <c r="T174" s="5"/>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="AJ174" s="5"/>
       <c r="AK174" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AL174" s="5"/>
     </row>
@@ -15762,20 +15762,20 @@
         <v>39</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G175" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="G175" s="5" t="s">
-        <v>600</v>
-      </c>
       <c r="H175" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -15786,7 +15786,7 @@
       <c r="P175" s="5"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S175" s="5"/>
       <c r="T175" s="5"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-11-07\PoS 2019 with categories 20191107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F43BD481-9EA9-421E-8AE4-4F2AD5F77F5B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D524FD0D-F798-4889-8DAA-3F6F44AC760E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convenience Small" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Convenience Small'!$A$1:$AN$175</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="608">
   <si>
     <t>Sorting</t>
   </si>
@@ -306,9 +312,6 @@
     <t>Швеппс Биттер Лемон - 1л</t>
   </si>
   <si>
-    <t>5449000044839</t>
-  </si>
-  <si>
     <t>Coca-Cola Zero - 1.5L</t>
   </si>
   <si>
@@ -364,9 +367,6 @@
   </si>
   <si>
     <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>5449000044808</t>
   </si>
   <si>
     <t>Fanta Orange - 0.5L</t>
@@ -1998,6 +1998,18 @@
   </si>
   <si>
     <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>5449000044839, 5449000280152</t>
+  </si>
+  <si>
+    <t>Schweppes Bitter Lemon - 0.9/1L</t>
+  </si>
+  <si>
+    <t>Schweppes Tonic - 0.9/1L</t>
+  </si>
+  <si>
+    <t>5449000044808, 5449000280206</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2068,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2088,7 +2100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2118,11 +2130,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2509,25 +2524,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM175"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="I1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.85546875" style="4"/>
+    <col min="1" max="5" width="8.88671875" style="4"/>
     <col min="6" max="6" width="52" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.28515625" style="4"/>
-    <col min="8" max="8" width="55.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="55.85546875" style="4" customWidth="1"/>
-    <col min="11" max="15" width="8.85546875" style="4"/>
-    <col min="16" max="16" width="57.5703125" style="4"/>
-    <col min="17" max="1027" width="8.85546875" style="4"/>
-    <col min="1028" max="16384" width="8.85546875" style="9"/>
+    <col min="7" max="7" width="66.33203125" style="4"/>
+    <col min="8" max="8" width="55.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="55.88671875" style="4" customWidth="1"/>
+    <col min="11" max="14" width="8.88671875" style="4"/>
+    <col min="15" max="15" width="67" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.5546875" style="4"/>
+    <col min="17" max="1027" width="8.88671875" style="4"/>
+    <col min="1028" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2553,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2649,7 +2665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2711,7 +2727,7 @@
       </c>
       <c r="AN2" s="5"/>
     </row>
-    <row r="3" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2736,11 +2752,11 @@
       <c r="H3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>304</v>
+      <c r="J3" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -2783,7 +2799,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2839,7 +2855,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
@@ -2865,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2921,7 +2937,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -2947,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3003,7 +3019,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
@@ -3029,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3085,7 +3101,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -3111,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3167,7 +3183,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -3193,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3249,7 +3265,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
@@ -3275,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3331,7 +3347,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -3357,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3413,7 +3429,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -3439,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3472,11 +3488,11 @@
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>81</v>
+      <c r="O12" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>604</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -3495,7 +3511,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -3521,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3538,10 +3554,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>52</v>
@@ -3555,10 +3571,10 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -3577,7 +3593,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -3603,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3620,10 +3636,10 @@
         <v>44</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>52</v>
@@ -3637,10 +3653,10 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -3659,7 +3675,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -3685,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3702,10 +3718,10 @@
         <v>44</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>52</v>
@@ -3719,10 +3735,10 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -3741,7 +3757,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -3767,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3784,10 +3800,10 @@
         <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>52</v>
@@ -3801,7 +3817,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P16" s="6">
         <v>5449000253101</v>
@@ -3823,7 +3839,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -3849,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3866,10 +3882,10 @@
         <v>44</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>52</v>
@@ -3883,10 +3899,10 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -3905,7 +3921,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -3931,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3948,10 +3964,10 @@
         <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>52</v>
@@ -3965,10 +3981,10 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -3987,7 +4003,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -4013,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -4030,10 +4046,10 @@
         <v>44</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>52</v>
@@ -4046,11 +4062,11 @@
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>101</v>
+      <c r="O19" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>607</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -4069,7 +4085,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -4095,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -4112,10 +4128,10 @@
         <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>52</v>
@@ -4129,10 +4145,10 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -4151,7 +4167,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -4177,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4194,10 +4210,10 @@
         <v>44</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>52</v>
@@ -4211,7 +4227,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P21" s="6">
         <v>5449000064110</v>
@@ -4233,7 +4249,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
@@ -4259,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4276,10 +4292,10 @@
         <v>44</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>52</v>
@@ -4293,10 +4309,10 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -4315,7 +4331,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
@@ -4341,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4358,10 +4374,10 @@
         <v>44</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>52</v>
@@ -4375,10 +4391,10 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -4397,7 +4413,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -4423,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4440,10 +4456,10 @@
         <v>44</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>52</v>
@@ -4457,10 +4473,10 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -4479,7 +4495,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
@@ -4505,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4522,10 +4538,10 @@
         <v>44</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>52</v>
@@ -4539,10 +4555,10 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -4561,7 +4577,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
@@ -4587,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4604,10 +4620,10 @@
         <v>44</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>52</v>
@@ -4621,10 +4637,10 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -4643,7 +4659,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -4669,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -4686,10 +4702,10 @@
         <v>44</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>52</v>
@@ -4703,7 +4719,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P27" s="6">
         <v>5449000098917</v>
@@ -4725,7 +4741,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
@@ -4751,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4768,10 +4784,10 @@
         <v>44</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>52</v>
@@ -4785,10 +4801,10 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -4807,7 +4823,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
@@ -4833,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4850,10 +4866,10 @@
         <v>44</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>52</v>
@@ -4867,10 +4883,10 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -4889,7 +4905,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
@@ -4915,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4932,10 +4948,10 @@
         <v>44</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>52</v>
@@ -4949,10 +4965,10 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -4971,7 +4987,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
@@ -4997,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5014,10 +5030,10 @@
         <v>44</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>52</v>
@@ -5031,10 +5047,10 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -5053,7 +5069,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -5079,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>32</v>
       </c>
@@ -5093,22 +5109,22 @@
         <v>40</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>360</v>
+      <c r="J32" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -5145,13 +5161,13 @@
         <v>2</v>
       </c>
       <c r="AM32" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AN32" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>33</v>
       </c>
@@ -5165,13 +5181,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>52</v>
@@ -5185,10 +5201,10 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P33" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -5207,7 +5223,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -5233,7 +5249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>34</v>
       </c>
@@ -5247,13 +5263,13 @@
         <v>40</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>52</v>
@@ -5267,10 +5283,10 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P34" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -5289,7 +5305,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
@@ -5315,7 +5331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>35</v>
       </c>
@@ -5329,13 +5345,13 @@
         <v>40</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>52</v>
@@ -5349,10 +5365,10 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -5371,7 +5387,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
@@ -5397,7 +5413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>36</v>
       </c>
@@ -5411,13 +5427,13 @@
         <v>40</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>52</v>
@@ -5431,10 +5447,10 @@
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
       <c r="O36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="P36" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -5453,7 +5469,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
@@ -5479,7 +5495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>37</v>
       </c>
@@ -5493,13 +5509,13 @@
         <v>40</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>52</v>
@@ -5513,10 +5529,10 @@
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P37" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -5535,7 +5551,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -5561,7 +5577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>38</v>
       </c>
@@ -5575,22 +5591,22 @@
         <v>40</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>383</v>
+      <c r="J38" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -5627,13 +5643,13 @@
         <v>2</v>
       </c>
       <c r="AM38" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AN38" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>39</v>
       </c>
@@ -5647,13 +5663,13 @@
         <v>40</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>52</v>
@@ -5667,10 +5683,10 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P39" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -5689,7 +5705,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -5715,7 +5731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>40</v>
       </c>
@@ -5729,13 +5745,13 @@
         <v>40</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>52</v>
@@ -5749,10 +5765,10 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P40" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -5771,7 +5787,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -5797,7 +5813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>41</v>
       </c>
@@ -5811,13 +5827,13 @@
         <v>40</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>52</v>
@@ -5831,10 +5847,10 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -5853,7 +5869,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
@@ -5879,7 +5895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>42</v>
       </c>
@@ -5893,13 +5909,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>52</v>
@@ -5913,10 +5929,10 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P42" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
@@ -5935,7 +5951,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -5961,7 +5977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43</v>
       </c>
@@ -5975,22 +5991,22 @@
         <v>40</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>370</v>
+      <c r="J43" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -6027,13 +6043,13 @@
         <v>2</v>
       </c>
       <c r="AM43" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AN43" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>44</v>
       </c>
@@ -6047,13 +6063,13 @@
         <v>40</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>52</v>
@@ -6067,10 +6083,10 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="P44" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -6089,7 +6105,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -6115,7 +6131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>45</v>
       </c>
@@ -6129,13 +6145,13 @@
         <v>40</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>52</v>
@@ -6149,10 +6165,10 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P45" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -6171,7 +6187,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -6197,7 +6213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>46</v>
       </c>
@@ -6211,13 +6227,13 @@
         <v>40</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>52</v>
@@ -6231,10 +6247,10 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="P46" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -6253,7 +6269,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -6279,7 +6295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>47</v>
       </c>
@@ -6293,13 +6309,13 @@
         <v>40</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>52</v>
@@ -6313,10 +6329,10 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -6335,7 +6351,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -6361,7 +6377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>48</v>
       </c>
@@ -6375,13 +6391,13 @@
         <v>40</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>52</v>
@@ -6395,10 +6411,10 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P48" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -6417,7 +6433,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
@@ -6443,7 +6459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>49</v>
       </c>
@@ -6457,22 +6473,22 @@
         <v>40</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>340</v>
+      <c r="J49" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -6509,13 +6525,13 @@
         <v>2</v>
       </c>
       <c r="AM49" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN49" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>50</v>
       </c>
@@ -6529,13 +6545,13 @@
         <v>40</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>52</v>
@@ -6549,10 +6565,10 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="P50" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -6571,7 +6587,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -6597,7 +6613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>51</v>
       </c>
@@ -6611,13 +6627,13 @@
         <v>40</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>52</v>
@@ -6631,10 +6647,10 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="P51" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -6653,7 +6669,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
@@ -6679,7 +6695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>52</v>
       </c>
@@ -6693,13 +6709,13 @@
         <v>40</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>52</v>
@@ -6713,10 +6729,10 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P52" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -6735,7 +6751,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -6761,7 +6777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>53</v>
       </c>
@@ -6775,13 +6791,13 @@
         <v>40</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>52</v>
@@ -6795,10 +6811,10 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="P53" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -6817,7 +6833,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -6843,7 +6859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>54</v>
       </c>
@@ -6857,13 +6873,13 @@
         <v>40</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>52</v>
@@ -6877,10 +6893,10 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="P54" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
@@ -6899,7 +6915,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -6925,7 +6941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>55</v>
       </c>
@@ -6939,13 +6955,13 @@
         <v>40</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>52</v>
@@ -6959,10 +6975,10 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="P55" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -6981,7 +6997,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -7007,7 +7023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>56</v>
       </c>
@@ -7021,13 +7037,13 @@
         <v>40</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>52</v>
@@ -7041,10 +7057,10 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P56" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -7063,7 +7079,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
@@ -7089,7 +7105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>57</v>
       </c>
@@ -7103,13 +7119,13 @@
         <v>40</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>52</v>
@@ -7123,10 +7139,10 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="P57" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
@@ -7145,7 +7161,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -7171,7 +7187,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>58</v>
       </c>
@@ -7185,13 +7201,13 @@
         <v>40</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>52</v>
@@ -7205,10 +7221,10 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="P58" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -7227,7 +7243,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -7253,7 +7269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>59</v>
       </c>
@@ -7267,13 +7283,13 @@
         <v>40</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>52</v>
@@ -7287,10 +7303,10 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P59" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -7309,7 +7325,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -7335,7 +7351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>60</v>
       </c>
@@ -7349,13 +7365,13 @@
         <v>40</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>52</v>
@@ -7369,10 +7385,10 @@
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="P60" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -7391,7 +7407,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -7417,7 +7433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>61</v>
       </c>
@@ -7431,13 +7447,13 @@
         <v>40</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>52</v>
@@ -7451,10 +7467,10 @@
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="P61" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -7473,7 +7489,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -7499,7 +7515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>62</v>
       </c>
@@ -7513,13 +7529,13 @@
         <v>40</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>52</v>
@@ -7533,10 +7549,10 @@
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="P62" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
@@ -7555,7 +7571,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -7581,7 +7597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>63</v>
       </c>
@@ -7595,13 +7611,13 @@
         <v>40</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>52</v>
@@ -7615,10 +7631,10 @@
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="P63" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -7637,7 +7653,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -7663,7 +7679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>64</v>
       </c>
@@ -7677,13 +7693,13 @@
         <v>40</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>52</v>
@@ -7697,10 +7713,10 @@
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="P64" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="P64" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
@@ -7719,7 +7735,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -7745,7 +7761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>65</v>
       </c>
@@ -7759,13 +7775,13 @@
         <v>40</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>52</v>
@@ -7779,10 +7795,10 @@
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="P65" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
@@ -7801,7 +7817,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -7827,7 +7843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>66</v>
       </c>
@@ -7841,13 +7857,13 @@
         <v>40</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>52</v>
@@ -7861,10 +7877,10 @@
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="P66" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
@@ -7883,7 +7899,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -7909,7 +7925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>67</v>
       </c>
@@ -7923,13 +7939,13 @@
         <v>40</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>52</v>
@@ -7943,10 +7959,10 @@
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="P67" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
@@ -7965,7 +7981,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -7991,7 +8007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>68</v>
       </c>
@@ -8005,13 +8021,13 @@
         <v>40</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>52</v>
@@ -8025,10 +8041,10 @@
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P68" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="P68" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
@@ -8047,7 +8063,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
@@ -8073,7 +8089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>69</v>
       </c>
@@ -8087,13 +8103,13 @@
         <v>40</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>52</v>
@@ -8107,10 +8123,10 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="P69" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="P69" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
@@ -8129,7 +8145,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -8155,7 +8171,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>70</v>
       </c>
@@ -8169,13 +8185,13 @@
         <v>40</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>52</v>
@@ -8189,10 +8205,10 @@
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="P70" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="P70" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
@@ -8211,7 +8227,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
@@ -8237,7 +8253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>71</v>
       </c>
@@ -8251,13 +8267,13 @@
         <v>40</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>52</v>
@@ -8271,10 +8287,10 @@
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
       <c r="O71" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="P71" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="P71" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
@@ -8293,7 +8309,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -8319,7 +8335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>72</v>
       </c>
@@ -8333,13 +8349,13 @@
         <v>40</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>52</v>
@@ -8353,10 +8369,10 @@
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="P72" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="P72" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
@@ -8375,7 +8391,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -8401,7 +8417,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>73</v>
       </c>
@@ -8415,13 +8431,13 @@
         <v>40</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>52</v>
@@ -8435,10 +8451,10 @@
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="P73" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="P73" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
@@ -8457,7 +8473,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
@@ -8483,7 +8499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>74</v>
       </c>
@@ -8497,13 +8513,13 @@
         <v>40</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>52</v>
@@ -8517,10 +8533,10 @@
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="P74" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="P74" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
@@ -8539,7 +8555,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
@@ -8565,7 +8581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>75</v>
       </c>
@@ -8579,13 +8595,13 @@
         <v>40</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>52</v>
@@ -8599,10 +8615,10 @@
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
       <c r="O75" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="P75" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
@@ -8621,7 +8637,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -8647,7 +8663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>76</v>
       </c>
@@ -8661,13 +8677,13 @@
         <v>40</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>52</v>
@@ -8681,7 +8697,7 @@
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P76" s="6">
         <v>4650075422922</v>
@@ -8703,7 +8719,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
@@ -8729,7 +8745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>77</v>
       </c>
@@ -8743,13 +8759,13 @@
         <v>40</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>52</v>
@@ -8763,10 +8779,10 @@
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="P77" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="P77" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
@@ -8785,7 +8801,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -8811,7 +8827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>78</v>
       </c>
@@ -8825,13 +8841,13 @@
         <v>40</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>52</v>
@@ -8845,7 +8861,7 @@
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="P78" s="6">
         <v>4650075421550</v>
@@ -8867,7 +8883,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
@@ -8893,7 +8909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>79</v>
       </c>
@@ -8907,13 +8923,13 @@
         <v>40</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>52</v>
@@ -8927,10 +8943,10 @@
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="P79" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="P79" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
@@ -8949,7 +8965,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
@@ -8975,7 +8991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>80</v>
       </c>
@@ -8989,13 +9005,13 @@
         <v>40</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>52</v>
@@ -9009,10 +9025,10 @@
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="P80" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="P80" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
@@ -9031,7 +9047,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
@@ -9057,7 +9073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>83</v>
       </c>
@@ -9071,13 +9087,13 @@
         <v>40</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>47</v>
@@ -9119,13 +9135,13 @@
         <v>2</v>
       </c>
       <c r="AM81" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AN81" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>84</v>
       </c>
@@ -9139,13 +9155,13 @@
         <v>40</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>52</v>
@@ -9159,7 +9175,7 @@
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P82" s="6">
         <v>5449000244239</v>
@@ -9181,7 +9197,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
@@ -9207,7 +9223,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="83" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>85</v>
       </c>
@@ -9221,13 +9237,13 @@
         <v>40</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>52</v>
@@ -9241,7 +9257,7 @@
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P83" s="6">
         <v>5449000244253</v>
@@ -9263,7 +9279,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
       <c r="AA83" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
@@ -9289,7 +9305,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="84" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>86</v>
       </c>
@@ -9303,13 +9319,13 @@
         <v>40</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>52</v>
@@ -9323,7 +9339,7 @@
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P84" s="6">
         <v>54008212</v>
@@ -9345,7 +9361,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
@@ -9371,7 +9387,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="85" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>87</v>
       </c>
@@ -9386,10 +9402,10 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>40</v>
@@ -9429,11 +9445,11 @@
         <v>1</v>
       </c>
       <c r="AM85" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AN85" s="5"/>
     </row>
-    <row r="86" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>88</v>
       </c>
@@ -9448,10 +9464,10 @@
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>40</v>
@@ -9491,13 +9507,13 @@
         <v>1</v>
       </c>
       <c r="AM86" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AN86" s="5">
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>89</v>
       </c>
@@ -9508,25 +9524,25 @@
         <v>39</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G87" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H87" s="5" t="s">
+      <c r="I87" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J87" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J87" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5">
@@ -9535,27 +9551,27 @@
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P87" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R87" s="5"/>
       <c r="S87" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T87" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
@@ -9563,7 +9579,7 @@
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF87" s="7">
         <v>6.25E-2</v>
@@ -9583,7 +9599,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="88" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>90</v>
       </c>
@@ -9594,19 +9610,19 @@
         <v>39</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>310</v>
-      </c>
       <c r="H88" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -9621,7 +9637,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
@@ -9629,14 +9645,14 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
       <c r="Y88" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE88" s="5" t="s">
         <v>57</v>
@@ -9655,13 +9671,13 @@
         <v>2</v>
       </c>
       <c r="AM88" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AN88" s="5">
         <v>501</v>
       </c>
     </row>
-    <row r="89" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>91</v>
       </c>
@@ -9672,16 +9688,16 @@
         <v>39</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>52</v>
@@ -9713,14 +9729,14 @@
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
       <c r="Y89" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE89" s="5" t="s">
         <v>57</v>
@@ -9741,7 +9757,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>92</v>
       </c>
@@ -9752,16 +9768,16 @@
         <v>39</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>52</v>
@@ -9775,7 +9791,7 @@
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P90" s="6" t="s">
         <v>53</v>
@@ -9793,14 +9809,14 @@
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
       <c r="Y90" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z90" s="5"/>
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE90" s="5" t="s">
         <v>57</v>
@@ -9821,7 +9837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>93</v>
       </c>
@@ -9832,16 +9848,16 @@
         <v>39</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>52</v>
@@ -9855,7 +9871,7 @@
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P91" s="6">
         <v>5449000131836</v>
@@ -9873,14 +9889,14 @@
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
       <c r="Y91" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE91" s="5" t="s">
         <v>57</v>
@@ -9901,7 +9917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>94</v>
       </c>
@@ -9912,16 +9928,16 @@
         <v>39</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>52</v>
@@ -9935,7 +9951,7 @@
       <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P92" s="6">
         <v>54491069</v>
@@ -9953,14 +9969,14 @@
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
       <c r="Y92" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE92" s="5" t="s">
         <v>57</v>
@@ -9981,7 +9997,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>95</v>
       </c>
@@ -9992,16 +10008,16 @@
         <v>39</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>52</v>
@@ -10015,7 +10031,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P93" s="6" t="s">
         <v>75</v>
@@ -10033,14 +10049,14 @@
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
       <c r="Y93" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE93" s="5" t="s">
         <v>57</v>
@@ -10061,7 +10077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>96</v>
       </c>
@@ -10072,16 +10088,16 @@
         <v>39</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>52</v>
@@ -10095,7 +10111,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P94" s="6">
         <v>40822938</v>
@@ -10113,14 +10129,14 @@
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
       <c r="Y94" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE94" s="5" t="s">
         <v>57</v>
@@ -10141,7 +10157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>97</v>
       </c>
@@ -10152,16 +10168,16 @@
         <v>39</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>52</v>
@@ -10175,7 +10191,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P95" s="6" t="s">
         <v>72</v>
@@ -10193,14 +10209,14 @@
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
       <c r="Y95" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE95" s="5" t="s">
         <v>57</v>
@@ -10221,7 +10237,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>99</v>
       </c>
@@ -10232,16 +10248,16 @@
         <v>39</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>52</v>
@@ -10255,7 +10271,7 @@
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P96" s="6">
         <v>5449000064110</v>
@@ -10273,14 +10289,14 @@
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
       <c r="Y96" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE96" s="5" t="s">
         <v>57</v>
@@ -10301,7 +10317,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>100</v>
       </c>
@@ -10316,10 +10332,10 @@
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>40</v>
@@ -10359,13 +10375,13 @@
         <v>1</v>
       </c>
       <c r="AM97" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AN97" s="5">
         <v>520</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>101</v>
       </c>
@@ -10379,22 +10395,22 @@
         <v>40</v>
       </c>
       <c r="E98" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="H98" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J98" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I98" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J98" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="K98" s="5"/>
       <c r="L98" s="5">
@@ -10403,27 +10419,27 @@
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q98" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R98" s="5"/>
       <c r="S98" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T98" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U98" s="5"/>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
       <c r="Y98" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
@@ -10431,7 +10447,7 @@
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF98" s="7">
         <v>5.2499999999999998E-2</v>
@@ -10451,7 +10467,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>102</v>
       </c>
@@ -10462,19 +10478,19 @@
         <v>39</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -10489,7 +10505,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
@@ -10497,14 +10513,14 @@
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
       <c r="Y99" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE99" s="5" t="s">
         <v>57</v>
@@ -10523,13 +10539,13 @@
         <v>2</v>
       </c>
       <c r="AM99" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AN99" s="5">
         <v>502</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>103</v>
       </c>
@@ -10540,16 +10556,16 @@
         <v>39</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>52</v>
@@ -10563,7 +10579,7 @@
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P100" s="6">
         <v>4607042434877</v>
@@ -10581,14 +10597,14 @@
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
       <c r="Y100" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z100" s="5"/>
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE100" s="5" t="s">
         <v>57</v>
@@ -10609,7 +10625,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>104</v>
       </c>
@@ -10620,16 +10636,16 @@
         <v>39</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>52</v>
@@ -10643,7 +10659,7 @@
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P101" s="6">
         <v>4607042434891</v>
@@ -10661,14 +10677,14 @@
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
       <c r="Y101" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z101" s="5"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE101" s="5" t="s">
         <v>57</v>
@@ -10689,7 +10705,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>105</v>
       </c>
@@ -10700,16 +10716,16 @@
         <v>39</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>52</v>
@@ -10723,7 +10739,7 @@
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P102" s="6">
         <v>4607042438738</v>
@@ -10741,14 +10757,14 @@
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
       <c r="Y102" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE102" s="5" t="s">
         <v>57</v>
@@ -10769,7 +10785,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>106</v>
       </c>
@@ -10780,16 +10796,16 @@
         <v>39</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>52</v>
@@ -10803,7 +10819,7 @@
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P103" s="6">
         <v>4607042439155</v>
@@ -10821,14 +10837,14 @@
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
       <c r="Y103" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z103" s="5"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE103" s="5" t="s">
         <v>57</v>
@@ -10849,7 +10865,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>107</v>
       </c>
@@ -10860,16 +10876,16 @@
         <v>39</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>52</v>
@@ -10883,7 +10899,7 @@
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P104" s="6">
         <v>4607042439216</v>
@@ -10901,14 +10917,14 @@
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE104" s="5" t="s">
         <v>57</v>
@@ -10929,7 +10945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>108</v>
       </c>
@@ -10944,10 +10960,10 @@
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>40</v>
@@ -10987,13 +11003,13 @@
         <v>1</v>
       </c>
       <c r="AM105" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AN105" s="5">
         <v>520</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>109</v>
       </c>
@@ -11007,22 +11023,22 @@
         <v>40</v>
       </c>
       <c r="E106" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="H106" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J106" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I106" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J106" s="12" t="s">
-        <v>360</v>
       </c>
       <c r="K106" s="5"/>
       <c r="L106" s="5">
@@ -11031,27 +11047,27 @@
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R106" s="5"/>
       <c r="S106" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T106" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U106" s="5"/>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
       <c r="Y106" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z106" s="5"/>
       <c r="AA106" s="5"/>
@@ -11059,7 +11075,7 @@
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF106" s="7">
         <v>1.2500000000000001E-2</v>
@@ -11079,7 +11095,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>110</v>
       </c>
@@ -11090,19 +11106,19 @@
         <v>39</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -11117,7 +11133,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
       <c r="S107" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
@@ -11125,14 +11141,14 @@
       <c r="W107" s="5"/>
       <c r="X107" s="5"/>
       <c r="Y107" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE107" s="5" t="s">
         <v>57</v>
@@ -11151,13 +11167,13 @@
         <v>2</v>
       </c>
       <c r="AM107" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AN107" s="5">
         <v>503</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>111</v>
       </c>
@@ -11168,16 +11184,16 @@
         <v>39</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>52</v>
@@ -11191,10 +11207,10 @@
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P108" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="P108" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
@@ -11209,14 +11225,14 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
       <c r="Y108" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z108" s="5"/>
       <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
       <c r="AC108" s="5"/>
       <c r="AD108" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE108" s="5" t="s">
         <v>57</v>
@@ -11237,7 +11253,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>112</v>
       </c>
@@ -11252,10 +11268,10 @@
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>40</v>
@@ -11295,13 +11311,13 @@
         <v>1</v>
       </c>
       <c r="AM109" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AN109" s="5">
         <v>520</v>
       </c>
     </row>
-    <row r="110" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>113</v>
       </c>
@@ -11315,22 +11331,22 @@
         <v>40</v>
       </c>
       <c r="E110" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="H110" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I110" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J110" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="K110" s="5"/>
       <c r="L110" s="5">
@@ -11339,27 +11355,27 @@
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P110" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q110" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="R110" s="5"/>
       <c r="S110" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T110" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
       <c r="Y110" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z110" s="5"/>
       <c r="AA110" s="5"/>
@@ -11367,7 +11383,7 @@
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF110" s="7">
         <v>2.75E-2</v>
@@ -11387,7 +11403,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>114</v>
       </c>
@@ -11398,19 +11414,19 @@
         <v>39</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
@@ -11425,7 +11441,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
@@ -11433,14 +11449,14 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
       <c r="Y111" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
       <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE111" s="5" t="s">
         <v>57</v>
@@ -11459,13 +11475,13 @@
         <v>2</v>
       </c>
       <c r="AM111" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AN111" s="5">
         <v>504</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>176</v>
       </c>
@@ -11476,16 +11492,16 @@
         <v>39</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>52</v>
@@ -11499,10 +11515,10 @@
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="P112" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="P112" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
@@ -11517,14 +11533,14 @@
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
       <c r="Y112" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z112" s="5"/>
       <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE112" s="5" t="s">
         <v>57</v>
@@ -11545,7 +11561,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>177</v>
       </c>
@@ -11556,16 +11572,16 @@
         <v>39</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>52</v>
@@ -11579,10 +11595,10 @@
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P113" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="P113" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
@@ -11597,14 +11613,14 @@
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z113" s="5"/>
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AE113" s="5" t="s">
         <v>57</v>
@@ -11625,7 +11641,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>117</v>
       </c>
@@ -11640,10 +11656,10 @@
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>40</v>
@@ -11689,7 +11705,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="115" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>118</v>
       </c>
@@ -11703,22 +11719,22 @@
         <v>40</v>
       </c>
       <c r="E115" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="H115" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J115" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="K115" s="5"/>
       <c r="L115" s="5">
@@ -11727,27 +11743,27 @@
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="R115" s="5"/>
       <c r="S115" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T115" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U115" s="5"/>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
       <c r="Y115" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z115" s="5"/>
       <c r="AA115" s="5"/>
@@ -11755,7 +11771,7 @@
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF115" s="7">
         <v>3.5000000000000003E-2</v>
@@ -11775,7 +11791,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>119</v>
       </c>
@@ -11790,10 +11806,10 @@
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>40</v>
@@ -11833,11 +11849,11 @@
         <v>1</v>
       </c>
       <c r="AM116" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AN116" s="5"/>
     </row>
-    <row r="117" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>120</v>
       </c>
@@ -11852,10 +11868,10 @@
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>40</v>
@@ -11895,13 +11911,13 @@
         <v>1</v>
       </c>
       <c r="AM117" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AN117" s="5">
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>121</v>
       </c>
@@ -11915,16 +11931,16 @@
         <v>40</v>
       </c>
       <c r="E118" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>392</v>
       </c>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
@@ -11939,7 +11955,7 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
       <c r="S118" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T118" s="5"/>
       <c r="U118" s="5"/>
@@ -11950,7 +11966,7 @@
       <c r="Z118" s="5"/>
       <c r="AA118" s="5"/>
       <c r="AB118" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
@@ -11971,13 +11987,13 @@
         <v>2</v>
       </c>
       <c r="AM118" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AN118" s="5">
         <v>302</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>122</v>
       </c>
@@ -11991,13 +12007,13 @@
         <v>40</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>52</v>
@@ -12011,20 +12027,20 @@
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P119" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q119" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R119" s="5"/>
       <c r="S119" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T119" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U119" s="5"/>
       <c r="V119" s="5"/>
@@ -12034,7 +12050,7 @@
       <c r="Z119" s="5"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
@@ -12057,7 +12073,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>123</v>
       </c>
@@ -12071,16 +12087,16 @@
         <v>40</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F120" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
@@ -12098,19 +12114,19 @@
         <v>54</v>
       </c>
       <c r="T120" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="U120" s="5"/>
       <c r="V120" s="5"/>
       <c r="W120" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC120" s="5"/>
       <c r="AD120" s="5"/>
@@ -12133,7 +12149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>124</v>
       </c>
@@ -12147,16 +12163,16 @@
         <v>40</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F121" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H121" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>404</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
@@ -12165,13 +12181,13 @@
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P121" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q121" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R121" s="5"/>
       <c r="S121" s="5" t="s">
@@ -12188,7 +12204,7 @@
       <c r="Z121" s="5"/>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
@@ -12199,7 +12215,7 @@
       <c r="AG121" s="5"/>
       <c r="AH121" s="5"/>
       <c r="AI121" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AJ121" s="5"/>
       <c r="AK121" s="5">
@@ -12213,7 +12229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>126</v>
       </c>
@@ -12224,19 +12240,19 @@
         <v>39</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -12251,7 +12267,7 @@
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
       <c r="S122" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T122" s="5"/>
       <c r="U122" s="5"/>
@@ -12262,7 +12278,7 @@
       <c r="Z122" s="5"/>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
@@ -12275,10 +12291,10 @@
       <c r="AG122" s="5"/>
       <c r="AH122" s="5"/>
       <c r="AI122" s="5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AJ122" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AK122" s="5">
         <v>106</v>
@@ -12287,13 +12303,13 @@
         <v>2</v>
       </c>
       <c r="AM122" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AN122" s="5">
         <v>302</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>127</v>
       </c>
@@ -12304,16 +12320,16 @@
         <v>39</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>52</v>
@@ -12327,10 +12343,10 @@
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
@@ -12348,7 +12364,7 @@
       <c r="Z123" s="5"/>
       <c r="AA123" s="5"/>
       <c r="AB123" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
@@ -12371,7 +12387,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>128</v>
       </c>
@@ -12382,16 +12398,16 @@
         <v>39</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>52</v>
@@ -12405,10 +12421,10 @@
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
@@ -12426,7 +12442,7 @@
       <c r="Z124" s="5"/>
       <c r="AA124" s="5"/>
       <c r="AB124" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC124" s="5"/>
       <c r="AD124" s="5"/>
@@ -12449,7 +12465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>129</v>
       </c>
@@ -12460,16 +12476,16 @@
         <v>39</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>52</v>
@@ -12483,10 +12499,10 @@
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P125" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
@@ -12504,7 +12520,7 @@
       <c r="Z125" s="5"/>
       <c r="AA125" s="5"/>
       <c r="AB125" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC125" s="5"/>
       <c r="AD125" s="5"/>
@@ -12527,7 +12543,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>130</v>
       </c>
@@ -12538,16 +12554,16 @@
         <v>39</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>52</v>
@@ -12561,7 +12577,7 @@
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P126" s="6" t="s">
         <v>72</v>
@@ -12582,7 +12598,7 @@
       <c r="Z126" s="5"/>
       <c r="AA126" s="5"/>
       <c r="AB126" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC126" s="5"/>
       <c r="AD126" s="5"/>
@@ -12605,7 +12621,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>135</v>
       </c>
@@ -12619,16 +12635,16 @@
         <v>40</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
@@ -12643,7 +12659,7 @@
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
       <c r="S127" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T127" s="5"/>
       <c r="U127" s="5"/>
@@ -12654,7 +12670,7 @@
       <c r="Z127" s="5"/>
       <c r="AA127" s="5"/>
       <c r="AB127" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AC127" s="5"/>
       <c r="AD127" s="5"/>
@@ -12675,13 +12691,13 @@
         <v>2</v>
       </c>
       <c r="AM127" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AN127" s="5">
         <v>302</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>136</v>
       </c>
@@ -12695,13 +12711,13 @@
         <v>40</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>52</v>
@@ -12715,20 +12731,20 @@
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P128" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R128" s="5"/>
       <c r="S128" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T128" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U128" s="5"/>
       <c r="V128" s="5"/>
@@ -12738,7 +12754,7 @@
       <c r="Z128" s="5"/>
       <c r="AA128" s="5"/>
       <c r="AB128" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
@@ -12761,7 +12777,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>137</v>
       </c>
@@ -12775,16 +12791,16 @@
         <v>40</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
@@ -12802,19 +12818,19 @@
         <v>54</v>
       </c>
       <c r="T129" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="U129" s="5"/>
       <c r="V129" s="5"/>
       <c r="W129" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AC129" s="5"/>
       <c r="AD129" s="5"/>
@@ -12837,7 +12853,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>138</v>
       </c>
@@ -12851,16 +12867,16 @@
         <v>40</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
@@ -12869,13 +12885,13 @@
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P130" s="6" t="s">
         <v>53</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R130" s="5"/>
       <c r="S130" s="5" t="s">
@@ -12892,7 +12908,7 @@
       <c r="Z130" s="5"/>
       <c r="AA130" s="5"/>
       <c r="AB130" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AC130" s="5"/>
       <c r="AD130" s="5"/>
@@ -12903,7 +12919,7 @@
       <c r="AG130" s="5"/>
       <c r="AH130" s="5"/>
       <c r="AI130" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AJ130" s="5"/>
       <c r="AK130" s="5">
@@ -12917,7 +12933,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>139</v>
       </c>
@@ -12932,10 +12948,10 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>40</v>
@@ -12981,7 +12997,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>140</v>
       </c>
@@ -12995,16 +13011,16 @@
         <v>40</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -13019,7 +13035,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
       <c r="S132" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T132" s="5"/>
       <c r="U132" s="5"/>
@@ -13030,7 +13046,7 @@
       <c r="Z132" s="5"/>
       <c r="AA132" s="5"/>
       <c r="AB132" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC132" s="5"/>
       <c r="AD132" s="5"/>
@@ -13051,13 +13067,13 @@
         <v>2</v>
       </c>
       <c r="AM132" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AN132" s="5">
         <v>303</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>141</v>
       </c>
@@ -13071,13 +13087,13 @@
         <v>40</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>52</v>
@@ -13091,20 +13107,20 @@
       <c r="M133" s="5"/>
       <c r="N133" s="5"/>
       <c r="O133" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R133" s="5"/>
       <c r="S133" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T133" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U133" s="5"/>
       <c r="V133" s="5"/>
@@ -13114,7 +13130,7 @@
       <c r="Z133" s="5"/>
       <c r="AA133" s="5"/>
       <c r="AB133" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC133" s="5"/>
       <c r="AD133" s="5"/>
@@ -13137,7 +13153,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>142</v>
       </c>
@@ -13151,16 +13167,16 @@
         <v>40</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -13178,19 +13194,19 @@
         <v>54</v>
       </c>
       <c r="T134" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="U134" s="5"/>
       <c r="V134" s="5"/>
       <c r="W134" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
       <c r="AA134" s="5"/>
       <c r="AB134" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC134" s="5"/>
       <c r="AD134" s="5"/>
@@ -13213,7 +13229,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>143</v>
       </c>
@@ -13227,16 +13243,16 @@
         <v>40</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F135" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="H135" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
@@ -13262,7 +13278,7 @@
       <c r="Z135" s="5"/>
       <c r="AA135" s="5"/>
       <c r="AB135" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC135" s="5"/>
       <c r="AD135" s="5"/>
@@ -13281,13 +13297,13 @@
         <v>3</v>
       </c>
       <c r="AM135" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AN135" s="5">
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>144</v>
       </c>
@@ -13301,16 +13317,16 @@
         <v>40</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
@@ -13319,10 +13335,10 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
       <c r="O136" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P136" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
@@ -13340,7 +13356,7 @@
       <c r="Z136" s="5"/>
       <c r="AA136" s="5"/>
       <c r="AB136" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC136" s="5"/>
       <c r="AD136" s="5"/>
@@ -13351,7 +13367,7 @@
       <c r="AG136" s="5"/>
       <c r="AH136" s="5"/>
       <c r="AI136" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AJ136" s="5"/>
       <c r="AK136" s="5">
@@ -13365,7 +13381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>145</v>
       </c>
@@ -13379,16 +13395,16 @@
         <v>40</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
@@ -13397,10 +13413,10 @@
       <c r="M137" s="5"/>
       <c r="N137" s="5"/>
       <c r="O137" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
@@ -13418,7 +13434,7 @@
       <c r="Z137" s="5"/>
       <c r="AA137" s="5"/>
       <c r="AB137" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AC137" s="5"/>
       <c r="AD137" s="5"/>
@@ -13429,7 +13445,7 @@
       <c r="AG137" s="5"/>
       <c r="AH137" s="5"/>
       <c r="AI137" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AJ137" s="5"/>
       <c r="AK137" s="5">
@@ -13443,7 +13459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>146</v>
       </c>
@@ -13457,16 +13473,16 @@
         <v>40</v>
       </c>
       <c r="E138" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="H138" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -13479,7 +13495,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
       <c r="S138" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="T138" s="5"/>
       <c r="U138" s="5"/>
@@ -13501,7 +13517,7 @@
       <c r="AG138" s="5"/>
       <c r="AH138" s="5"/>
       <c r="AI138" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AJ138" s="5"/>
       <c r="AK138" s="5">
@@ -13511,13 +13527,13 @@
         <v>2</v>
       </c>
       <c r="AM138" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AN138" s="5">
         <v>311</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>147</v>
       </c>
@@ -13532,10 +13548,10 @@
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>40</v>
@@ -13575,11 +13591,11 @@
         <v>1</v>
       </c>
       <c r="AM139" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AN139" s="5"/>
     </row>
-    <row r="140" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>148</v>
       </c>
@@ -13594,10 +13610,10 @@
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>40</v>
@@ -13643,7 +13659,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>149</v>
       </c>
@@ -13657,16 +13673,16 @@
         <v>40</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F141" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="H141" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
@@ -13679,23 +13695,23 @@
       </c>
       <c r="N141" s="5"/>
       <c r="O141" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
       <c r="S141" s="5"/>
       <c r="T141" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U141" s="5"/>
       <c r="V141" s="5"/>
       <c r="W141" s="5"/>
       <c r="X141" s="5"/>
       <c r="Y141" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z141" s="5"/>
       <c r="AA141" s="5"/>
@@ -13721,7 +13737,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>150</v>
       </c>
@@ -13735,16 +13751,16 @@
         <v>40</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F142" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H142" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
@@ -13755,23 +13771,23 @@
       <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
       <c r="S142" s="5"/>
       <c r="T142" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U142" s="5"/>
       <c r="V142" s="5"/>
       <c r="W142" s="5"/>
       <c r="X142" s="5"/>
       <c r="Y142" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Z142" s="5"/>
       <c r="AA142" s="5"/>
@@ -13797,7 +13813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="143" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>151</v>
       </c>
@@ -13812,10 +13828,10 @@
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>40</v>
@@ -13855,13 +13871,13 @@
         <v>1</v>
       </c>
       <c r="AM143" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AN143" s="5">
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>152</v>
       </c>
@@ -13875,16 +13891,16 @@
         <v>40</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
@@ -13900,16 +13916,16 @@
       <c r="R144" s="5"/>
       <c r="S144" s="5"/>
       <c r="T144" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U144" s="5"/>
       <c r="V144" s="5"/>
       <c r="W144" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="X144" s="5"/>
       <c r="Y144" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z144" s="5"/>
       <c r="AA144" s="5"/>
@@ -13925,10 +13941,10 @@
       <c r="AG144" s="5"/>
       <c r="AH144" s="5"/>
       <c r="AI144" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ144" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK144" s="5">
         <v>124</v>
@@ -13941,7 +13957,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>153</v>
       </c>
@@ -13955,16 +13971,16 @@
         <v>40</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F145" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="H145" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
@@ -13977,23 +13993,23 @@
         <v>15</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P145" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
       <c r="S145" s="5"/>
       <c r="T145" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U145" s="5"/>
       <c r="V145" s="5"/>
       <c r="W145" s="5"/>
       <c r="X145" s="5"/>
       <c r="Y145" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z145" s="5"/>
       <c r="AA145" s="5"/>
@@ -14009,10 +14025,10 @@
       <c r="AG145" s="5"/>
       <c r="AH145" s="5"/>
       <c r="AI145" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ145" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK145" s="5">
         <v>125</v>
@@ -14025,7 +14041,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>154</v>
       </c>
@@ -14039,13 +14055,13 @@
         <v>40</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>47</v>
@@ -14061,7 +14077,7 @@
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
       <c r="S146" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T146" s="5"/>
       <c r="U146" s="5"/>
@@ -14069,7 +14085,7 @@
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
       <c r="Y146" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z146" s="5"/>
       <c r="AA146" s="5"/>
@@ -14077,7 +14093,7 @@
       <c r="AC146" s="5"/>
       <c r="AD146" s="5"/>
       <c r="AE146" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF146" s="7">
         <v>2.5000000000000001E-2</v>
@@ -14085,10 +14101,10 @@
       <c r="AG146" s="5"/>
       <c r="AH146" s="5"/>
       <c r="AI146" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ146" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK146" s="5">
         <v>126</v>
@@ -14097,13 +14113,13 @@
         <v>2</v>
       </c>
       <c r="AM146" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AN146" s="5">
         <v>312</v>
       </c>
     </row>
-    <row r="147" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>155</v>
       </c>
@@ -14118,13 +14134,13 @@
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
@@ -14135,30 +14151,30 @@
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
       <c r="O147" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q147" s="5"/>
       <c r="R147" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S147" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T147" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="U147" s="5"/>
       <c r="V147" s="5"/>
       <c r="W147" s="5"/>
       <c r="X147" s="5"/>
       <c r="Y147" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z147" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
@@ -14171,10 +14187,10 @@
       <c r="AG147" s="5"/>
       <c r="AH147" s="5"/>
       <c r="AI147" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ147" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK147" s="5">
         <v>128</v>
@@ -14187,7 +14203,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>156</v>
       </c>
@@ -14202,13 +14218,13 @@
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -14219,30 +14235,30 @@
       <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="O148" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="P148" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q148" s="5"/>
       <c r="R148" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S148" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T148" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="U148" s="5"/>
       <c r="V148" s="5"/>
       <c r="W148" s="5"/>
       <c r="X148" s="5"/>
       <c r="Y148" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z148" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
@@ -14255,10 +14271,10 @@
       <c r="AG148" s="5"/>
       <c r="AH148" s="5"/>
       <c r="AI148" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ148" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK148" s="5">
         <v>129</v>
@@ -14271,7 +14287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="149" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>157</v>
       </c>
@@ -14286,13 +14302,13 @@
       </c>
       <c r="E149" s="5"/>
       <c r="F149" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
@@ -14307,7 +14323,7 @@
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
       <c r="S149" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T149" s="5"/>
       <c r="U149" s="5"/>
@@ -14315,7 +14331,7 @@
       <c r="W149" s="5"/>
       <c r="X149" s="5"/>
       <c r="Y149" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z149" s="5"/>
       <c r="AA149" s="5"/>
@@ -14329,10 +14345,10 @@
       <c r="AG149" s="5"/>
       <c r="AH149" s="5"/>
       <c r="AI149" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ149" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK149" s="5">
         <v>130</v>
@@ -14341,13 +14357,13 @@
         <v>3</v>
       </c>
       <c r="AM149" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AN149" s="5">
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>158</v>
       </c>
@@ -14362,10 +14378,10 @@
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>52</v>
@@ -14379,34 +14395,34 @@
       <c r="M150" s="5"/>
       <c r="N150" s="5"/>
       <c r="O150" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="P150" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q150" s="5"/>
       <c r="R150" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S150" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T150" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="U150" s="5"/>
       <c r="V150" s="5"/>
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
       <c r="Y150" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z150" s="5"/>
       <c r="AA150" s="5"/>
       <c r="AB150" s="5"/>
       <c r="AC150" s="5"/>
       <c r="AD150" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AE150" s="5" t="s">
         <v>57</v>
@@ -14415,10 +14431,10 @@
       <c r="AG150" s="5"/>
       <c r="AH150" s="5"/>
       <c r="AI150" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ150" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK150" s="5">
         <v>131</v>
@@ -14431,7 +14447,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="151" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>159</v>
       </c>
@@ -14446,10 +14462,10 @@
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>52</v>
@@ -14463,34 +14479,34 @@
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
       <c r="O151" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P151" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q151" s="5"/>
       <c r="R151" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="S151" s="5" t="s">
         <v>54</v>
       </c>
       <c r="T151" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="U151" s="5"/>
       <c r="V151" s="5"/>
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
       <c r="Y151" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z151" s="5"/>
       <c r="AA151" s="5"/>
       <c r="AB151" s="5"/>
       <c r="AC151" s="5"/>
       <c r="AD151" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AE151" s="5" t="s">
         <v>57</v>
@@ -14499,10 +14515,10 @@
       <c r="AG151" s="5"/>
       <c r="AH151" s="5"/>
       <c r="AI151" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ151" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK151" s="5">
         <v>132</v>
@@ -14515,7 +14531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>160</v>
       </c>
@@ -14530,13 +14546,13 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="H152" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
@@ -14547,10 +14563,10 @@
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
       <c r="O152" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P152" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
@@ -14558,14 +14574,14 @@
         <v>54</v>
       </c>
       <c r="T152" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U152" s="5"/>
       <c r="V152" s="5"/>
       <c r="W152" s="5"/>
       <c r="X152" s="5"/>
       <c r="Y152" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z152" s="5"/>
       <c r="AA152" s="5"/>
@@ -14579,10 +14595,10 @@
       <c r="AG152" s="5"/>
       <c r="AH152" s="5"/>
       <c r="AI152" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ152" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK152" s="5">
         <v>133</v>
@@ -14595,7 +14611,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>161</v>
       </c>
@@ -14609,16 +14625,16 @@
         <v>40</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F153" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="H153" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
@@ -14628,20 +14644,20 @@
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
       <c r="P153" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
       <c r="S153" s="5"/>
       <c r="T153" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U153" s="5"/>
       <c r="V153" s="5"/>
       <c r="W153" s="5"/>
       <c r="X153" s="5"/>
       <c r="Y153" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z153" s="5"/>
       <c r="AA153" s="5"/>
@@ -14649,7 +14665,7 @@
       <c r="AC153" s="5"/>
       <c r="AD153" s="5"/>
       <c r="AE153" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF153" s="7">
         <v>2.5000000000000001E-2</v>
@@ -14657,10 +14673,10 @@
       <c r="AG153" s="5"/>
       <c r="AH153" s="5"/>
       <c r="AI153" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AJ153" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK153" s="5">
         <v>135</v>
@@ -14673,7 +14689,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="154" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>162</v>
       </c>
@@ -14684,19 +14700,19 @@
         <v>39</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
@@ -14719,7 +14735,7 @@
       <c r="W154" s="5"/>
       <c r="X154" s="5"/>
       <c r="Y154" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Z154" s="5"/>
       <c r="AA154" s="5"/>
@@ -14727,7 +14743,7 @@
       <c r="AC154" s="5"/>
       <c r="AD154" s="5"/>
       <c r="AE154" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF154" s="7">
         <v>0.03</v>
@@ -14749,7 +14765,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>163</v>
       </c>
@@ -14760,19 +14776,19 @@
         <v>39</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F155" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="H155" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="G155" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
@@ -14785,10 +14801,10 @@
       </c>
       <c r="N155" s="5"/>
       <c r="O155" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P155" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
@@ -14796,14 +14812,14 @@
         <v>54</v>
       </c>
       <c r="T155" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U155" s="5"/>
       <c r="V155" s="5"/>
       <c r="W155" s="5"/>
       <c r="X155" s="5"/>
       <c r="Y155" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Z155" s="5"/>
       <c r="AA155" s="5"/>
@@ -14811,13 +14827,13 @@
       <c r="AC155" s="5"/>
       <c r="AD155" s="5"/>
       <c r="AE155" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AF155" s="7"/>
       <c r="AG155" s="5"/>
       <c r="AH155" s="5"/>
       <c r="AI155" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AJ155" s="5"/>
       <c r="AK155" s="5">
@@ -14831,7 +14847,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="156" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>164</v>
       </c>
@@ -14846,10 +14862,10 @@
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>40</v>
@@ -14893,7 +14909,7 @@
       </c>
       <c r="AN156" s="5"/>
     </row>
-    <row r="157" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>165</v>
       </c>
@@ -14904,16 +14920,16 @@
         <v>39</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H157" s="5" t="s">
         <v>47</v>
@@ -14955,13 +14971,13 @@
         <v>2</v>
       </c>
       <c r="AM157" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AN157" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>166</v>
       </c>
@@ -14972,19 +14988,19 @@
         <v>39</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F158" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="H158" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
@@ -14996,7 +15012,7 @@
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
@@ -15004,7 +15020,7 @@
         <v>54</v>
       </c>
       <c r="T158" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U158" s="5"/>
       <c r="V158" s="5"/>
@@ -15012,7 +15028,7 @@
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
       <c r="Z158" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AA158" s="5"/>
       <c r="AB158" s="5"/>
@@ -15039,7 +15055,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>167</v>
       </c>
@@ -15050,19 +15066,19 @@
         <v>39</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E159" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="F159" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>539</v>
-      </c>
       <c r="H159" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
@@ -15074,7 +15090,7 @@
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
@@ -15082,7 +15098,7 @@
         <v>54</v>
       </c>
       <c r="T159" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U159" s="5"/>
       <c r="V159" s="5"/>
@@ -15090,7 +15106,7 @@
       <c r="X159" s="5"/>
       <c r="Y159" s="5"/>
       <c r="Z159" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AA159" s="5"/>
       <c r="AB159" s="5"/>
@@ -15117,7 +15133,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>168</v>
       </c>
@@ -15128,19 +15144,19 @@
         <v>39</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
@@ -15152,7 +15168,7 @@
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="P160" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
@@ -15160,7 +15176,7 @@
         <v>54</v>
       </c>
       <c r="T160" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U160" s="5"/>
       <c r="V160" s="5"/>
@@ -15168,7 +15184,7 @@
       <c r="X160" s="5"/>
       <c r="Y160" s="5"/>
       <c r="Z160" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AA160" s="5"/>
       <c r="AB160" s="5"/>
@@ -15195,7 +15211,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="161" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>169</v>
       </c>
@@ -15206,19 +15222,19 @@
         <v>39</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
@@ -15230,7 +15246,7 @@
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
       <c r="P161" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
@@ -15238,7 +15254,7 @@
         <v>54</v>
       </c>
       <c r="T161" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="U161" s="5"/>
       <c r="V161" s="5"/>
@@ -15246,7 +15262,7 @@
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
       <c r="Z161" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AA161" s="5"/>
       <c r="AB161" s="5"/>
@@ -15273,7 +15289,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="162" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>173</v>
       </c>
@@ -15284,24 +15300,24 @@
         <v>39</v>
       </c>
       <c r="D162" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="G162" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="F162" s="5" t="s">
+      <c r="H162" s="5" t="s">
         <v>549</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L162" s="5"/>
       <c r="M162" s="5"/>
@@ -15312,7 +15328,7 @@
       <c r="R162" s="5"/>
       <c r="S162" s="5"/>
       <c r="T162" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U162" s="5"/>
       <c r="V162" s="5"/>
@@ -15339,7 +15355,7 @@
       </c>
       <c r="AN162" s="5"/>
     </row>
-    <row r="163" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>174</v>
       </c>
@@ -15350,24 +15366,24 @@
         <v>39</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E163" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G163" s="5" t="s">
-        <v>556</v>
-      </c>
       <c r="H163" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L163" s="5"/>
       <c r="M163" s="5"/>
@@ -15378,7 +15394,7 @@
       <c r="R163" s="5"/>
       <c r="S163" s="5"/>
       <c r="T163" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U163" s="5"/>
       <c r="V163" s="5"/>
@@ -15401,11 +15417,11 @@
       </c>
       <c r="AL163" s="5"/>
       <c r="AM163" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AN163" s="5"/>
     </row>
-    <row r="164" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>175</v>
       </c>
@@ -15416,39 +15432,39 @@
         <v>39</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E164" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H164" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="G164" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H164" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
       <c r="K164" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L164" s="5"/>
       <c r="M164" s="5"/>
       <c r="N164" s="5"/>
       <c r="O164" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="P164" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
       <c r="S164" s="5"/>
       <c r="T164" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U164" s="5"/>
       <c r="V164" s="5"/>
@@ -15475,7 +15491,7 @@
       </c>
       <c r="AN164" s="5"/>
     </row>
-    <row r="165" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>176</v>
       </c>
@@ -15486,39 +15502,39 @@
         <v>39</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E165" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H165" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L165" s="5"/>
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
       <c r="O165" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="P165" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="P165" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
       <c r="S165" s="5"/>
       <c r="T165" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U165" s="5"/>
       <c r="V165" s="5"/>
@@ -15545,7 +15561,7 @@
       </c>
       <c r="AN165" s="5"/>
     </row>
-    <row r="166" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>177</v>
       </c>
@@ -15556,39 +15572,39 @@
         <v>39</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E166" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H166" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L166" s="5"/>
       <c r="M166" s="5"/>
       <c r="N166" s="5"/>
       <c r="O166" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="P166" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
       <c r="S166" s="5"/>
       <c r="T166" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U166" s="5"/>
       <c r="V166" s="5"/>
@@ -15615,7 +15631,7 @@
       </c>
       <c r="AN166" s="5"/>
     </row>
-    <row r="167" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>178</v>
       </c>
@@ -15626,39 +15642,39 @@
         <v>39</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E167" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="H167" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>560</v>
       </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L167" s="5"/>
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
       <c r="O167" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="P167" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
       <c r="S167" s="5"/>
       <c r="T167" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U167" s="5"/>
       <c r="V167" s="5"/>
@@ -15685,7 +15701,7 @@
       </c>
       <c r="AN167" s="5"/>
     </row>
-    <row r="168" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>179</v>
       </c>
@@ -15696,24 +15712,24 @@
         <v>39</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E168" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="H168" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="H168" s="5" t="s">
-        <v>570</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L168" s="5"/>
       <c r="M168" s="5"/>
@@ -15724,7 +15740,7 @@
       <c r="R168" s="5"/>
       <c r="S168" s="5"/>
       <c r="T168" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U168" s="5"/>
       <c r="V168" s="5"/>
@@ -15747,11 +15763,11 @@
       </c>
       <c r="AL168" s="5"/>
       <c r="AM168" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AN168" s="5"/>
     </row>
-    <row r="169" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>180</v>
       </c>
@@ -15762,24 +15778,24 @@
         <v>39</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E169" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
       <c r="K169" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L169" s="5"/>
       <c r="M169" s="5"/>
@@ -15790,7 +15806,7 @@
       <c r="R169" s="5"/>
       <c r="S169" s="5"/>
       <c r="T169" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U169" s="5"/>
       <c r="V169" s="5"/>
@@ -15817,7 +15833,7 @@
       </c>
       <c r="AN169" s="5"/>
     </row>
-    <row r="170" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>181</v>
       </c>
@@ -15828,44 +15844,44 @@
         <v>39</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E170" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G170" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="F170" s="5" t="s">
+      <c r="H170" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="H170" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
       <c r="K170" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
       <c r="P170" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
       <c r="S170" s="5"/>
       <c r="T170" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="U170" s="5"/>
       <c r="V170" s="5"/>
       <c r="W170" s="5"/>
       <c r="X170" s="5"/>
       <c r="Y170" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z170" s="5"/>
       <c r="AA170" s="5"/>
@@ -15885,7 +15901,7 @@
       <c r="AM170" s="6"/>
       <c r="AN170" s="5"/>
     </row>
-    <row r="171" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>182</v>
       </c>
@@ -15896,44 +15912,44 @@
         <v>39</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E171" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G171" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>584</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>586</v>
       </c>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
       <c r="K171" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
       <c r="P171" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
       <c r="S171" s="5"/>
       <c r="T171" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="U171" s="5"/>
       <c r="V171" s="5"/>
       <c r="W171" s="5"/>
       <c r="X171" s="5"/>
       <c r="Y171" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Z171" s="5"/>
       <c r="AA171" s="5"/>
@@ -15953,7 +15969,7 @@
       <c r="AM171" s="6"/>
       <c r="AN171" s="5"/>
     </row>
-    <row r="172" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>183</v>
       </c>
@@ -15964,39 +15980,39 @@
         <v>39</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E172" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F172" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>591</v>
-      </c>
       <c r="H172" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
       <c r="N172" s="5"/>
       <c r="O172" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P172" s="8" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U172" s="5"/>
       <c r="V172" s="5"/>
@@ -16019,11 +16035,11 @@
       </c>
       <c r="AL172" s="5"/>
       <c r="AM172" s="8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AN172" s="5"/>
     </row>
-    <row r="173" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>184</v>
       </c>
@@ -16034,39 +16050,39 @@
         <v>39</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E173" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G173" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F173" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>591</v>
-      </c>
       <c r="H173" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L173" s="5"/>
       <c r="M173" s="5"/>
       <c r="N173" s="5"/>
       <c r="O173" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P173" s="8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
       <c r="S173" s="5"/>
       <c r="T173" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U173" s="5"/>
       <c r="V173" s="5"/>
@@ -16093,7 +16109,7 @@
       </c>
       <c r="AN173" s="5"/>
     </row>
-    <row r="174" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>185</v>
       </c>
@@ -16104,39 +16120,39 @@
         <v>39</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E174" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G174" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F174" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>591</v>
-      </c>
       <c r="H174" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L174" s="5"/>
       <c r="M174" s="5"/>
       <c r="N174" s="5"/>
       <c r="O174" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P174" s="8" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
       <c r="S174" s="5"/>
       <c r="T174" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U174" s="5"/>
       <c r="V174" s="5"/>
@@ -16159,11 +16175,11 @@
       </c>
       <c r="AL174" s="5"/>
       <c r="AM174" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AN174" s="5"/>
     </row>
-    <row r="175" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>186</v>
       </c>
@@ -16174,22 +16190,22 @@
         <v>39</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L175" s="5"/>
       <c r="M175" s="5"/>
@@ -16200,7 +16216,7 @@
       <c r="R175" s="5"/>
       <c r="S175" s="5"/>
       <c r="T175" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U175" s="5"/>
       <c r="V175" s="5"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Small - CAP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-11-07\PoS 2019 with categories 20191107\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D524FD0D-F798-4889-8DAA-3F6F44AC760E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69646A4F-F2B8-48DF-8F9B-7AD7DEEB54EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Convenience Small'!$A$1:$AN$175</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1982,18 +1982,9 @@
     <t>Plan</t>
   </si>
   <si>
-    <t>1 door cooler - Modern Trade, SS_1 door cooler - Modern Trade</t>
-  </si>
-  <si>
-    <t>Company Coolers: 1st Cash Cooler, 2 door cooler - Modern Trade, Open Front - Modern Trade, Cash Cooler (Open Top) - Modern Trade, Coolers - Counter top, 1.5 door cooler, SS_Company Coolers: 1st Cash Cooler, SS_2 door cooler - Modern Trade, SS_Open Front - Modern Trade, SS_Cash Cooler (Open Top) - Modern Trade, SS_Coolers - Counter top, SS_1.5 door cooler</t>
-  </si>
-  <si>
     <t>number of atomic KPI Passed</t>
   </si>
   <si>
-    <t>Panoramic Photo, SS_Panoramic Photo</t>
-  </si>
-  <si>
     <t>Category KPI Type</t>
   </si>
   <si>
@@ -2010,6 +2001,15 @@
   </si>
   <si>
     <t>5449000044808, 5449000280206</t>
+  </si>
+  <si>
+    <t>Panoramic Photo; SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>1 door cooler - Modern Trade; SS_1 door cooler - Modern Trade</t>
+  </si>
+  <si>
+    <t>Company Coolers: 1st Cash Cooler; 2 door cooler - Modern Trade; Open Front - Modern Trade; Cash Cooler (Open Top) - Modern Trade; Coolers - Counter top; 1.5 door cooler; SS_Company Coolers: 1st Cash Cooler; SS_2 door cooler - Modern Trade; SS_Open Front - Modern Trade; SS_Cash Cooler (Open Top) - Modern Trade; SS_Coolers - Counter top; SS_1.5 door cooler</t>
   </si>
 </sst>
 </file>
@@ -2524,9 +2524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMM175"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="I1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="T1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2539,10 @@
     <col min="11" max="14" width="8.88671875" style="4"/>
     <col min="15" max="15" width="67" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="57.5546875" style="4"/>
-    <col min="17" max="1027" width="8.88671875" style="4"/>
+    <col min="17" max="25" width="8.88671875" style="4"/>
+    <col min="26" max="26" width="96.6640625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="37.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="1027" width="8.88671875" style="4"/>
     <col min="1028" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
@@ -2569,10 +2572,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -2855,7 +2858,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
@@ -2937,7 +2940,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -3019,7 +3022,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
@@ -3101,7 +3104,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -3183,7 +3186,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -3265,7 +3268,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
@@ -3347,7 +3350,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -3429,7 +3432,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -3489,10 +3492,10 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -3511,7 +3514,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -3593,7 +3596,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
@@ -3675,7 +3678,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -3757,7 +3760,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
@@ -3839,7 +3842,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
@@ -3921,7 +3924,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -4003,7 +4006,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -4063,10 +4066,10 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="12" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -4085,7 +4088,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -4167,7 +4170,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -4249,7 +4252,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
@@ -4331,7 +4334,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
@@ -4413,7 +4416,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -4495,7 +4498,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
@@ -4577,7 +4580,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
@@ -4659,7 +4662,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -4741,7 +4744,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
@@ -4823,7 +4826,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
@@ -4905,7 +4908,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
@@ -4987,7 +4990,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
@@ -5069,7 +5072,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -5223,7 +5226,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -5305,7 +5308,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
@@ -5387,7 +5390,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
@@ -5469,7 +5472,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
@@ -5551,7 +5554,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -5705,7 +5708,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -5787,7 +5790,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -5869,7 +5872,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
@@ -5951,7 +5954,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -6105,7 +6108,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -6187,7 +6190,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
@@ -6269,7 +6272,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -6351,7 +6354,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
@@ -6433,7 +6436,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
@@ -6587,7 +6590,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -6669,7 +6672,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
@@ -6751,7 +6754,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -6833,7 +6836,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
       <c r="AA53" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
@@ -6915,7 +6918,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
@@ -6997,7 +7000,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -7079,7 +7082,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
@@ -7161,7 +7164,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
@@ -7243,7 +7246,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
@@ -7325,7 +7328,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -7407,7 +7410,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
       <c r="AA60" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
@@ -7489,7 +7492,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
@@ -7571,7 +7574,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -7653,7 +7656,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
       <c r="AA63" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -7735,7 +7738,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
@@ -7817,7 +7820,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
@@ -7899,7 +7902,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
@@ -7981,7 +7984,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
@@ -8063,7 +8066,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
@@ -8145,7 +8148,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
       <c r="AA69" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -8227,7 +8230,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
@@ -8309,7 +8312,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -8391,7 +8394,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
       <c r="AA72" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
@@ -8473,7 +8476,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
       <c r="AA73" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
@@ -8555,7 +8558,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
@@ -8637,7 +8640,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
       <c r="AA75" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
@@ -8719,7 +8722,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
@@ -8801,7 +8804,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
       <c r="AA77" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -8883,7 +8886,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
@@ -8965,7 +8968,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
       <c r="AA79" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
@@ -9047,7 +9050,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
       <c r="AA80" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
@@ -9197,7 +9200,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
       <c r="AA82" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
@@ -9279,7 +9282,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
       <c r="AA83" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
@@ -9361,7 +9364,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
@@ -9622,7 +9625,7 @@
         <v>308</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -10490,7 +10493,7 @@
         <v>340</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
@@ -11118,7 +11121,7 @@
         <v>360</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -11426,7 +11429,7 @@
         <v>370</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
@@ -14174,7 +14177,7 @@
         <v>477</v>
       </c>
       <c r="Z147" s="5" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="AA147" s="5"/>
       <c r="AB147" s="5"/>
@@ -14258,7 +14261,7 @@
         <v>477</v>
       </c>
       <c r="Z148" s="5" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="AA148" s="5"/>
       <c r="AB148" s="5"/>
